--- a/FAOdata/PAYS _FAO.xlsx
+++ b/FAOdata/PAYS _FAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d620ac185dc3dbd/Bureau/FAOdata/FAOdataDico/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{167CB271-4155-49F1-9784-E217C6EB9421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E6704AF-846D-4232-8CC9-D91B74F58FE2}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{167CB271-4155-49F1-9784-E217C6EB9421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{701E6321-1614-4DE3-AF4B-9C908C7BCC37}"/>
   <bookViews>
-    <workbookView xWindow="-27120" yWindow="0" windowWidth="22200" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FAOgroupePays" sheetId="7" r:id="rId1"/>
@@ -32239,7 +32239,7 @@
   <dimension ref="A1:G188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33123,7 +33123,7 @@
         <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -35123,7 +35123,7 @@
         <v>304</v>
       </c>
       <c r="G115" t="s">
-        <v>57</v>
+        <v>297</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -35798,7 +35798,7 @@
         <v>443</v>
       </c>
       <c r="G142" t="s">
-        <v>57</v>
+        <v>442</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -36448,7 +36448,7 @@
         <v>519</v>
       </c>
       <c r="G168" t="s">
-        <v>57</v>
+        <v>446</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -36673,7 +36673,7 @@
         <v>544</v>
       </c>
       <c r="G177" t="s">
-        <v>57</v>
+        <v>534</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -36748,7 +36748,7 @@
         <v>551</v>
       </c>
       <c r="G180" t="s">
-        <v>57</v>
+        <v>464</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -36963,7 +36963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EDF372-32AB-4600-A573-6D61FBB5EDF6}">
   <dimension ref="A1:T188"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="T65" sqref="T65"/>
     </sheetView>
   </sheetViews>

--- a/FAOdata/PAYS _FAO.xlsx
+++ b/FAOdata/PAYS _FAO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d620ac185dc3dbd/Bureau/FAOdata/FAOdataDico/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d620ac185dc3dbd/Documents/GitHub/OC-P04VA/FAOdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{167CB271-4155-49F1-9784-E217C6EB9421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{701E6321-1614-4DE3-AF4B-9C908C7BCC37}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{167CB271-4155-49F1-9784-E217C6EB9421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2887828-1864-4642-8490-C8FE89525D10}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28320" yWindow="3570" windowWidth="28155" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FAOgroupePays" sheetId="7" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6273" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6286" uniqueCount="645">
   <si>
     <t>Code Groupe de pays</t>
   </si>
@@ -1987,6 +1987,33 @@
   </si>
   <si>
     <t>AlphaISO3</t>
+  </si>
+  <si>
+    <t>Tchécoslovaquie</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Affectation Tchéquie  :  Pop2020   TCH 10 Mhab. / Slov 5 Mhab.</t>
+  </si>
+  <si>
+    <t>Affectation Be car pop Be 10Mhb  &gt; pop Lux 4-6mhab</t>
+  </si>
+  <si>
+    <t>Russie</t>
+  </si>
+  <si>
+    <t>Ethopie</t>
+  </si>
+  <si>
+    <t>Yougoslavie</t>
+  </si>
+  <si>
+    <t>SCG : Mont 6mhab - Serbie 8,8-9 Mhab -  Yougoslavie</t>
+  </si>
+  <si>
+    <t>Yougoslavie : Monténégro 6Mhab  - Serbie 9Mhab- Kosovo - Macédoine 2Mhab - Bosnie-Herzégovine  3,8Mhab - Croatie 4hba</t>
   </si>
 </sst>
 </file>
@@ -3368,12 +3395,12 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{120D56E9-AC4C-41C5-870B-8A13C24A7D46}" name="Tableau62" displayName="Tableau62" ref="A1:G188" totalsRowShown="0">
-  <autoFilter ref="A1:G188" xr:uid="{A195BCB9-0DE4-408C-B2BB-BD35C5C1E9CC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G45">
-    <sortCondition ref="F1:F188"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{120D56E9-AC4C-41C5-870B-8A13C24A7D46}" name="Tableau62" displayName="Tableau62" ref="A1:H188" totalsRowShown="0">
+  <autoFilter ref="A1:H188" xr:uid="{A195BCB9-0DE4-408C-B2BB-BD35C5C1E9CC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G188">
+    <sortCondition ref="G1:G188"/>
   </sortState>
-  <tableColumns count="7">
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{9B6411D5-A3DD-4C60-9032-B615691189DD}" name="CodeContinent" dataDxfId="14">
       <calculatedColumnFormula>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</calculatedColumnFormula>
     </tableColumn>
@@ -3385,6 +3412,7 @@
     <tableColumn id="5" xr3:uid="{89972DBE-5C94-4D8C-8A9D-573B1D76F030}" name="Code_Pays"/>
     <tableColumn id="6" xr3:uid="{3D3FA1C4-9F97-4313-B031-BD9B6A8D5970}" name="Pays"/>
     <tableColumn id="9" xr3:uid="{D5A162CB-649B-4397-B079-DC2AC98167DA}" name="AlphaISO3"/>
+    <tableColumn id="7" xr3:uid="{6CAB0198-E6A8-49D8-82AE-EB31C15CF18E}" name="Note"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -22472,7 +22500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C24328-A349-43A1-A502-7F65BBF0B6DD}">
   <dimension ref="A1:J222"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D229" sqref="D229"/>
     </sheetView>
   </sheetViews>
@@ -32236,10 +32264,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71FBCA2-551D-49A7-B242-D0EBDBF161A6}">
-  <dimension ref="A1:G188"/>
+  <dimension ref="A1:H188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32251,9 +32279,10 @@
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="85.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>618</v>
       </c>
@@ -32275,83 +32304,95 @@
       <c r="G1" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B2" t="str" cm="1">
         <f t="array" ref="B2">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C2">
-        <v>5104</v>
+        <v>5404</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>553</v>
       </c>
       <c r="E2">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>443</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+      <c r="H2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B3" t="str" cm="1">
         <f t="array" ref="B3">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C3">
-        <v>5104</v>
+        <v>5302</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>418</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="H3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B4" t="str" cm="1">
         <f t="array" ref="B4">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C4">
-        <v>5104</v>
+        <v>5401</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>554</v>
       </c>
       <c r="E4">
-        <v>209</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>636</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+      <c r="H4" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5100</v>
@@ -32361,97 +32402,106 @@
         <v>Afrique</v>
       </c>
       <c r="C5">
-        <v>5104</v>
+        <v>5101</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E5">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B6" t="str" cm="1">
         <f t="array" ref="B6">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C6">
-        <v>5104</v>
+        <v>5401</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>554</v>
       </c>
       <c r="E6">
-        <v>147</v>
+        <v>228</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>551</v>
       </c>
       <c r="G6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+      <c r="H6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B7" t="str" cm="1">
         <f t="array" ref="B7">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C7">
-        <v>5102</v>
+        <v>5403</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>552</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>248</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>519</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+      <c r="H7" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B8" t="str" cm="1">
         <f t="array" ref="B8">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C8">
-        <v>5102</v>
+        <v>5303</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>416</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>278</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5100</v>
@@ -32467,241 +32517,241 @@
         <v>161</v>
       </c>
       <c r="E9">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B10" t="str" cm="1">
         <f t="array" ref="B10">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C10">
-        <v>5102</v>
+        <v>5403</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>552</v>
       </c>
       <c r="E10">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>428</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B11" t="str" cm="1">
         <f t="array" ref="B11">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C11">
-        <v>5102</v>
+        <v>5206</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>426</v>
       </c>
       <c r="E11">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
       <c r="G11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B12" t="str" cm="1">
         <f t="array" ref="B12">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C12">
-        <v>5102</v>
+        <v>5305</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>417</v>
       </c>
       <c r="E12">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>312</v>
       </c>
       <c r="G12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B13" t="str" cm="1">
         <f t="array" ref="B13">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C13">
-        <v>5102</v>
+        <v>5207</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" t="s">
         <v>193</v>
       </c>
-      <c r="F13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B14" t="str" cm="1">
         <f t="array" ref="B14">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C14">
-        <v>5102</v>
+        <v>5305</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>417</v>
       </c>
       <c r="E14">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>284</v>
       </c>
       <c r="G14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B15" t="str" cm="1">
         <f t="array" ref="B15">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C15">
-        <v>5105</v>
+        <v>5206</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>426</v>
       </c>
       <c r="E15">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>235</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5500</v>
       </c>
       <c r="B16" t="str" cm="1">
         <f t="array" ref="B16">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Océanie</v>
       </c>
       <c r="C16">
-        <v>5105</v>
+        <v>5501</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>419</v>
       </c>
       <c r="E16">
-        <v>233</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>420</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B17" t="str" cm="1">
         <f t="array" ref="B17">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C17">
-        <v>5105</v>
+        <v>5404</v>
       </c>
       <c r="D17" t="s">
-        <v>162</v>
+        <v>553</v>
       </c>
       <c r="E17">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>434</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B18" t="str" cm="1">
         <f t="array" ref="B18">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C18">
-        <v>5105</v>
+        <v>5305</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>417</v>
       </c>
       <c r="E18">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5100</v>
@@ -32711,47 +32761,47 @@
         <v>Afrique</v>
       </c>
       <c r="C19">
-        <v>5105</v>
+        <v>5101</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E19">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B20" t="str" cm="1">
         <f t="array" ref="B20">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C20">
-        <v>5105</v>
+        <v>5404</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>553</v>
       </c>
       <c r="E20">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>440</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5100</v>
@@ -32767,16 +32817,16 @@
         <v>162</v>
       </c>
       <c r="E21">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5100</v>
@@ -32792,241 +32842,244 @@
         <v>162</v>
       </c>
       <c r="E22">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B23" t="str" cm="1">
         <f t="array" ref="B23">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C23">
-        <v>5105</v>
+        <v>5303</v>
       </c>
       <c r="D23" t="s">
-        <v>162</v>
+        <v>416</v>
       </c>
       <c r="E23">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="G23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B24" t="str" cm="1">
         <f t="array" ref="B24">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C24">
-        <v>5105</v>
+        <v>5401</v>
       </c>
       <c r="D24" t="s">
-        <v>162</v>
+        <v>554</v>
       </c>
       <c r="E24">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>447</v>
       </c>
       <c r="G24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B25" t="str" cm="1">
         <f t="array" ref="B25">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C25">
-        <v>5105</v>
+        <v>5206</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
+        <v>426</v>
       </c>
       <c r="E25">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>100</v>
+        <v>241</v>
       </c>
       <c r="G25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B26" t="str" cm="1">
         <f t="array" ref="B26">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C26">
-        <v>5105</v>
+        <v>5403</v>
       </c>
       <c r="D26" t="s">
-        <v>162</v>
+        <v>552</v>
       </c>
       <c r="E26">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
+        <v>444</v>
       </c>
       <c r="G26" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="H26" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B27" t="str" cm="1">
         <f t="array" ref="B27">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C27">
-        <v>5105</v>
+        <v>5401</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>554</v>
       </c>
       <c r="E27">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>437</v>
       </c>
       <c r="G27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B28" t="str" cm="1">
         <f t="array" ref="B28">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C28">
-        <v>5105</v>
+        <v>5204</v>
       </c>
       <c r="D28" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E28">
-        <v>195</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="G28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B29" t="str" cm="1">
         <f t="array" ref="B29">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C29">
-        <v>5105</v>
+        <v>5207</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="E29">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="G29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B30" t="str" cm="1">
         <f t="array" ref="B30">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C30">
-        <v>5105</v>
+        <v>5207</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="E30">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="G30" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B31" t="str" cm="1">
         <f t="array" ref="B31">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C31">
-        <v>5101</v>
+        <v>5206</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>426</v>
       </c>
       <c r="E31">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="G31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5100</v>
@@ -33036,19 +33089,19 @@
         <v>Afrique</v>
       </c>
       <c r="C32">
-        <v>5101</v>
+        <v>5104</v>
       </c>
       <c r="D32" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E32">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -33061,119 +33114,119 @@
         <v>Afrique</v>
       </c>
       <c r="C33">
-        <v>5101</v>
+        <v>5102</v>
       </c>
       <c r="D33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E33">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B34" t="str" cm="1">
         <f t="array" ref="B34">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C34">
-        <v>5101</v>
+        <v>5203</v>
       </c>
       <c r="D34" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="E34">
-        <v>238</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>228</v>
       </c>
       <c r="G34" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B35" t="str" cm="1">
         <f t="array" ref="B35">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C35">
-        <v>5101</v>
+        <v>5404</v>
       </c>
       <c r="D35" t="s">
-        <v>163</v>
+        <v>553</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>211</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>541</v>
       </c>
       <c r="G35" t="s">
-        <v>55</v>
+        <v>543</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B36" t="str" cm="1">
         <f t="array" ref="B36">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C36">
-        <v>5101</v>
+        <v>5207</v>
       </c>
       <c r="D36" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="E36">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="G36" t="s">
-        <v>75</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B37" t="str" cm="1">
         <f t="array" ref="B37">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C37">
-        <v>5101</v>
+        <v>5302</v>
       </c>
       <c r="D37" t="s">
-        <v>163</v>
+        <v>418</v>
       </c>
       <c r="E37">
-        <v>129</v>
+        <v>351</v>
       </c>
       <c r="F37" t="s">
-        <v>85</v>
+        <v>296</v>
       </c>
       <c r="G37" t="s">
-        <v>87</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -33186,19 +33239,19 @@
         <v>Afrique</v>
       </c>
       <c r="C38">
-        <v>5101</v>
+        <v>5105</v>
       </c>
       <c r="D38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E38">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="F38" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -33211,19 +33264,19 @@
         <v>Afrique</v>
       </c>
       <c r="C39">
-        <v>5101</v>
+        <v>5102</v>
       </c>
       <c r="D39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E39">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -33236,19 +33289,19 @@
         <v>Afrique</v>
       </c>
       <c r="C40">
-        <v>5101</v>
+        <v>5102</v>
       </c>
       <c r="D40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E40">
-        <v>144</v>
+        <v>250</v>
       </c>
       <c r="F40" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="G40" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -33261,44 +33314,44 @@
         <v>Afrique</v>
       </c>
       <c r="C41">
-        <v>5101</v>
+        <v>5102</v>
       </c>
       <c r="D41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E41">
-        <v>226</v>
+        <v>46</v>
       </c>
       <c r="F41" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B42" t="str" cm="1">
         <f t="array" ref="B42">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C42">
-        <v>5101</v>
+        <v>5207</v>
       </c>
       <c r="D42" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="E42">
-        <v>215</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="G42" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -33317,13 +33370,13 @@
         <v>163</v>
       </c>
       <c r="E43">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -33336,144 +33389,144 @@
         <v>Afrique</v>
       </c>
       <c r="C44">
-        <v>5101</v>
+        <v>5105</v>
       </c>
       <c r="D44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E44">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B45" t="str" cm="1">
         <f t="array" ref="B45">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C45">
-        <v>5101</v>
+        <v>5204</v>
       </c>
       <c r="D45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E45">
-        <v>251</v>
+        <v>48</v>
       </c>
       <c r="F45" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="G45" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B46" t="str" cm="1">
         <f t="array" ref="B46">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C46">
-        <v>5101</v>
+        <v>5206</v>
       </c>
       <c r="D46" t="s">
-        <v>163</v>
+        <v>426</v>
       </c>
       <c r="E46">
-        <v>181</v>
+        <v>49</v>
       </c>
       <c r="F46" t="s">
-        <v>157</v>
+        <v>247</v>
       </c>
       <c r="G46" t="s">
-        <v>159</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B47" t="str" cm="1">
         <f t="array" ref="B47">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C47">
-        <v>5103</v>
+        <v>5305</v>
       </c>
       <c r="D47" t="s">
-        <v>164</v>
+        <v>417</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>309</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B48" t="str" cm="1">
         <f t="array" ref="B48">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C48">
-        <v>5103</v>
+        <v>5401</v>
       </c>
       <c r="D48" t="s">
-        <v>164</v>
+        <v>554</v>
       </c>
       <c r="E48">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
+        <v>545</v>
       </c>
       <c r="G48" t="s">
-        <v>49</v>
+        <v>547</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B49" t="str" cm="1">
         <f t="array" ref="B49">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C49">
-        <v>5103</v>
+        <v>5404</v>
       </c>
       <c r="D49" t="s">
-        <v>164</v>
+        <v>553</v>
       </c>
       <c r="E49">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="F49" t="s">
-        <v>82</v>
+        <v>431</v>
       </c>
       <c r="G49" t="s">
-        <v>84</v>
+        <v>433</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -33486,69 +33539,69 @@
         <v>Afrique</v>
       </c>
       <c r="C50">
-        <v>5103</v>
+        <v>5101</v>
       </c>
       <c r="D50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E50">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B51" t="str" cm="1">
         <f t="array" ref="B51">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C51">
-        <v>5103</v>
+        <v>5206</v>
       </c>
       <c r="D51" t="s">
-        <v>164</v>
+        <v>426</v>
       </c>
       <c r="E51">
-        <v>276</v>
+        <v>55</v>
       </c>
       <c r="F51" t="s">
-        <v>142</v>
+        <v>250</v>
       </c>
       <c r="G51" t="s">
-        <v>144</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B52" t="str" cm="1">
         <f t="array" ref="B52">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C52">
-        <v>5103</v>
+        <v>5402</v>
       </c>
       <c r="D52" t="s">
-        <v>164</v>
+        <v>555</v>
       </c>
       <c r="E52">
-        <v>222</v>
+        <v>54</v>
       </c>
       <c r="F52" t="s">
-        <v>151</v>
+        <v>453</v>
       </c>
       <c r="G52" t="s">
-        <v>153</v>
+        <v>455</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -33561,44 +33614,44 @@
         <v>Amériques</v>
       </c>
       <c r="C53">
-        <v>5204</v>
+        <v>5206</v>
       </c>
       <c r="D53" t="s">
-        <v>165</v>
+        <v>426</v>
       </c>
       <c r="E53">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="F53" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="G53" t="s">
-        <v>168</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B54" t="str" cm="1">
         <f t="array" ref="B54">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C54">
-        <v>5204</v>
+        <v>5103</v>
       </c>
       <c r="D54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E54">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -33611,397 +33664,397 @@
         <v>Amériques</v>
       </c>
       <c r="C55">
-        <v>5204</v>
+        <v>5207</v>
       </c>
       <c r="D55" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="E55">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F55" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="G55" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B56" t="str" cm="1">
         <f t="array" ref="B56">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C56">
-        <v>5204</v>
+        <v>5103</v>
       </c>
       <c r="D56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E56">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="F56" t="s">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="G56" t="s">
-        <v>177</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B57" t="str" cm="1">
         <f t="array" ref="B57">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C57">
-        <v>5204</v>
+        <v>5403</v>
       </c>
       <c r="D57" t="s">
-        <v>165</v>
+        <v>552</v>
       </c>
       <c r="E57">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="F57" t="s">
-        <v>178</v>
+        <v>456</v>
       </c>
       <c r="G57" t="s">
-        <v>180</v>
+        <v>458</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B58" t="str" cm="1">
         <f t="array" ref="B58">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C58">
-        <v>5204</v>
+        <v>5402</v>
       </c>
       <c r="D58" t="s">
-        <v>165</v>
+        <v>555</v>
       </c>
       <c r="E58">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="F58" t="s">
-        <v>181</v>
+        <v>459</v>
       </c>
       <c r="G58" t="s">
-        <v>183</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B59" t="str" cm="1">
         <f t="array" ref="B59">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C59">
-        <v>5204</v>
+        <v>5101</v>
       </c>
       <c r="D59" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E59">
-        <v>157</v>
+        <v>238</v>
       </c>
       <c r="F59" t="s">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="G59" t="s">
-        <v>186</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B60" t="str" cm="1">
         <f t="array" ref="B60">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C60">
-        <v>5204</v>
+        <v>5402</v>
       </c>
       <c r="D60" t="s">
-        <v>165</v>
+        <v>555</v>
       </c>
       <c r="E60">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="F60" t="s">
-        <v>187</v>
+        <v>465</v>
       </c>
       <c r="G60" t="s">
-        <v>189</v>
+        <v>467</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="B61" t="str" cm="1">
         <f t="array" ref="B61">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Océanie</v>
       </c>
       <c r="C61">
-        <v>5207</v>
+        <v>5502</v>
       </c>
       <c r="D61" t="s">
-        <v>190</v>
+        <v>566</v>
       </c>
       <c r="E61">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="F61" t="s">
-        <v>191</v>
+        <v>567</v>
       </c>
       <c r="G61" t="s">
-        <v>193</v>
+        <v>569</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B62" t="str" cm="1">
         <f t="array" ref="B62">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C62">
-        <v>5207</v>
+        <v>5404</v>
       </c>
       <c r="D62" t="s">
-        <v>190</v>
+        <v>553</v>
       </c>
       <c r="E62">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="F62" t="s">
-        <v>194</v>
+        <v>468</v>
       </c>
       <c r="G62" t="s">
-        <v>196</v>
+        <v>470</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B63" t="str" cm="1">
         <f t="array" ref="B63">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C63">
-        <v>5207</v>
+        <v>5102</v>
       </c>
       <c r="D63" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="E63">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="F63" t="s">
-        <v>197</v>
+        <v>58</v>
       </c>
       <c r="G63" t="s">
-        <v>199</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B64" t="str" cm="1">
         <f t="array" ref="B64">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C64">
-        <v>5207</v>
+        <v>5402</v>
       </c>
       <c r="D64" t="s">
-        <v>190</v>
+        <v>555</v>
       </c>
       <c r="E64">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="F64" t="s">
-        <v>200</v>
+        <v>523</v>
       </c>
       <c r="G64" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B65" t="str" cm="1">
         <f t="array" ref="B65">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C65">
-        <v>5207</v>
+        <v>5305</v>
       </c>
       <c r="D65" t="s">
-        <v>190</v>
+        <v>417</v>
       </c>
       <c r="E65">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F65" t="s">
-        <v>203</v>
+        <v>315</v>
       </c>
       <c r="G65" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B66" t="str" cm="1">
         <f t="array" ref="B66">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C66">
-        <v>5207</v>
+        <v>5105</v>
       </c>
       <c r="D66" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="E66">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="F66" t="s">
-        <v>206</v>
+        <v>64</v>
       </c>
       <c r="G66" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B67" t="str" cm="1">
         <f t="array" ref="B67">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C67">
-        <v>5207</v>
+        <v>5105</v>
       </c>
       <c r="D67" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="E67">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F67" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="G67" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B68" t="str" cm="1">
         <f t="array" ref="B68">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C68">
-        <v>5207</v>
+        <v>5105</v>
       </c>
       <c r="D68" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="E68">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="F68" t="s">
-        <v>212</v>
+        <v>61</v>
       </c>
       <c r="G68" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B69" t="str" cm="1">
         <f t="array" ref="B69">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C69">
-        <v>5207</v>
+        <v>5105</v>
       </c>
       <c r="D69" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="E69">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F69" t="s">
-        <v>215</v>
+        <v>70</v>
       </c>
       <c r="G69" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B70" t="str" cm="1">
         <f t="array" ref="B70">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C70">
-        <v>5207</v>
+        <v>5403</v>
       </c>
       <c r="D70" t="s">
-        <v>190</v>
+        <v>552</v>
       </c>
       <c r="E70">
-        <v>207</v>
+        <v>84</v>
       </c>
       <c r="F70" t="s">
-        <v>218</v>
+        <v>471</v>
       </c>
       <c r="G70" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5200</v>
@@ -34011,22 +34064,22 @@
         <v>Amériques</v>
       </c>
       <c r="C71">
-        <v>5207</v>
+        <v>5206</v>
       </c>
       <c r="D71" t="s">
-        <v>190</v>
+        <v>426</v>
       </c>
       <c r="E71">
-        <v>234</v>
+        <v>86</v>
       </c>
       <c r="F71" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="G71" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5200</v>
@@ -34036,22 +34089,22 @@
         <v>Amériques</v>
       </c>
       <c r="C72">
-        <v>5207</v>
+        <v>5204</v>
       </c>
       <c r="D72" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="E72">
-        <v>236</v>
+        <v>89</v>
       </c>
       <c r="F72" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="G72" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5200</v>
@@ -34061,147 +34114,150 @@
         <v>Amériques</v>
       </c>
       <c r="C73">
-        <v>5203</v>
+        <v>5207</v>
       </c>
       <c r="D73" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="E73">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="F73" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="G73" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B74" t="str" cm="1">
         <f t="array" ref="B74">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C74">
-        <v>5203</v>
+        <v>5302</v>
       </c>
       <c r="D74" t="s">
-        <v>227</v>
+        <v>418</v>
       </c>
       <c r="E74">
-        <v>231</v>
+        <v>96</v>
       </c>
       <c r="F74" t="s">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c r="G74" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="B75" t="str" cm="1">
         <f t="array" ref="B75">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Amériques</v>
       </c>
       <c r="C75">
-        <v>5301</v>
+        <v>5204</v>
       </c>
       <c r="D75" t="s">
-        <v>414</v>
+        <v>165</v>
       </c>
       <c r="E75">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F75" t="s">
-        <v>339</v>
+        <v>178</v>
       </c>
       <c r="G75" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B76" t="str" cm="1">
         <f t="array" ref="B76">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C76">
-        <v>5301</v>
+        <v>5403</v>
       </c>
       <c r="D76" t="s">
-        <v>414</v>
+        <v>552</v>
       </c>
       <c r="E76">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F76" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="G76" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+      <c r="H76" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="B77" t="str" cm="1">
         <f t="array" ref="B77">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Amériques</v>
       </c>
       <c r="C77">
-        <v>5301</v>
+        <v>5206</v>
       </c>
       <c r="D77" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="E77">
-        <v>235</v>
+        <v>93</v>
       </c>
       <c r="F77" t="s">
-        <v>369</v>
+        <v>256</v>
       </c>
       <c r="G77" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B78" t="str" cm="1">
         <f t="array" ref="B78">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C78">
-        <v>5301</v>
+        <v>5401</v>
       </c>
       <c r="D78" t="s">
-        <v>414</v>
+        <v>554</v>
       </c>
       <c r="E78">
-        <v>208</v>
+        <v>97</v>
       </c>
       <c r="F78" t="s">
-        <v>393</v>
+        <v>474</v>
       </c>
       <c r="G78" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5300</v>
@@ -34211,22 +34267,22 @@
         <v>Asie</v>
       </c>
       <c r="C79">
-        <v>5301</v>
+        <v>5304</v>
       </c>
       <c r="D79" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E79">
-        <v>213</v>
+        <v>101</v>
       </c>
       <c r="F79" t="s">
-        <v>402</v>
+        <v>321</v>
       </c>
       <c r="G79" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5300</v>
@@ -34236,44 +34292,44 @@
         <v>Asie</v>
       </c>
       <c r="C80">
-        <v>5304</v>
+        <v>5303</v>
       </c>
       <c r="D80" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E80">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F80" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="G80" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B81" t="str" cm="1">
         <f t="array" ref="B81">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C81">
-        <v>5304</v>
+        <v>5402</v>
       </c>
       <c r="D81" t="s">
-        <v>415</v>
+        <v>555</v>
       </c>
       <c r="E81">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F81" t="s">
-        <v>321</v>
+        <v>477</v>
       </c>
       <c r="G81" t="s">
-        <v>323</v>
+        <v>479</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -34286,19 +34342,19 @@
         <v>Asie</v>
       </c>
       <c r="C82">
-        <v>5304</v>
+        <v>5303</v>
       </c>
       <c r="D82" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E82">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="F82" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="G82" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -34311,44 +34367,44 @@
         <v>Asie</v>
       </c>
       <c r="C83">
-        <v>5304</v>
+        <v>5305</v>
       </c>
       <c r="D83" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E83">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="F83" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="G83" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B84" t="str" cm="1">
         <f t="array" ref="B84">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C84">
-        <v>5304</v>
+        <v>5402</v>
       </c>
       <c r="D84" t="s">
-        <v>415</v>
+        <v>555</v>
       </c>
       <c r="E84">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="F84" t="s">
-        <v>375</v>
+        <v>480</v>
       </c>
       <c r="G84" t="s">
-        <v>377</v>
+        <v>482</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -34361,69 +34417,69 @@
         <v>Asie</v>
       </c>
       <c r="C85">
-        <v>5304</v>
+        <v>5305</v>
       </c>
       <c r="D85" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E85">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F85" t="s">
-        <v>384</v>
+        <v>330</v>
       </c>
       <c r="G85" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B86" t="str" cm="1">
         <f t="array" ref="B86">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C86">
-        <v>5304</v>
+        <v>5403</v>
       </c>
       <c r="D86" t="s">
-        <v>415</v>
+        <v>552</v>
       </c>
       <c r="E86">
-        <v>216</v>
+        <v>106</v>
       </c>
       <c r="F86" t="s">
-        <v>396</v>
+        <v>483</v>
       </c>
       <c r="G86" t="s">
-        <v>398</v>
+        <v>485</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="B87" t="str" cm="1">
         <f t="array" ref="B87">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Amériques</v>
       </c>
       <c r="C87">
-        <v>5304</v>
+        <v>5206</v>
       </c>
       <c r="D87" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="E87">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="F87" t="s">
-        <v>399</v>
+        <v>259</v>
       </c>
       <c r="G87" t="s">
-        <v>401</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -34436,19 +34492,19 @@
         <v>Asie</v>
       </c>
       <c r="C88">
-        <v>5304</v>
+        <v>5305</v>
       </c>
       <c r="D88" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E88">
-        <v>237</v>
+        <v>112</v>
       </c>
       <c r="F88" t="s">
-        <v>408</v>
+        <v>336</v>
       </c>
       <c r="G88" t="s">
-        <v>410</v>
+        <v>338</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -34461,19 +34517,19 @@
         <v>Asie</v>
       </c>
       <c r="C89">
-        <v>5303</v>
+        <v>5302</v>
       </c>
       <c r="D89" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E89">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="F89" t="s">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="G89" t="s">
-        <v>280</v>
+        <v>335</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -34486,44 +34542,44 @@
         <v>Asie</v>
       </c>
       <c r="C90">
-        <v>5303</v>
+        <v>5301</v>
       </c>
       <c r="D90" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E90">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="F90" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="G90" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B91" t="str" cm="1">
         <f t="array" ref="B91">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C91">
-        <v>5303</v>
+        <v>5101</v>
       </c>
       <c r="D91" t="s">
-        <v>416</v>
+        <v>163</v>
       </c>
       <c r="E91">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F91" t="s">
-        <v>318</v>
+        <v>73</v>
       </c>
       <c r="G91" t="s">
-        <v>320</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -34536,19 +34592,19 @@
         <v>Asie</v>
       </c>
       <c r="C92">
-        <v>5303</v>
+        <v>5301</v>
       </c>
       <c r="D92" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E92">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F92" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="G92" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -34561,69 +34617,69 @@
         <v>Asie</v>
       </c>
       <c r="C93">
-        <v>5303</v>
+        <v>5304</v>
       </c>
       <c r="D93" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E93">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="F93" t="s">
-        <v>354</v>
+        <v>293</v>
       </c>
       <c r="G93" t="s">
-        <v>356</v>
+        <v>295</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="B94" t="str" cm="1">
         <f t="array" ref="B94">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Océanie</v>
       </c>
       <c r="C94">
-        <v>5303</v>
+        <v>5503</v>
       </c>
       <c r="D94" t="s">
-        <v>416</v>
+        <v>576</v>
       </c>
       <c r="E94">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="F94" t="s">
-        <v>363</v>
+        <v>560</v>
       </c>
       <c r="G94" t="s">
-        <v>365</v>
+        <v>562</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="B95" t="str" cm="1">
         <f t="array" ref="B95">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Amériques</v>
       </c>
       <c r="C95">
-        <v>5303</v>
+        <v>5206</v>
       </c>
       <c r="D95" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="E95">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="F95" t="s">
-        <v>372</v>
+        <v>268</v>
       </c>
       <c r="G95" t="s">
-        <v>374</v>
+        <v>270</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -34636,19 +34692,19 @@
         <v>Asie</v>
       </c>
       <c r="C96">
-        <v>5303</v>
+        <v>5302</v>
       </c>
       <c r="D96" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E96">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="F96" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="G96" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -34667,13 +34723,13 @@
         <v>417</v>
       </c>
       <c r="E97">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="F97" t="s">
-        <v>281</v>
+        <v>345</v>
       </c>
       <c r="G97" t="s">
-        <v>283</v>
+        <v>347</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -34686,19 +34742,19 @@
         <v>Asie</v>
       </c>
       <c r="C98">
-        <v>5305</v>
+        <v>5304</v>
       </c>
       <c r="D98" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="F98" t="s">
-        <v>284</v>
+        <v>384</v>
       </c>
       <c r="G98" t="s">
-        <v>286</v>
+        <v>386</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -34717,88 +34773,88 @@
         <v>417</v>
       </c>
       <c r="E99">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="F99" t="s">
-        <v>287</v>
+        <v>348</v>
       </c>
       <c r="G99" t="s">
-        <v>289</v>
+        <v>350</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B100" t="str" cm="1">
         <f t="array" ref="B100">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C100">
-        <v>5305</v>
+        <v>5105</v>
       </c>
       <c r="D100" t="s">
-        <v>417</v>
+        <v>162</v>
       </c>
       <c r="E100">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="F100" t="s">
-        <v>309</v>
+        <v>79</v>
       </c>
       <c r="G100" t="s">
-        <v>311</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B101" t="str" cm="1">
         <f t="array" ref="B101">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C101">
-        <v>5305</v>
+        <v>5103</v>
       </c>
       <c r="D101" t="s">
-        <v>417</v>
+        <v>164</v>
       </c>
       <c r="E101">
-        <v>225</v>
+        <v>124</v>
       </c>
       <c r="F101" t="s">
-        <v>312</v>
+        <v>82</v>
       </c>
       <c r="G101" t="s">
-        <v>314</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="B102" t="str" cm="1">
         <f t="array" ref="B102">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Amériques</v>
       </c>
       <c r="C102">
-        <v>5305</v>
+        <v>5206</v>
       </c>
       <c r="D102" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="E102">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="F102" t="s">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="G102" t="s">
-        <v>317</v>
+        <v>267</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -34811,119 +34867,119 @@
         <v>Asie</v>
       </c>
       <c r="C103">
-        <v>5305</v>
+        <v>5303</v>
       </c>
       <c r="D103" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E103">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>327</v>
+        <v>390</v>
       </c>
       <c r="G103" t="s">
-        <v>329</v>
+        <v>392</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B104" t="str" cm="1">
         <f t="array" ref="B104">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C104">
-        <v>5305</v>
+        <v>5104</v>
       </c>
       <c r="D104" t="s">
-        <v>417</v>
+        <v>160</v>
       </c>
       <c r="E104">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="F104" t="s">
-        <v>330</v>
+        <v>76</v>
       </c>
       <c r="G104" t="s">
-        <v>332</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B105" t="str" cm="1">
         <f t="array" ref="B105">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C105">
-        <v>5305</v>
+        <v>5402</v>
       </c>
       <c r="D105" t="s">
-        <v>417</v>
+        <v>555</v>
       </c>
       <c r="E105">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="F105" t="s">
-        <v>336</v>
+        <v>489</v>
       </c>
       <c r="G105" t="s">
-        <v>338</v>
+        <v>491</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B106" t="str" cm="1">
         <f t="array" ref="B106">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C106">
-        <v>5305</v>
+        <v>5404</v>
       </c>
       <c r="D106" t="s">
-        <v>417</v>
+        <v>553</v>
       </c>
       <c r="E106">
-        <v>118</v>
+        <v>256</v>
       </c>
       <c r="F106" t="s">
-        <v>345</v>
+        <v>492</v>
       </c>
       <c r="G106" t="s">
-        <v>347</v>
+        <v>494</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B107" t="str" cm="1">
         <f t="array" ref="B107">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C107">
-        <v>5305</v>
+        <v>5402</v>
       </c>
       <c r="D107" t="s">
-        <v>417</v>
+        <v>555</v>
       </c>
       <c r="E107">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F107" t="s">
-        <v>348</v>
+        <v>486</v>
       </c>
       <c r="G107" t="s">
-        <v>350</v>
+        <v>488</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -34936,94 +34992,94 @@
         <v>Asie</v>
       </c>
       <c r="C108">
-        <v>5305</v>
+        <v>5302</v>
       </c>
       <c r="D108" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E108">
-        <v>221</v>
+        <v>128</v>
       </c>
       <c r="F108" t="s">
-        <v>366</v>
+        <v>301</v>
       </c>
       <c r="G108" t="s">
-        <v>368</v>
+        <v>303</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B109" t="str" cm="1">
         <f t="array" ref="B109">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C109">
-        <v>5305</v>
+        <v>5103</v>
       </c>
       <c r="D109" t="s">
-        <v>417</v>
+        <v>164</v>
       </c>
       <c r="E109">
-        <v>212</v>
+        <v>143</v>
       </c>
       <c r="F109" t="s">
-        <v>378</v>
+        <v>94</v>
       </c>
       <c r="G109" t="s">
-        <v>380</v>
+        <v>96</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B110" t="str" cm="1">
         <f t="array" ref="B110">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C110">
-        <v>5305</v>
+        <v>5401</v>
       </c>
       <c r="D110" t="s">
-        <v>417</v>
+        <v>554</v>
       </c>
       <c r="E110">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c r="F110" t="s">
-        <v>405</v>
+        <v>516</v>
       </c>
       <c r="G110" t="s">
-        <v>407</v>
+        <v>518</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B111" t="str" cm="1">
         <f t="array" ref="B111">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C111">
-        <v>5305</v>
+        <v>5101</v>
       </c>
       <c r="D111" t="s">
-        <v>417</v>
+        <v>163</v>
       </c>
       <c r="E111">
-        <v>249</v>
+        <v>129</v>
       </c>
       <c r="F111" t="s">
-        <v>411</v>
+        <v>85</v>
       </c>
       <c r="G111" t="s">
-        <v>413</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -35036,122 +35092,125 @@
         <v>Asie</v>
       </c>
       <c r="C112">
-        <v>5302</v>
+        <v>5303</v>
       </c>
       <c r="D112" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E112">
-        <v>351</v>
+        <v>132</v>
       </c>
       <c r="F112" t="s">
-        <v>296</v>
+        <v>354</v>
       </c>
       <c r="G112" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="B113" t="str" cm="1">
         <f t="array" ref="B113">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Amériques</v>
       </c>
       <c r="C113">
-        <v>5302</v>
+        <v>5204</v>
       </c>
       <c r="D113" t="s">
-        <v>418</v>
+        <v>165</v>
       </c>
       <c r="E113">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="F113" t="s">
-        <v>298</v>
+        <v>181</v>
       </c>
       <c r="G113" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B114" t="str" cm="1">
         <f t="array" ref="B114">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C114">
-        <v>5302</v>
+        <v>5403</v>
       </c>
       <c r="D114" t="s">
-        <v>418</v>
+        <v>552</v>
       </c>
       <c r="E114">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="F114" t="s">
-        <v>301</v>
+        <v>495</v>
       </c>
       <c r="G114" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+      <c r="H114" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B115" t="str" cm="1">
         <f t="array" ref="B115">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C115">
-        <v>5302</v>
+        <v>5105</v>
       </c>
       <c r="D115" t="s">
-        <v>418</v>
+        <v>162</v>
       </c>
       <c r="E115">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="F115" t="s">
-        <v>304</v>
+        <v>91</v>
       </c>
       <c r="G115" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B116" t="str" cm="1">
         <f t="array" ref="B116">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C116">
-        <v>5302</v>
+        <v>5403</v>
       </c>
       <c r="D116" t="s">
-        <v>418</v>
+        <v>552</v>
       </c>
       <c r="E116">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="F116" t="s">
-        <v>306</v>
+        <v>498</v>
       </c>
       <c r="G116" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5300</v>
@@ -35161,47 +35220,50 @@
         <v>Asie</v>
       </c>
       <c r="C117">
-        <v>5302</v>
+        <v>5304</v>
       </c>
       <c r="D117" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E117">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="F117" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="G117" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B118" t="str" cm="1">
         <f t="array" ref="B118">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C118">
-        <v>5302</v>
+        <v>5403</v>
       </c>
       <c r="D118" t="s">
-        <v>418</v>
+        <v>552</v>
       </c>
       <c r="E118">
-        <v>141</v>
+        <v>273</v>
       </c>
       <c r="F118" t="s">
-        <v>357</v>
+        <v>501</v>
       </c>
       <c r="G118" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+      <c r="H118" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5300</v>
@@ -35217,238 +35279,238 @@
         <v>418</v>
       </c>
       <c r="E119">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="F119" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="G119" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B120" t="str" cm="1">
         <f t="array" ref="B120">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C120">
-        <v>5302</v>
+        <v>5101</v>
       </c>
       <c r="D120" t="s">
-        <v>418</v>
+        <v>163</v>
       </c>
       <c r="E120">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="F120" t="s">
-        <v>387</v>
+        <v>103</v>
       </c>
       <c r="G120" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="B121" t="str" cm="1">
         <f t="array" ref="B121">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Afrique</v>
       </c>
       <c r="C121">
-        <v>5501</v>
+        <v>5105</v>
       </c>
       <c r="D121" t="s">
-        <v>419</v>
+        <v>162</v>
       </c>
       <c r="E121">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="F121" t="s">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="G121" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="B122" t="str" cm="1">
         <f t="array" ref="B122">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Afrique</v>
       </c>
       <c r="C122">
-        <v>5501</v>
+        <v>5101</v>
       </c>
       <c r="D122" t="s">
-        <v>419</v>
+        <v>163</v>
       </c>
       <c r="E122">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="F122" t="s">
-        <v>423</v>
+        <v>97</v>
       </c>
       <c r="G122" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B123" t="str" cm="1">
         <f t="array" ref="B123">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C123">
-        <v>5206</v>
+        <v>5101</v>
       </c>
       <c r="D123" t="s">
-        <v>426</v>
+        <v>163</v>
       </c>
       <c r="E123">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="F123" t="s">
-        <v>235</v>
+        <v>88</v>
       </c>
       <c r="G123" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B124" t="str" cm="1">
         <f t="array" ref="B124">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C124">
-        <v>5206</v>
+        <v>5304</v>
       </c>
       <c r="D124" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="E124">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>351</v>
       </c>
       <c r="G124" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B125" t="str" cm="1">
         <f t="array" ref="B125">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C125">
-        <v>5206</v>
+        <v>5104</v>
       </c>
       <c r="D125" t="s">
-        <v>426</v>
+        <v>160</v>
       </c>
       <c r="E125">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="F125" t="s">
-        <v>241</v>
+        <v>106</v>
       </c>
       <c r="G125" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="B126" t="str" cm="1">
         <f t="array" ref="B126">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Océanie</v>
       </c>
       <c r="C126">
-        <v>5206</v>
+        <v>5502</v>
       </c>
       <c r="D126" t="s">
-        <v>426</v>
+        <v>566</v>
       </c>
       <c r="E126">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>570</v>
       </c>
       <c r="G126" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B127" t="str" cm="1">
         <f t="array" ref="B127">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C127">
-        <v>5206</v>
+        <v>5105</v>
       </c>
       <c r="D127" t="s">
-        <v>426</v>
+        <v>162</v>
       </c>
       <c r="E127">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="F127" t="s">
-        <v>247</v>
+        <v>109</v>
       </c>
       <c r="G127" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B128" t="str" cm="1">
         <f t="array" ref="B128">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C128">
-        <v>5206</v>
+        <v>5105</v>
       </c>
       <c r="D128" t="s">
-        <v>426</v>
+        <v>162</v>
       </c>
       <c r="E128">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>112</v>
       </c>
       <c r="G128" t="s">
-        <v>252</v>
+        <v>114</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -35461,169 +35523,169 @@
         <v>Amériques</v>
       </c>
       <c r="C129">
-        <v>5206</v>
+        <v>5204</v>
       </c>
       <c r="D129" t="s">
-        <v>426</v>
+        <v>165</v>
       </c>
       <c r="E129">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="F129" t="s">
-        <v>253</v>
+        <v>184</v>
       </c>
       <c r="G129" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B130" t="str" cm="1">
         <f t="array" ref="B130">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C130">
-        <v>5206</v>
+        <v>5404</v>
       </c>
       <c r="D130" t="s">
-        <v>426</v>
+        <v>553</v>
       </c>
       <c r="E130">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>507</v>
       </c>
       <c r="G130" t="s">
-        <v>258</v>
+        <v>509</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B131" t="str" cm="1">
         <f t="array" ref="B131">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C131">
-        <v>5206</v>
+        <v>5402</v>
       </c>
       <c r="D131" t="s">
-        <v>426</v>
+        <v>555</v>
       </c>
       <c r="E131">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="F131" t="s">
-        <v>259</v>
+        <v>504</v>
       </c>
       <c r="G131" t="s">
-        <v>261</v>
+        <v>506</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B132" t="str" cm="1">
         <f t="array" ref="B132">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C132">
-        <v>5206</v>
+        <v>5303</v>
       </c>
       <c r="D132" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="E132">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="G132" t="s">
-        <v>264</v>
+        <v>365</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="B133" t="str" cm="1">
         <f t="array" ref="B133">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Océanie</v>
       </c>
       <c r="C133">
-        <v>5206</v>
+        <v>5501</v>
       </c>
       <c r="D133" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="E133">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="F133" t="s">
-        <v>265</v>
+        <v>423</v>
       </c>
       <c r="G133" t="s">
-        <v>267</v>
+        <v>425</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B134" t="str" cm="1">
         <f t="array" ref="B134">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C134">
-        <v>5206</v>
+        <v>5305</v>
       </c>
       <c r="D134" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E134">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F134" t="s">
-        <v>268</v>
+        <v>366</v>
       </c>
       <c r="G134" t="s">
-        <v>270</v>
+        <v>368</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B135" t="str" cm="1">
         <f t="array" ref="B135">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C135">
-        <v>5206</v>
+        <v>5303</v>
       </c>
       <c r="D135" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="E135">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="F135" t="s">
-        <v>271</v>
+        <v>372</v>
       </c>
       <c r="G135" t="s">
-        <v>273</v>
+        <v>374</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -35636,94 +35698,94 @@
         <v>Amériques</v>
       </c>
       <c r="C136">
-        <v>5206</v>
+        <v>5204</v>
       </c>
       <c r="D136" t="s">
-        <v>426</v>
+        <v>165</v>
       </c>
       <c r="E136">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="F136" t="s">
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="G136" t="s">
-        <v>276</v>
+        <v>189</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B137" t="str" cm="1">
         <f t="array" ref="B137">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C137">
-        <v>5403</v>
+        <v>5207</v>
       </c>
       <c r="D137" t="s">
-        <v>552</v>
+        <v>190</v>
       </c>
       <c r="E137">
-        <v>3</v>
+        <v>170</v>
       </c>
       <c r="F137" t="s">
-        <v>428</v>
+        <v>215</v>
       </c>
       <c r="G137" t="s">
-        <v>430</v>
+        <v>217</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B138" t="str" cm="1">
         <f t="array" ref="B138">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C138">
-        <v>5404</v>
+        <v>5304</v>
       </c>
       <c r="D138" t="s">
-        <v>553</v>
+        <v>415</v>
       </c>
       <c r="E138">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="F138" t="s">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="G138" t="s">
-        <v>433</v>
+        <v>377</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="B139" t="str" cm="1">
         <f t="array" ref="B139">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Océanie</v>
       </c>
       <c r="C139">
-        <v>5404</v>
+        <v>5502</v>
       </c>
       <c r="D139" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="E139">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="F139" t="s">
-        <v>434</v>
+        <v>573</v>
       </c>
       <c r="G139" t="s">
-        <v>436</v>
+        <v>575</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -35742,38 +35804,38 @@
         <v>554</v>
       </c>
       <c r="E140">
-        <v>57</v>
+        <v>173</v>
       </c>
       <c r="F140" t="s">
-        <v>437</v>
+        <v>510</v>
       </c>
       <c r="G140" t="s">
-        <v>439</v>
+        <v>512</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B141" t="str" cm="1">
         <f t="array" ref="B141">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C141">
-        <v>5404</v>
+        <v>5302</v>
       </c>
       <c r="D141" t="s">
-        <v>553</v>
+        <v>418</v>
       </c>
       <c r="E141">
-        <v>255</v>
+        <v>116</v>
       </c>
       <c r="F141" t="s">
-        <v>440</v>
+        <v>387</v>
       </c>
       <c r="G141" t="s">
-        <v>442</v>
+        <v>389</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -35786,72 +35848,72 @@
         <v>Europe</v>
       </c>
       <c r="C142">
-        <v>5404</v>
+        <v>5403</v>
       </c>
       <c r="D142" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E142">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="F142" t="s">
-        <v>443</v>
+        <v>513</v>
       </c>
       <c r="G142" t="s">
-        <v>442</v>
+        <v>515</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B143" t="str" cm="1">
         <f t="array" ref="B143">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C143">
-        <v>5403</v>
+        <v>5207</v>
       </c>
       <c r="D143" t="s">
-        <v>552</v>
+        <v>190</v>
       </c>
       <c r="E143">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="F143" t="s">
-        <v>444</v>
+        <v>212</v>
       </c>
       <c r="G143" t="s">
-        <v>446</v>
+        <v>214</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="B144" t="str" cm="1">
         <f t="array" ref="B144">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Océanie</v>
       </c>
       <c r="C144">
-        <v>5401</v>
+        <v>5504</v>
       </c>
       <c r="D144" t="s">
-        <v>554</v>
+        <v>589</v>
       </c>
       <c r="E144">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="F144" t="s">
-        <v>447</v>
+        <v>578</v>
       </c>
       <c r="G144" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5400</v>
@@ -35861,22 +35923,22 @@
         <v>Europe</v>
       </c>
       <c r="C145">
-        <v>5403</v>
+        <v>5401</v>
       </c>
       <c r="D145" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E145">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="F145" t="s">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="G145" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5400</v>
@@ -35886,72 +35948,72 @@
         <v>Europe</v>
       </c>
       <c r="C146">
-        <v>5402</v>
+        <v>5401</v>
       </c>
       <c r="D146" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E146">
-        <v>54</v>
+        <v>185</v>
       </c>
       <c r="F146" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="G146" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B147" t="str" cm="1">
         <f t="array" ref="B147">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C147">
-        <v>5403</v>
+        <v>5101</v>
       </c>
       <c r="D147" t="s">
-        <v>552</v>
+        <v>163</v>
       </c>
       <c r="E147">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="F147" t="s">
-        <v>456</v>
+        <v>127</v>
       </c>
       <c r="G147" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B148" t="str" cm="1">
         <f t="array" ref="B148">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C148">
-        <v>5402</v>
+        <v>5305</v>
       </c>
       <c r="D148" t="s">
-        <v>555</v>
+        <v>417</v>
       </c>
       <c r="E148">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="F148" t="s">
-        <v>459</v>
+        <v>281</v>
       </c>
       <c r="G148" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5400</v>
@@ -35961,147 +36023,150 @@
         <v>Europe</v>
       </c>
       <c r="C149">
-        <v>5401</v>
+        <v>5403</v>
       </c>
       <c r="D149" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E149">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F149" t="s">
-        <v>462</v>
+        <v>529</v>
       </c>
       <c r="G149" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+      <c r="H149" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B150" t="str" cm="1">
         <f t="array" ref="B150">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C150">
-        <v>5402</v>
+        <v>5103</v>
       </c>
       <c r="D150" t="s">
-        <v>555</v>
+        <v>164</v>
       </c>
       <c r="E150">
-        <v>67</v>
+        <v>276</v>
       </c>
       <c r="F150" t="s">
-        <v>465</v>
+        <v>142</v>
       </c>
       <c r="G150" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B151" t="str" cm="1">
         <f t="array" ref="B151">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C151">
-        <v>5404</v>
+        <v>5105</v>
       </c>
       <c r="D151" t="s">
-        <v>553</v>
+        <v>162</v>
       </c>
       <c r="E151">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c r="F151" t="s">
-        <v>468</v>
+        <v>133</v>
       </c>
       <c r="G151" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="B152" t="str" cm="1">
         <f t="array" ref="B152">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Océanie</v>
       </c>
       <c r="C152">
-        <v>5403</v>
+        <v>5502</v>
       </c>
       <c r="D152" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="E152">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="F152" t="s">
-        <v>471</v>
+        <v>557</v>
       </c>
       <c r="G152" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B153" t="str" cm="1">
         <f t="array" ref="B153">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C153">
-        <v>5401</v>
+        <v>5105</v>
       </c>
       <c r="D153" t="s">
-        <v>554</v>
+        <v>162</v>
       </c>
       <c r="E153">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="F153" t="s">
-        <v>474</v>
+        <v>139</v>
       </c>
       <c r="G153" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B154" t="str" cm="1">
         <f t="array" ref="B154">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C154">
-        <v>5402</v>
+        <v>5204</v>
       </c>
       <c r="D154" t="s">
-        <v>555</v>
+        <v>165</v>
       </c>
       <c r="E154">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="F154" t="s">
-        <v>477</v>
+        <v>172</v>
       </c>
       <c r="G154" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5400</v>
@@ -36111,72 +36176,75 @@
         <v>Europe</v>
       </c>
       <c r="C155">
-        <v>5402</v>
+        <v>5403</v>
       </c>
       <c r="D155" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E155">
-        <v>99</v>
+        <v>272</v>
       </c>
       <c r="F155" t="s">
-        <v>480</v>
+        <v>526</v>
       </c>
       <c r="G155" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+      <c r="H155" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B156" t="str" cm="1">
         <f t="array" ref="B156">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C156">
-        <v>5403</v>
+        <v>5102</v>
       </c>
       <c r="D156" t="s">
-        <v>552</v>
+        <v>161</v>
       </c>
       <c r="E156">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="F156" t="s">
-        <v>483</v>
+        <v>130</v>
       </c>
       <c r="G156" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B157" t="str" cm="1">
         <f t="array" ref="B157">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C157">
-        <v>5402</v>
+        <v>5207</v>
       </c>
       <c r="D157" t="s">
-        <v>555</v>
+        <v>190</v>
       </c>
       <c r="E157">
-        <v>119</v>
+        <v>207</v>
       </c>
       <c r="F157" t="s">
-        <v>486</v>
+        <v>218</v>
       </c>
       <c r="G157" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5400</v>
@@ -36186,22 +36254,22 @@
         <v>Europe</v>
       </c>
       <c r="C158">
-        <v>5402</v>
+        <v>5401</v>
       </c>
       <c r="D158" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E158">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="F158" t="s">
-        <v>489</v>
+        <v>532</v>
       </c>
       <c r="G158" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5400</v>
@@ -36211,22 +36279,22 @@
         <v>Europe</v>
       </c>
       <c r="C159">
-        <v>5404</v>
+        <v>5403</v>
       </c>
       <c r="D159" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E159">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="F159" t="s">
-        <v>492</v>
+        <v>535</v>
       </c>
       <c r="G159" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5400</v>
@@ -36236,394 +36304,394 @@
         <v>Europe</v>
       </c>
       <c r="C160">
-        <v>5403</v>
+        <v>5402</v>
       </c>
       <c r="D160" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E160">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="F160" t="s">
-        <v>495</v>
+        <v>538</v>
       </c>
       <c r="G160" t="s">
-        <v>497</v>
+        <v>540</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B161" t="str" cm="1">
         <f t="array" ref="B161">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C161">
-        <v>5403</v>
+        <v>5104</v>
       </c>
       <c r="D161" t="s">
-        <v>552</v>
+        <v>160</v>
       </c>
       <c r="E161">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="F161" t="s">
-        <v>498</v>
+        <v>50</v>
       </c>
       <c r="G161" t="s">
-        <v>500</v>
+        <v>52</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B162" t="str" cm="1">
         <f t="array" ref="B162">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C162">
-        <v>5403</v>
+        <v>5101</v>
       </c>
       <c r="D162" t="s">
-        <v>552</v>
+        <v>163</v>
       </c>
       <c r="E162">
-        <v>273</v>
+        <v>196</v>
       </c>
       <c r="F162" t="s">
-        <v>501</v>
+        <v>136</v>
       </c>
       <c r="G162" t="s">
-        <v>503</v>
+        <v>138</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B163" t="str" cm="1">
         <f t="array" ref="B163">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C163">
-        <v>5402</v>
+        <v>5305</v>
       </c>
       <c r="D163" t="s">
-        <v>555</v>
+        <v>417</v>
       </c>
       <c r="E163">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="F163" t="s">
-        <v>504</v>
+        <v>378</v>
       </c>
       <c r="G163" t="s">
-        <v>506</v>
+        <v>380</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B164" t="str" cm="1">
         <f t="array" ref="B164">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C164">
-        <v>5404</v>
+        <v>5102</v>
       </c>
       <c r="D164" t="s">
-        <v>553</v>
+        <v>161</v>
       </c>
       <c r="E164">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="F164" t="s">
-        <v>507</v>
+        <v>145</v>
       </c>
       <c r="G164" t="s">
-        <v>509</v>
+        <v>147</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B165" t="str" cm="1">
         <f t="array" ref="B165">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C165">
-        <v>5401</v>
+        <v>5105</v>
       </c>
       <c r="D165" t="s">
-        <v>554</v>
+        <v>162</v>
       </c>
       <c r="E165">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="F165" t="s">
-        <v>510</v>
+        <v>148</v>
       </c>
       <c r="G165" t="s">
-        <v>512</v>
+        <v>150</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B166" t="str" cm="1">
         <f t="array" ref="B166">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C166">
-        <v>5403</v>
+        <v>5304</v>
       </c>
       <c r="D166" t="s">
-        <v>552</v>
+        <v>415</v>
       </c>
       <c r="E166">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="F166" t="s">
-        <v>513</v>
+        <v>396</v>
       </c>
       <c r="G166" t="s">
-        <v>515</v>
+        <v>398</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B167" t="str" cm="1">
         <f t="array" ref="B167">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C167">
-        <v>5401</v>
+        <v>5301</v>
       </c>
       <c r="D167" t="s">
-        <v>554</v>
+        <v>414</v>
       </c>
       <c r="E167">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="F167" t="s">
-        <v>516</v>
+        <v>393</v>
       </c>
       <c r="G167" t="s">
-        <v>518</v>
+        <v>395</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B168" t="str" cm="1">
         <f t="array" ref="B168">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C168">
-        <v>5403</v>
+        <v>5301</v>
       </c>
       <c r="D168" t="s">
-        <v>552</v>
+        <v>414</v>
       </c>
       <c r="E168">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="F168" t="s">
-        <v>519</v>
+        <v>402</v>
       </c>
       <c r="G168" t="s">
-        <v>446</v>
+        <v>404</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B169" t="str" cm="1">
         <f t="array" ref="B169">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C169">
-        <v>5401</v>
+        <v>5304</v>
       </c>
       <c r="D169" t="s">
-        <v>554</v>
+        <v>415</v>
       </c>
       <c r="E169">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F169" t="s">
-        <v>520</v>
+        <v>399</v>
       </c>
       <c r="G169" t="s">
-        <v>522</v>
+        <v>401</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B170" t="str" cm="1">
         <f t="array" ref="B170">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C170">
-        <v>5402</v>
+        <v>5206</v>
       </c>
       <c r="D170" t="s">
-        <v>555</v>
+        <v>426</v>
       </c>
       <c r="E170">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F170" t="s">
-        <v>523</v>
+        <v>274</v>
       </c>
       <c r="G170" t="s">
-        <v>525</v>
+        <v>276</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B171" t="str" cm="1">
         <f t="array" ref="B171">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C171">
-        <v>5403</v>
+        <v>5103</v>
       </c>
       <c r="D171" t="s">
-        <v>552</v>
+        <v>164</v>
       </c>
       <c r="E171">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="F171" t="s">
-        <v>526</v>
+        <v>151</v>
       </c>
       <c r="G171" t="s">
-        <v>528</v>
+        <v>153</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B172" t="str" cm="1">
         <f t="array" ref="B172">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C172">
-        <v>5403</v>
+        <v>5305</v>
       </c>
       <c r="D172" t="s">
-        <v>552</v>
+        <v>417</v>
       </c>
       <c r="E172">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="F172" t="s">
-        <v>529</v>
+        <v>405</v>
       </c>
       <c r="G172" t="s">
-        <v>531</v>
+        <v>407</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B173" t="str" cm="1">
         <f t="array" ref="B173">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C173">
-        <v>5401</v>
+        <v>5302</v>
       </c>
       <c r="D173" t="s">
-        <v>554</v>
+        <v>418</v>
       </c>
       <c r="E173">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="F173" t="s">
-        <v>532</v>
+        <v>306</v>
       </c>
       <c r="G173" t="s">
-        <v>534</v>
+        <v>308</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B174" t="str" cm="1">
         <f t="array" ref="B174">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C174">
-        <v>5403</v>
+        <v>5101</v>
       </c>
       <c r="D174" t="s">
-        <v>552</v>
+        <v>163</v>
       </c>
       <c r="E174">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="F174" t="s">
-        <v>535</v>
+        <v>124</v>
       </c>
       <c r="G174" t="s">
-        <v>537</v>
+        <v>126</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B175" t="str" cm="1">
         <f t="array" ref="B175">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C175">
-        <v>5402</v>
+        <v>5101</v>
       </c>
       <c r="D175" t="s">
-        <v>555</v>
+        <v>163</v>
       </c>
       <c r="E175">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="F175" t="s">
-        <v>538</v>
+        <v>115</v>
       </c>
       <c r="G175" t="s">
-        <v>540</v>
+        <v>117</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -36636,169 +36704,169 @@
         <v>Europe</v>
       </c>
       <c r="C176">
-        <v>5404</v>
+        <v>5401</v>
       </c>
       <c r="D176" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E176">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="F176" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="G176" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B177" t="str" cm="1">
         <f t="array" ref="B177">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C177">
-        <v>5401</v>
+        <v>5207</v>
       </c>
       <c r="D177" t="s">
-        <v>554</v>
+        <v>190</v>
       </c>
       <c r="E177">
-        <v>51</v>
+        <v>234</v>
       </c>
       <c r="F177" t="s">
-        <v>544</v>
+        <v>221</v>
       </c>
       <c r="G177" t="s">
-        <v>534</v>
+        <v>223</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B178" t="str" cm="1">
         <f t="array" ref="B178">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C178">
-        <v>5401</v>
+        <v>5203</v>
       </c>
       <c r="D178" t="s">
-        <v>554</v>
+        <v>227</v>
       </c>
       <c r="E178">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="F178" t="s">
-        <v>545</v>
+        <v>231</v>
       </c>
       <c r="G178" t="s">
-        <v>547</v>
+        <v>233</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B179" t="str" cm="1">
         <f t="array" ref="B179">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C179">
-        <v>5401</v>
+        <v>5301</v>
       </c>
       <c r="D179" t="s">
-        <v>554</v>
+        <v>414</v>
       </c>
       <c r="E179">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F179" t="s">
-        <v>548</v>
+        <v>369</v>
       </c>
       <c r="G179" t="s">
-        <v>550</v>
+        <v>371</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B180" t="str" cm="1">
         <f t="array" ref="B180">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C180">
-        <v>5401</v>
+        <v>5206</v>
       </c>
       <c r="D180" t="s">
-        <v>554</v>
+        <v>426</v>
       </c>
       <c r="E180">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="F180" t="s">
-        <v>551</v>
+        <v>271</v>
       </c>
       <c r="G180" t="s">
-        <v>464</v>
+        <v>273</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="B181" t="str" cm="1">
         <f t="array" ref="B181">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Amériques</v>
       </c>
       <c r="C181">
-        <v>5502</v>
+        <v>5207</v>
       </c>
       <c r="D181" t="s">
-        <v>566</v>
+        <v>190</v>
       </c>
       <c r="E181">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c r="F181" t="s">
-        <v>567</v>
+        <v>224</v>
       </c>
       <c r="G181" t="s">
-        <v>569</v>
+        <v>226</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="B182" t="str" cm="1">
         <f t="array" ref="B182">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Asie</v>
       </c>
       <c r="C182">
-        <v>5502</v>
+        <v>5304</v>
       </c>
       <c r="D182" t="s">
-        <v>566</v>
+        <v>415</v>
       </c>
       <c r="E182">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="F182" t="s">
-        <v>557</v>
+        <v>408</v>
       </c>
       <c r="G182" t="s">
-        <v>559</v>
+        <v>410</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -36817,13 +36885,13 @@
         <v>566</v>
       </c>
       <c r="E183">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F183" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G183" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -36836,119 +36904,119 @@
         <v>Océanie</v>
       </c>
       <c r="C184">
-        <v>5502</v>
+        <v>5504</v>
       </c>
       <c r="D184" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="E184">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="F184" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="G184" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="B185" t="str" cm="1">
         <f t="array" ref="B185">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Asie</v>
       </c>
       <c r="C185">
-        <v>5502</v>
+        <v>5305</v>
       </c>
       <c r="D185" t="s">
-        <v>566</v>
+        <v>417</v>
       </c>
       <c r="E185">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="F185" t="s">
-        <v>563</v>
+        <v>411</v>
       </c>
       <c r="G185" t="s">
-        <v>565</v>
+        <v>413</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="B186" t="str" cm="1">
         <f t="array" ref="B186">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Afrique</v>
       </c>
       <c r="C186">
-        <v>5503</v>
+        <v>5104</v>
       </c>
       <c r="D186" t="s">
-        <v>576</v>
+        <v>160</v>
       </c>
       <c r="E186">
-        <v>83</v>
+        <v>202</v>
       </c>
       <c r="F186" t="s">
-        <v>560</v>
+        <v>8</v>
       </c>
       <c r="G186" t="s">
-        <v>562</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="B187" t="str" cm="1">
         <f t="array" ref="B187">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Afrique</v>
       </c>
       <c r="C187">
-        <v>5504</v>
+        <v>5101</v>
       </c>
       <c r="D187" t="s">
-        <v>589</v>
+        <v>163</v>
       </c>
       <c r="E187">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="F187" t="s">
-        <v>578</v>
+        <v>154</v>
       </c>
       <c r="G187" t="s">
-        <v>580</v>
+        <v>156</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="B188" t="str" cm="1">
         <f t="array" ref="B188">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Afrique</v>
       </c>
       <c r="C188">
-        <v>5504</v>
+        <v>5101</v>
       </c>
       <c r="D188" t="s">
-        <v>589</v>
+        <v>163</v>
       </c>
       <c r="E188">
-        <v>244</v>
+        <v>181</v>
       </c>
       <c r="F188" t="s">
-        <v>581</v>
+        <v>157</v>
       </c>
       <c r="G188" t="s">
-        <v>583</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -36963,7 +37031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EDF372-32AB-4600-A573-6D61FBB5EDF6}">
   <dimension ref="A1:T188"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="T65" sqref="T65"/>
     </sheetView>
   </sheetViews>

--- a/FAOdata/PAYS _FAO.xlsx
+++ b/FAOdata/PAYS _FAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d620ac185dc3dbd/Documents/GitHub/OC-P04VA/FAOdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="8_{167CB271-4155-49F1-9784-E217C6EB9421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2887828-1864-4642-8490-C8FE89525D10}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{167CB271-4155-49F1-9784-E217C6EB9421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38540B69-4A84-459D-B8E0-57F98954CB15}"/>
   <bookViews>
-    <workbookView xWindow="-28320" yWindow="3570" windowWidth="28155" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FAOgroupePays" sheetId="7" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6286" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6291" uniqueCount="646">
   <si>
     <t>Code Groupe de pays</t>
   </si>
@@ -2014,6 +2014,9 @@
   </si>
   <si>
     <t>Yougoslavie : Monténégro 6Mhab  - Serbie 9Mhab- Kosovo - Macédoine 2Mhab - Bosnie-Herzégovine  3,8Mhab - Croatie 4hba</t>
+  </si>
+  <si>
+    <t>Soudan ex</t>
   </si>
 </sst>
 </file>
@@ -3395,10 +3398,10 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{120D56E9-AC4C-41C5-870B-8A13C24A7D46}" name="Tableau62" displayName="Tableau62" ref="A1:H188" totalsRowShown="0">
-  <autoFilter ref="A1:H188" xr:uid="{A195BCB9-0DE4-408C-B2BB-BD35C5C1E9CC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G188">
-    <sortCondition ref="G1:G188"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{120D56E9-AC4C-41C5-870B-8A13C24A7D46}" name="Tableau62" displayName="Tableau62" ref="A1:H189" totalsRowShown="0">
+  <autoFilter ref="A1:H189" xr:uid="{A195BCB9-0DE4-408C-B2BB-BD35C5C1E9CC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H189">
+    <sortCondition ref="E1:E189"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{9B6411D5-A3DD-4C60-9032-B615691189DD}" name="CodeContinent" dataDxfId="14">
@@ -32264,10 +32267,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71FBCA2-551D-49A7-B242-D0EBDBF161A6}">
-  <dimension ref="A1:H188"/>
+  <dimension ref="A1:H189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32311,29 +32314,26 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B2" t="str" cm="1">
         <f t="array" ref="B2">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C2">
-        <v>5404</v>
+        <v>5305</v>
       </c>
       <c r="D2" t="s">
-        <v>553</v>
+        <v>417</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>443</v>
+        <v>284</v>
       </c>
       <c r="G2" t="s">
-        <v>442</v>
-      </c>
-      <c r="H2" t="s">
-        <v>639</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -32346,22 +32346,19 @@
         <v>Asie</v>
       </c>
       <c r="C3">
-        <v>5302</v>
+        <v>5303</v>
       </c>
       <c r="D3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E3">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="G3" t="s">
-        <v>297</v>
-      </c>
-      <c r="H3" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -32374,22 +32371,19 @@
         <v>Europe</v>
       </c>
       <c r="C4">
-        <v>5401</v>
+        <v>5403</v>
       </c>
       <c r="D4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E4">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>636</v>
+        <v>428</v>
       </c>
       <c r="G4" t="s">
-        <v>547</v>
-      </c>
-      <c r="H4" t="s">
-        <v>638</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -32402,128 +32396,119 @@
         <v>Afrique</v>
       </c>
       <c r="C5">
-        <v>5101</v>
+        <v>5103</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E5">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" t="s">
-        <v>641</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B6" t="str" cm="1">
         <f t="array" ref="B6">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C6">
-        <v>5401</v>
+        <v>5102</v>
       </c>
       <c r="D6" t="s">
-        <v>554</v>
+        <v>161</v>
       </c>
       <c r="E6">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>551</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>464</v>
-      </c>
-      <c r="H6" t="s">
-        <v>640</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B7" t="str" cm="1">
         <f t="array" ref="B7">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C7">
-        <v>5403</v>
+        <v>5206</v>
       </c>
       <c r="D7" t="s">
-        <v>552</v>
+        <v>426</v>
       </c>
       <c r="E7">
-        <v>248</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>519</v>
+        <v>235</v>
       </c>
       <c r="G7" t="s">
-        <v>503</v>
-      </c>
-      <c r="H7" t="s">
-        <v>644</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="B8" t="str" cm="1">
         <f t="array" ref="B8">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Amériques</v>
       </c>
       <c r="C8">
-        <v>5303</v>
+        <v>5207</v>
       </c>
       <c r="D8" t="s">
-        <v>416</v>
+        <v>190</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>278</v>
+        <v>191</v>
       </c>
       <c r="G8" t="s">
-        <v>280</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5500</v>
       </c>
       <c r="B9" t="str" cm="1">
         <f t="array" ref="B9">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Océanie</v>
       </c>
       <c r="C9">
-        <v>5102</v>
+        <v>5501</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>419</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>420</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -32536,19 +32521,19 @@
         <v>Europe</v>
       </c>
       <c r="C10">
-        <v>5403</v>
+        <v>5404</v>
       </c>
       <c r="D10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="G10" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -32567,63 +32552,66 @@
         <v>426</v>
       </c>
       <c r="E11">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G11" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="B12" t="str" cm="1">
         <f t="array" ref="B12">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Amériques</v>
       </c>
       <c r="C12">
-        <v>5305</v>
+        <v>5206</v>
       </c>
       <c r="D12" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="E12">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
       <c r="G12" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B13" t="str" cm="1">
         <f t="array" ref="B13">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C13">
-        <v>5207</v>
+        <v>5404</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>553</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>191</v>
+        <v>443</v>
       </c>
       <c r="G13" t="s">
-        <v>193</v>
+        <v>442</v>
+      </c>
+      <c r="H13" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -32636,19 +32624,19 @@
         <v>Asie</v>
       </c>
       <c r="C14">
-        <v>5305</v>
+        <v>5303</v>
       </c>
       <c r="D14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G14" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -32661,119 +32649,119 @@
         <v>Amériques</v>
       </c>
       <c r="C15">
-        <v>5206</v>
+        <v>5207</v>
       </c>
       <c r="D15" t="s">
-        <v>426</v>
+        <v>190</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="G15" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="B16" t="str" cm="1">
         <f t="array" ref="B16">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Afrique</v>
       </c>
       <c r="C16">
-        <v>5501</v>
+        <v>5104</v>
       </c>
       <c r="D16" t="s">
-        <v>419</v>
+        <v>160</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>420</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>422</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B17" t="str" cm="1">
         <f t="array" ref="B17">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C17">
-        <v>5404</v>
+        <v>5207</v>
       </c>
       <c r="D17" t="s">
-        <v>553</v>
+        <v>190</v>
       </c>
       <c r="E17">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>434</v>
+        <v>197</v>
       </c>
       <c r="G17" t="s">
-        <v>436</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="B18" t="str" cm="1">
         <f t="array" ref="B18">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Amériques</v>
       </c>
       <c r="C18">
-        <v>5305</v>
+        <v>5204</v>
       </c>
       <c r="D18" t="s">
-        <v>417</v>
+        <v>165</v>
       </c>
       <c r="E18">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>287</v>
+        <v>166</v>
       </c>
       <c r="G18" t="s">
-        <v>289</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5500</v>
       </c>
       <c r="B19" t="str" cm="1">
         <f t="array" ref="B19">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Océanie</v>
       </c>
       <c r="C19">
-        <v>5101</v>
+        <v>5502</v>
       </c>
       <c r="D19" t="s">
-        <v>163</v>
+        <v>566</v>
       </c>
       <c r="E19">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>557</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>559</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -32786,44 +32774,44 @@
         <v>Europe</v>
       </c>
       <c r="C20">
-        <v>5404</v>
+        <v>5401</v>
       </c>
       <c r="D20" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E20">
-        <v>255</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="G20" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B21" t="str" cm="1">
         <f t="array" ref="B21">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C21">
-        <v>5105</v>
+        <v>5304</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>415</v>
       </c>
       <c r="E21">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>360</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -32836,172 +32824,169 @@
         <v>Afrique</v>
       </c>
       <c r="C22">
-        <v>5105</v>
+        <v>5101</v>
       </c>
       <c r="D22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E22">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B23" t="str" cm="1">
         <f t="array" ref="B23">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C23">
-        <v>5303</v>
+        <v>5102</v>
       </c>
       <c r="D23" t="s">
-        <v>416</v>
+        <v>161</v>
       </c>
       <c r="E23">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>290</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>292</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B24" t="str" cm="1">
         <f t="array" ref="B24">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C24">
-        <v>5401</v>
+        <v>5203</v>
       </c>
       <c r="D24" t="s">
-        <v>554</v>
+        <v>227</v>
       </c>
       <c r="E24">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>447</v>
+        <v>228</v>
       </c>
       <c r="G24" t="s">
-        <v>449</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B25" t="str" cm="1">
         <f t="array" ref="B25">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C25">
-        <v>5206</v>
+        <v>5105</v>
       </c>
       <c r="D25" t="s">
-        <v>426</v>
+        <v>162</v>
       </c>
       <c r="E25">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>241</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>243</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B26" t="str" cm="1">
         <f t="array" ref="B26">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C26">
-        <v>5403</v>
+        <v>5102</v>
       </c>
       <c r="D26" t="s">
-        <v>552</v>
+        <v>161</v>
       </c>
       <c r="E26">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>444</v>
+        <v>118</v>
       </c>
       <c r="G26" t="s">
-        <v>446</v>
-      </c>
-      <c r="H26" t="s">
-        <v>642</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B27" t="str" cm="1">
         <f t="array" ref="B27">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C27">
-        <v>5401</v>
+        <v>5303</v>
       </c>
       <c r="D27" t="s">
-        <v>554</v>
+        <v>416</v>
       </c>
       <c r="E27">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>437</v>
+        <v>390</v>
       </c>
       <c r="G27" t="s">
-        <v>439</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B28" t="str" cm="1">
         <f t="array" ref="B28">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C28">
-        <v>5204</v>
+        <v>5102</v>
       </c>
       <c r="D28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E28">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="G28" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -33020,38 +33005,41 @@
         <v>190</v>
       </c>
       <c r="E29">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G29" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B30" t="str" cm="1">
         <f t="array" ref="B30">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C30">
-        <v>5207</v>
+        <v>5302</v>
       </c>
       <c r="D30" t="s">
-        <v>190</v>
+        <v>418</v>
       </c>
       <c r="E30">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>197</v>
+        <v>304</v>
       </c>
       <c r="G30" t="s">
-        <v>199</v>
+        <v>297</v>
+      </c>
+      <c r="H30" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -33064,19 +33052,19 @@
         <v>Amériques</v>
       </c>
       <c r="C31">
-        <v>5206</v>
+        <v>5207</v>
       </c>
       <c r="D31" t="s">
-        <v>426</v>
+        <v>190</v>
       </c>
       <c r="E31">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="G31" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -33089,22 +33077,22 @@
         <v>Afrique</v>
       </c>
       <c r="C32">
-        <v>5104</v>
+        <v>5101</v>
       </c>
       <c r="D32" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5100</v>
@@ -33120,16 +33108,16 @@
         <v>161</v>
       </c>
       <c r="E33">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5200</v>
@@ -33139,122 +33127,125 @@
         <v>Amériques</v>
       </c>
       <c r="C34">
-        <v>5203</v>
+        <v>5204</v>
       </c>
       <c r="D34" t="s">
-        <v>227</v>
+        <v>165</v>
       </c>
       <c r="E34">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="G34" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B35" t="str" cm="1">
         <f t="array" ref="B35">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C35">
-        <v>5404</v>
+        <v>5206</v>
       </c>
       <c r="D35" t="s">
-        <v>553</v>
+        <v>426</v>
       </c>
       <c r="E35">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>541</v>
+        <v>247</v>
       </c>
       <c r="G35" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B36" t="str" cm="1">
         <f t="array" ref="B36">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C36">
-        <v>5207</v>
+        <v>5305</v>
       </c>
       <c r="D36" t="s">
-        <v>190</v>
+        <v>417</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F36" t="s">
-        <v>200</v>
+        <v>309</v>
       </c>
       <c r="G36" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B37" t="str" cm="1">
         <f t="array" ref="B37">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C37">
-        <v>5302</v>
+        <v>5401</v>
       </c>
       <c r="D37" t="s">
-        <v>418</v>
+        <v>554</v>
       </c>
       <c r="E37">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="F37" t="s">
-        <v>296</v>
+        <v>636</v>
       </c>
       <c r="G37" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+      <c r="H37" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B38" t="str" cm="1">
         <f t="array" ref="B38">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C38">
-        <v>5105</v>
+        <v>5305</v>
       </c>
       <c r="D38" t="s">
-        <v>162</v>
+        <v>417</v>
       </c>
       <c r="E38">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5100</v>
@@ -33264,72 +33255,72 @@
         <v>Afrique</v>
       </c>
       <c r="C39">
-        <v>5102</v>
+        <v>5105</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E39">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B40" t="str" cm="1">
         <f t="array" ref="B40">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C40">
-        <v>5102</v>
+        <v>5402</v>
       </c>
       <c r="D40" t="s">
-        <v>161</v>
+        <v>555</v>
       </c>
       <c r="E40">
-        <v>250</v>
+        <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>121</v>
+        <v>453</v>
       </c>
       <c r="G40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B41" t="str" cm="1">
         <f t="array" ref="B41">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C41">
-        <v>5102</v>
+        <v>5206</v>
       </c>
       <c r="D41" t="s">
-        <v>161</v>
+        <v>426</v>
       </c>
       <c r="E41">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5200</v>
@@ -33339,97 +33330,97 @@
         <v>Amériques</v>
       </c>
       <c r="C42">
-        <v>5207</v>
+        <v>5206</v>
       </c>
       <c r="D42" t="s">
-        <v>190</v>
+        <v>426</v>
       </c>
       <c r="E42">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="G42" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B43" t="str" cm="1">
         <f t="array" ref="B43">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C43">
-        <v>5101</v>
+        <v>5401</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>554</v>
       </c>
       <c r="E43">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>437</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B44" t="str" cm="1">
         <f t="array" ref="B44">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C44">
-        <v>5105</v>
+        <v>5207</v>
       </c>
       <c r="D44" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="E44">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>206</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B45" t="str" cm="1">
         <f t="array" ref="B45">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C45">
-        <v>5204</v>
+        <v>5103</v>
       </c>
       <c r="D45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E45">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F45" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="G45" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5200</v>
@@ -33439,47 +33430,50 @@
         <v>Amériques</v>
       </c>
       <c r="C46">
-        <v>5206</v>
+        <v>5204</v>
       </c>
       <c r="D46" t="s">
-        <v>426</v>
+        <v>165</v>
       </c>
       <c r="E46">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F46" t="s">
-        <v>247</v>
+        <v>172</v>
       </c>
       <c r="G46" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B47" t="str" cm="1">
         <f t="array" ref="B47">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C47">
-        <v>5305</v>
+        <v>5101</v>
       </c>
       <c r="D47" t="s">
-        <v>417</v>
+        <v>163</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>309</v>
+        <v>56</v>
       </c>
       <c r="G47" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="H47" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5400</v>
@@ -33489,197 +33483,197 @@
         <v>Europe</v>
       </c>
       <c r="C48">
-        <v>5401</v>
+        <v>5402</v>
       </c>
       <c r="D48" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E48">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="F48" t="s">
-        <v>545</v>
+        <v>459</v>
       </c>
       <c r="G48" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="B49" t="str" cm="1">
         <f t="array" ref="B49">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Océanie</v>
       </c>
       <c r="C49">
-        <v>5404</v>
+        <v>5502</v>
       </c>
       <c r="D49" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="E49">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F49" t="s">
-        <v>431</v>
+        <v>567</v>
       </c>
       <c r="G49" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B50" t="str" cm="1">
         <f t="array" ref="B50">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C50">
-        <v>5101</v>
+        <v>5402</v>
       </c>
       <c r="D50" t="s">
-        <v>163</v>
+        <v>555</v>
       </c>
       <c r="E50">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>465</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B51" t="str" cm="1">
         <f t="array" ref="B51">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C51">
-        <v>5206</v>
+        <v>5404</v>
       </c>
       <c r="D51" t="s">
-        <v>426</v>
+        <v>553</v>
       </c>
       <c r="E51">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="F51" t="s">
-        <v>250</v>
+        <v>468</v>
       </c>
       <c r="G51" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="B52" t="str" cm="1">
         <f t="array" ref="B52">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Océanie</v>
       </c>
       <c r="C52">
-        <v>5402</v>
+        <v>5504</v>
       </c>
       <c r="D52" t="s">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="E52">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="F52" t="s">
-        <v>453</v>
+        <v>578</v>
       </c>
       <c r="G52" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B53" t="str" cm="1">
         <f t="array" ref="B53">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C53">
-        <v>5206</v>
+        <v>5101</v>
       </c>
       <c r="D53" t="s">
-        <v>426</v>
+        <v>163</v>
       </c>
       <c r="E53">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F53" t="s">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B54" t="str" cm="1">
         <f t="array" ref="B54">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C54">
-        <v>5103</v>
+        <v>5305</v>
       </c>
       <c r="D54" t="s">
-        <v>164</v>
+        <v>417</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>315</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B55" t="str" cm="1">
         <f t="array" ref="B55">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C55">
-        <v>5207</v>
+        <v>5102</v>
       </c>
       <c r="D55" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="E55">
+        <v>74</v>
+      </c>
+      <c r="F55" t="s">
         <v>58</v>
       </c>
-      <c r="F55" t="s">
-        <v>206</v>
-      </c>
       <c r="G55" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5100</v>
@@ -33689,22 +33683,22 @@
         <v>Afrique</v>
       </c>
       <c r="C56">
-        <v>5103</v>
+        <v>5105</v>
       </c>
       <c r="D56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E56">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F56" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G56" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5400</v>
@@ -33714,22 +33708,22 @@
         <v>Europe</v>
       </c>
       <c r="C57">
-        <v>5403</v>
+        <v>5404</v>
       </c>
       <c r="D57" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E57">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="F57" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="G57" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5400</v>
@@ -33739,22 +33733,25 @@
         <v>Europe</v>
       </c>
       <c r="C58">
-        <v>5402</v>
+        <v>5403</v>
       </c>
       <c r="D58" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E58">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F58" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="G58" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="H58" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5100</v>
@@ -33764,269 +33761,269 @@
         <v>Afrique</v>
       </c>
       <c r="C59">
-        <v>5101</v>
+        <v>5105</v>
       </c>
       <c r="D59" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E59">
-        <v>238</v>
+        <v>81</v>
       </c>
       <c r="F59" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="B60" t="str" cm="1">
         <f t="array" ref="B60">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Océanie</v>
       </c>
       <c r="C60">
-        <v>5402</v>
+        <v>5503</v>
       </c>
       <c r="D60" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="E60">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F60" t="s">
-        <v>465</v>
+        <v>560</v>
       </c>
       <c r="G60" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="B61" t="str" cm="1">
         <f t="array" ref="B61">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Europe</v>
       </c>
       <c r="C61">
-        <v>5502</v>
+        <v>5403</v>
       </c>
       <c r="D61" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="E61">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="F61" t="s">
-        <v>567</v>
+        <v>471</v>
       </c>
       <c r="G61" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B62" t="str" cm="1">
         <f t="array" ref="B62">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C62">
-        <v>5404</v>
+        <v>5206</v>
       </c>
       <c r="D62" t="s">
-        <v>553</v>
+        <v>426</v>
       </c>
       <c r="E62">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="F62" t="s">
-        <v>468</v>
+        <v>253</v>
       </c>
       <c r="G62" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B63" t="str" cm="1">
         <f t="array" ref="B63">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C63">
-        <v>5102</v>
+        <v>5204</v>
       </c>
       <c r="D63" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E63">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F63" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="G63" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B64" t="str" cm="1">
         <f t="array" ref="B64">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C64">
-        <v>5402</v>
+        <v>5105</v>
       </c>
       <c r="D64" t="s">
-        <v>555</v>
+        <v>162</v>
       </c>
       <c r="E64">
-        <v>229</v>
+        <v>90</v>
       </c>
       <c r="F64" t="s">
-        <v>523</v>
+        <v>67</v>
       </c>
       <c r="G64" t="s">
-        <v>525</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="B65" t="str" cm="1">
         <f t="array" ref="B65">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Amériques</v>
       </c>
       <c r="C65">
-        <v>5305</v>
+        <v>5207</v>
       </c>
       <c r="D65" t="s">
-        <v>417</v>
+        <v>190</v>
       </c>
       <c r="E65">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F65" t="s">
-        <v>315</v>
+        <v>209</v>
       </c>
       <c r="G65" t="s">
-        <v>317</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B66" t="str" cm="1">
         <f t="array" ref="B66">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C66">
-        <v>5105</v>
+        <v>5206</v>
       </c>
       <c r="D66" t="s">
-        <v>162</v>
+        <v>426</v>
       </c>
       <c r="E66">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F66" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="G66" t="s">
-        <v>66</v>
+        <v>258</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B67" t="str" cm="1">
         <f t="array" ref="B67">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C67">
-        <v>5105</v>
+        <v>5204</v>
       </c>
       <c r="D67" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E67">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F67" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="G67" t="s">
-        <v>69</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B68" t="str" cm="1">
         <f t="array" ref="B68">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C68">
-        <v>5105</v>
+        <v>5302</v>
       </c>
       <c r="D68" t="s">
-        <v>162</v>
+        <v>418</v>
       </c>
       <c r="E68">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="F68" t="s">
-        <v>61</v>
+        <v>298</v>
       </c>
       <c r="G68" t="s">
-        <v>63</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B69" t="str" cm="1">
         <f t="array" ref="B69">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C69">
-        <v>5105</v>
+        <v>5401</v>
       </c>
       <c r="D69" t="s">
-        <v>162</v>
+        <v>554</v>
       </c>
       <c r="E69">
-        <v>175</v>
+        <v>97</v>
       </c>
       <c r="F69" t="s">
-        <v>70</v>
+        <v>474</v>
       </c>
       <c r="G69" t="s">
-        <v>72</v>
+        <v>476</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -34045,88 +34042,91 @@
         <v>552</v>
       </c>
       <c r="E70">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F70" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="G70" t="s">
-        <v>473</v>
+        <v>452</v>
+      </c>
+      <c r="H70" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B71" t="str" cm="1">
         <f t="array" ref="B71">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C71">
-        <v>5206</v>
+        <v>5402</v>
       </c>
       <c r="D71" t="s">
-        <v>426</v>
+        <v>555</v>
       </c>
       <c r="E71">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F71" t="s">
-        <v>253</v>
+        <v>480</v>
       </c>
       <c r="G71" t="s">
-        <v>255</v>
+        <v>482</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B72" t="str" cm="1">
         <f t="array" ref="B72">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C72">
-        <v>5204</v>
+        <v>5303</v>
       </c>
       <c r="D72" t="s">
-        <v>165</v>
+        <v>416</v>
       </c>
       <c r="E72">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F72" t="s">
-        <v>175</v>
+        <v>318</v>
       </c>
       <c r="G72" t="s">
-        <v>177</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B73" t="str" cm="1">
         <f t="array" ref="B73">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C73">
-        <v>5207</v>
+        <v>5304</v>
       </c>
       <c r="D73" t="s">
-        <v>190</v>
+        <v>415</v>
       </c>
       <c r="E73">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F73" t="s">
-        <v>209</v>
+        <v>321</v>
       </c>
       <c r="G73" t="s">
-        <v>211</v>
+        <v>323</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -34139,44 +34139,44 @@
         <v>Asie</v>
       </c>
       <c r="C74">
-        <v>5302</v>
+        <v>5303</v>
       </c>
       <c r="D74" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E74">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F74" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="G74" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B75" t="str" cm="1">
         <f t="array" ref="B75">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C75">
-        <v>5204</v>
+        <v>5305</v>
       </c>
       <c r="D75" t="s">
-        <v>165</v>
+        <v>417</v>
       </c>
       <c r="E75">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F75" t="s">
-        <v>178</v>
+        <v>327</v>
       </c>
       <c r="G75" t="s">
-        <v>180</v>
+        <v>329</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -34189,47 +34189,44 @@
         <v>Europe</v>
       </c>
       <c r="C76">
-        <v>5403</v>
+        <v>5402</v>
       </c>
       <c r="D76" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E76">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F76" t="s">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="G76" t="s">
-        <v>452</v>
-      </c>
-      <c r="H76" t="s">
-        <v>642</v>
+        <v>479</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B77" t="str" cm="1">
         <f t="array" ref="B77">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C77">
-        <v>5206</v>
+        <v>5305</v>
       </c>
       <c r="D77" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E77">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F77" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="G77" t="s">
-        <v>258</v>
+        <v>332</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -34242,44 +34239,44 @@
         <v>Europe</v>
       </c>
       <c r="C78">
-        <v>5401</v>
+        <v>5403</v>
       </c>
       <c r="D78" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E78">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F78" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="G78" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B79" t="str" cm="1">
         <f t="array" ref="B79">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C79">
-        <v>5304</v>
+        <v>5105</v>
       </c>
       <c r="D79" t="s">
-        <v>415</v>
+        <v>162</v>
       </c>
       <c r="E79">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F79" t="s">
-        <v>321</v>
+        <v>41</v>
       </c>
       <c r="G79" t="s">
-        <v>323</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -34292,44 +34289,44 @@
         <v>Asie</v>
       </c>
       <c r="C80">
-        <v>5303</v>
+        <v>5301</v>
       </c>
       <c r="D80" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E80">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F80" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="G80" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B81" t="str" cm="1">
         <f t="array" ref="B81">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C81">
-        <v>5402</v>
+        <v>5206</v>
       </c>
       <c r="D81" t="s">
-        <v>555</v>
+        <v>426</v>
       </c>
       <c r="E81">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F81" t="s">
-        <v>477</v>
+        <v>259</v>
       </c>
       <c r="G81" t="s">
-        <v>479</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -34342,19 +34339,19 @@
         <v>Asie</v>
       </c>
       <c r="C82">
-        <v>5303</v>
+        <v>5302</v>
       </c>
       <c r="D82" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E82">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F82" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="G82" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -34373,113 +34370,113 @@
         <v>417</v>
       </c>
       <c r="E83">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F83" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="G83" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B84" t="str" cm="1">
         <f t="array" ref="B84">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C84">
-        <v>5402</v>
+        <v>5301</v>
       </c>
       <c r="D84" t="s">
-        <v>555</v>
+        <v>414</v>
       </c>
       <c r="E84">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="F84" t="s">
-        <v>480</v>
+        <v>342</v>
       </c>
       <c r="G84" t="s">
-        <v>482</v>
+        <v>344</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B85" t="str" cm="1">
         <f t="array" ref="B85">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C85">
-        <v>5305</v>
+        <v>5101</v>
       </c>
       <c r="D85" t="s">
-        <v>417</v>
+        <v>163</v>
       </c>
       <c r="E85">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F85" t="s">
-        <v>330</v>
+        <v>73</v>
       </c>
       <c r="G85" t="s">
-        <v>332</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B86" t="str" cm="1">
         <f t="array" ref="B86">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C86">
-        <v>5403</v>
+        <v>5304</v>
       </c>
       <c r="D86" t="s">
-        <v>552</v>
+        <v>415</v>
       </c>
       <c r="E86">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F86" t="s">
-        <v>483</v>
+        <v>293</v>
       </c>
       <c r="G86" t="s">
-        <v>485</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B87" t="str" cm="1">
         <f t="array" ref="B87">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C87">
-        <v>5206</v>
+        <v>5302</v>
       </c>
       <c r="D87" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E87">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F87" t="s">
-        <v>259</v>
+        <v>387</v>
       </c>
       <c r="G87" t="s">
-        <v>261</v>
+        <v>389</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -34492,19 +34489,19 @@
         <v>Asie</v>
       </c>
       <c r="C88">
-        <v>5305</v>
+        <v>5302</v>
       </c>
       <c r="D88" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E88">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F88" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
       <c r="G88" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -34517,69 +34514,69 @@
         <v>Asie</v>
       </c>
       <c r="C89">
-        <v>5302</v>
+        <v>5305</v>
       </c>
       <c r="D89" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E89">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F89" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="G89" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B90" t="str" cm="1">
         <f t="array" ref="B90">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C90">
-        <v>5301</v>
+        <v>5402</v>
       </c>
       <c r="D90" t="s">
-        <v>414</v>
+        <v>555</v>
       </c>
       <c r="E90">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="F90" t="s">
-        <v>339</v>
+        <v>486</v>
       </c>
       <c r="G90" t="s">
-        <v>341</v>
+        <v>488</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B91" t="str" cm="1">
         <f t="array" ref="B91">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C91">
-        <v>5101</v>
+        <v>5304</v>
       </c>
       <c r="D91" t="s">
-        <v>163</v>
+        <v>415</v>
       </c>
       <c r="E91">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F91" t="s">
-        <v>73</v>
+        <v>384</v>
       </c>
       <c r="G91" t="s">
-        <v>75</v>
+        <v>386</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -34592,119 +34589,119 @@
         <v>Asie</v>
       </c>
       <c r="C92">
-        <v>5301</v>
+        <v>5305</v>
       </c>
       <c r="D92" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E92">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F92" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G92" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B93" t="str" cm="1">
         <f t="array" ref="B93">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C93">
-        <v>5304</v>
+        <v>5104</v>
       </c>
       <c r="D93" t="s">
-        <v>415</v>
+        <v>160</v>
       </c>
       <c r="E93">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F93" t="s">
-        <v>293</v>
+        <v>76</v>
       </c>
       <c r="G93" t="s">
-        <v>295</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="B94" t="str" cm="1">
         <f t="array" ref="B94">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Afrique</v>
       </c>
       <c r="C94">
-        <v>5503</v>
+        <v>5105</v>
       </c>
       <c r="D94" t="s">
-        <v>576</v>
+        <v>162</v>
       </c>
       <c r="E94">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="F94" t="s">
-        <v>560</v>
+        <v>79</v>
       </c>
       <c r="G94" t="s">
-        <v>562</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B95" t="str" cm="1">
         <f t="array" ref="B95">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C95">
-        <v>5206</v>
+        <v>5103</v>
       </c>
       <c r="D95" t="s">
-        <v>426</v>
+        <v>164</v>
       </c>
       <c r="E95">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="F95" t="s">
-        <v>268</v>
+        <v>82</v>
       </c>
       <c r="G95" t="s">
-        <v>270</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B96" t="str" cm="1">
         <f t="array" ref="B96">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C96">
-        <v>5302</v>
+        <v>5402</v>
       </c>
       <c r="D96" t="s">
-        <v>418</v>
+        <v>555</v>
       </c>
       <c r="E96">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F96" t="s">
-        <v>381</v>
+        <v>489</v>
       </c>
       <c r="G96" t="s">
-        <v>383</v>
+        <v>491</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -34717,169 +34714,169 @@
         <v>Asie</v>
       </c>
       <c r="C97">
-        <v>5305</v>
+        <v>5302</v>
       </c>
       <c r="D97" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E97">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F97" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="G97" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B98" t="str" cm="1">
         <f t="array" ref="B98">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C98">
-        <v>5304</v>
+        <v>5101</v>
       </c>
       <c r="D98" t="s">
-        <v>415</v>
+        <v>163</v>
       </c>
       <c r="E98">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F98" t="s">
-        <v>384</v>
+        <v>85</v>
       </c>
       <c r="G98" t="s">
-        <v>386</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B99" t="str" cm="1">
         <f t="array" ref="B99">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C99">
-        <v>5305</v>
+        <v>5101</v>
       </c>
       <c r="D99" t="s">
-        <v>417</v>
+        <v>163</v>
       </c>
       <c r="E99">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F99" t="s">
-        <v>348</v>
+        <v>88</v>
       </c>
       <c r="G99" t="s">
-        <v>350</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B100" t="str" cm="1">
         <f t="array" ref="B100">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C100">
-        <v>5105</v>
+        <v>5304</v>
       </c>
       <c r="D100" t="s">
-        <v>162</v>
+        <v>415</v>
       </c>
       <c r="E100">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F100" t="s">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="G100" t="s">
-        <v>81</v>
+        <v>353</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B101" t="str" cm="1">
         <f t="array" ref="B101">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C101">
-        <v>5103</v>
+        <v>5303</v>
       </c>
       <c r="D101" t="s">
-        <v>164</v>
+        <v>416</v>
       </c>
       <c r="E101">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F101" t="s">
-        <v>82</v>
+        <v>354</v>
       </c>
       <c r="G101" t="s">
-        <v>84</v>
+        <v>356</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B102" t="str" cm="1">
         <f t="array" ref="B102">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C102">
-        <v>5206</v>
+        <v>5105</v>
       </c>
       <c r="D102" t="s">
-        <v>426</v>
+        <v>162</v>
       </c>
       <c r="E102">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="F102" t="s">
-        <v>265</v>
+        <v>91</v>
       </c>
       <c r="G102" t="s">
-        <v>267</v>
+        <v>93</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B103" t="str" cm="1">
         <f t="array" ref="B103">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C103">
-        <v>5303</v>
+        <v>5403</v>
       </c>
       <c r="D103" t="s">
-        <v>416</v>
+        <v>552</v>
       </c>
       <c r="E103">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="F103" t="s">
-        <v>390</v>
+        <v>498</v>
       </c>
       <c r="G103" t="s">
-        <v>392</v>
+        <v>500</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -34892,119 +34889,119 @@
         <v>Afrique</v>
       </c>
       <c r="C104">
-        <v>5104</v>
+        <v>5105</v>
       </c>
       <c r="D104" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E104">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F104" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="G104" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B105" t="str" cm="1">
         <f t="array" ref="B105">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C105">
-        <v>5402</v>
+        <v>5101</v>
       </c>
       <c r="D105" t="s">
-        <v>555</v>
+        <v>163</v>
       </c>
       <c r="E105">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F105" t="s">
-        <v>489</v>
+        <v>97</v>
       </c>
       <c r="G105" t="s">
-        <v>491</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B106" t="str" cm="1">
         <f t="array" ref="B106">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C106">
-        <v>5404</v>
+        <v>5204</v>
       </c>
       <c r="D106" t="s">
-        <v>553</v>
+        <v>165</v>
       </c>
       <c r="E106">
-        <v>256</v>
+        <v>138</v>
       </c>
       <c r="F106" t="s">
-        <v>492</v>
+        <v>181</v>
       </c>
       <c r="G106" t="s">
-        <v>494</v>
+        <v>183</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B107" t="str" cm="1">
         <f t="array" ref="B107">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C107">
-        <v>5402</v>
+        <v>5302</v>
       </c>
       <c r="D107" t="s">
-        <v>555</v>
+        <v>418</v>
       </c>
       <c r="E107">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="F107" t="s">
-        <v>486</v>
+        <v>357</v>
       </c>
       <c r="G107" t="s">
-        <v>488</v>
+        <v>359</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B108" t="str" cm="1">
         <f t="array" ref="B108">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C108">
-        <v>5302</v>
+        <v>5103</v>
       </c>
       <c r="D108" t="s">
-        <v>418</v>
+        <v>164</v>
       </c>
       <c r="E108">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F108" t="s">
-        <v>301</v>
+        <v>94</v>
       </c>
       <c r="G108" t="s">
-        <v>303</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -35017,19 +35014,19 @@
         <v>Afrique</v>
       </c>
       <c r="C109">
-        <v>5103</v>
+        <v>5101</v>
       </c>
       <c r="D109" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E109">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F109" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G109" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -35067,19 +35064,19 @@
         <v>Afrique</v>
       </c>
       <c r="C111">
-        <v>5101</v>
+        <v>5104</v>
       </c>
       <c r="D111" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E111">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F111" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="G111" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -35098,91 +35095,88 @@
         <v>416</v>
       </c>
       <c r="E112">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="F112" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="G112" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B113" t="str" cm="1">
         <f t="array" ref="B113">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C113">
-        <v>5204</v>
+        <v>5404</v>
       </c>
       <c r="D113" t="s">
-        <v>165</v>
+        <v>553</v>
       </c>
       <c r="E113">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="F113" t="s">
-        <v>181</v>
+        <v>507</v>
       </c>
       <c r="G113" t="s">
-        <v>183</v>
+        <v>509</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B114" t="str" cm="1">
         <f t="array" ref="B114">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C114">
-        <v>5403</v>
+        <v>5206</v>
       </c>
       <c r="D114" t="s">
-        <v>552</v>
+        <v>426</v>
       </c>
       <c r="E114">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F114" t="s">
-        <v>495</v>
+        <v>238</v>
       </c>
       <c r="G114" t="s">
-        <v>497</v>
-      </c>
-      <c r="H114" t="s">
-        <v>642</v>
+        <v>240</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5500</v>
       </c>
       <c r="B115" t="str" cm="1">
         <f t="array" ref="B115">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Océanie</v>
       </c>
       <c r="C115">
-        <v>5105</v>
+        <v>5502</v>
       </c>
       <c r="D115" t="s">
-        <v>162</v>
+        <v>566</v>
       </c>
       <c r="E115">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="F115" t="s">
-        <v>91</v>
+        <v>570</v>
       </c>
       <c r="G115" t="s">
-        <v>93</v>
+        <v>572</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -35201,91 +35195,91 @@
         <v>552</v>
       </c>
       <c r="E116">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="F116" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G116" t="s">
-        <v>500</v>
+        <v>497</v>
+      </c>
+      <c r="H116" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="B117" t="str" cm="1">
         <f t="array" ref="B117">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Océanie</v>
       </c>
       <c r="C117">
-        <v>5304</v>
+        <v>5502</v>
       </c>
       <c r="D117" t="s">
-        <v>415</v>
+        <v>566</v>
       </c>
       <c r="E117">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="F117" t="s">
-        <v>360</v>
+        <v>563</v>
       </c>
       <c r="G117" t="s">
-        <v>362</v>
+        <v>565</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="B118" t="str" cm="1">
         <f t="array" ref="B118">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Océanie</v>
       </c>
       <c r="C118">
-        <v>5403</v>
+        <v>5501</v>
       </c>
       <c r="D118" t="s">
-        <v>552</v>
+        <v>419</v>
       </c>
       <c r="E118">
-        <v>273</v>
+        <v>156</v>
       </c>
       <c r="F118" t="s">
-        <v>501</v>
+        <v>423</v>
       </c>
       <c r="G118" t="s">
-        <v>503</v>
-      </c>
-      <c r="H118" t="s">
-        <v>642</v>
+        <v>425</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="B119" t="str" cm="1">
         <f t="array" ref="B119">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Amériques</v>
       </c>
       <c r="C119">
-        <v>5302</v>
+        <v>5204</v>
       </c>
       <c r="D119" t="s">
-        <v>418</v>
+        <v>165</v>
       </c>
       <c r="E119">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="F119" t="s">
-        <v>357</v>
+        <v>184</v>
       </c>
       <c r="G119" t="s">
-        <v>359</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -35298,19 +35292,19 @@
         <v>Afrique</v>
       </c>
       <c r="C120">
-        <v>5101</v>
+        <v>5105</v>
       </c>
       <c r="D120" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E120">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F120" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G120" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -35329,113 +35323,113 @@
         <v>162</v>
       </c>
       <c r="E121">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="F121" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="G121" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B122" t="str" cm="1">
         <f t="array" ref="B122">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C122">
-        <v>5101</v>
+        <v>5402</v>
       </c>
       <c r="D122" t="s">
-        <v>163</v>
+        <v>555</v>
       </c>
       <c r="E122">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="F122" t="s">
-        <v>97</v>
+        <v>504</v>
       </c>
       <c r="G122" t="s">
-        <v>99</v>
+        <v>506</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B123" t="str" cm="1">
         <f t="array" ref="B123">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C123">
-        <v>5101</v>
+        <v>5303</v>
       </c>
       <c r="D123" t="s">
-        <v>163</v>
+        <v>416</v>
       </c>
       <c r="E123">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="F123" t="s">
-        <v>88</v>
+        <v>372</v>
       </c>
       <c r="G123" t="s">
-        <v>90</v>
+        <v>374</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="B124" t="str" cm="1">
         <f t="array" ref="B124">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Amériques</v>
       </c>
       <c r="C124">
-        <v>5304</v>
+        <v>5204</v>
       </c>
       <c r="D124" t="s">
-        <v>415</v>
+        <v>165</v>
       </c>
       <c r="E124">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="F124" t="s">
-        <v>351</v>
+        <v>187</v>
       </c>
       <c r="G124" t="s">
-        <v>353</v>
+        <v>189</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B125" t="str" cm="1">
         <f t="array" ref="B125">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C125">
-        <v>5104</v>
+        <v>5401</v>
       </c>
       <c r="D125" t="s">
-        <v>160</v>
+        <v>554</v>
       </c>
       <c r="E125">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="F125" t="s">
-        <v>106</v>
+        <v>545</v>
       </c>
       <c r="G125" t="s">
-        <v>108</v>
+        <v>547</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -35454,91 +35448,91 @@
         <v>566</v>
       </c>
       <c r="E126">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="F126" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="G126" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B127" t="str" cm="1">
         <f t="array" ref="B127">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C127">
-        <v>5105</v>
+        <v>5207</v>
       </c>
       <c r="D127" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="E127">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="F127" t="s">
-        <v>109</v>
+        <v>212</v>
       </c>
       <c r="G127" t="s">
-        <v>111</v>
+        <v>214</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B128" t="str" cm="1">
         <f t="array" ref="B128">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C128">
-        <v>5105</v>
+        <v>5207</v>
       </c>
       <c r="D128" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="E128">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="F128" t="s">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="G128" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B129" t="str" cm="1">
         <f t="array" ref="B129">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C129">
-        <v>5204</v>
+        <v>5304</v>
       </c>
       <c r="D129" t="s">
-        <v>165</v>
+        <v>415</v>
       </c>
       <c r="E129">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="F129" t="s">
-        <v>184</v>
+        <v>375</v>
       </c>
       <c r="G129" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5400</v>
@@ -35548,22 +35542,22 @@
         <v>Europe</v>
       </c>
       <c r="C130">
-        <v>5404</v>
+        <v>5401</v>
       </c>
       <c r="D130" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E130">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="F130" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="G130" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5400</v>
@@ -35573,597 +35567,600 @@
         <v>Europe</v>
       </c>
       <c r="C131">
-        <v>5402</v>
+        <v>5403</v>
       </c>
       <c r="D131" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E131">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F131" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="G131" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B132" t="str" cm="1">
         <f t="array" ref="B132">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C132">
-        <v>5303</v>
+        <v>5105</v>
       </c>
       <c r="D132" t="s">
-        <v>416</v>
+        <v>162</v>
       </c>
       <c r="E132">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="F132" t="s">
-        <v>363</v>
+        <v>70</v>
       </c>
       <c r="G132" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="B133" t="str" cm="1">
         <f t="array" ref="B133">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Asie</v>
       </c>
       <c r="C133">
-        <v>5501</v>
+        <v>5304</v>
       </c>
       <c r="D133" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E133">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="F133" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="G133" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B134" t="str" cm="1">
         <f t="array" ref="B134">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C134">
-        <v>5305</v>
+        <v>5101</v>
       </c>
       <c r="D134" t="s">
-        <v>417</v>
+        <v>163</v>
       </c>
       <c r="E134">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="F134" t="s">
-        <v>366</v>
+        <v>157</v>
       </c>
       <c r="G134" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B135" t="str" cm="1">
         <f t="array" ref="B135">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C135">
-        <v>5303</v>
+        <v>5401</v>
       </c>
       <c r="D135" t="s">
-        <v>416</v>
+        <v>554</v>
       </c>
       <c r="E135">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="F135" t="s">
-        <v>372</v>
+        <v>520</v>
       </c>
       <c r="G135" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B136" t="str" cm="1">
         <f t="array" ref="B136">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C136">
-        <v>5204</v>
+        <v>5101</v>
       </c>
       <c r="D136" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E136">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="F136" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="G136" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B137" t="str" cm="1">
         <f t="array" ref="B137">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C137">
-        <v>5207</v>
+        <v>5401</v>
       </c>
       <c r="D137" t="s">
-        <v>190</v>
+        <v>554</v>
       </c>
       <c r="E137">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="F137" t="s">
-        <v>215</v>
+        <v>462</v>
       </c>
       <c r="G137" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B138" t="str" cm="1">
         <f t="array" ref="B138">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C138">
-        <v>5304</v>
+        <v>5403</v>
       </c>
       <c r="D138" t="s">
-        <v>415</v>
+        <v>552</v>
       </c>
       <c r="E138">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="F138" t="s">
-        <v>375</v>
+        <v>529</v>
       </c>
       <c r="G138" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+      <c r="H138" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="B139" t="str" cm="1">
         <f t="array" ref="B139">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Amériques</v>
       </c>
       <c r="C139">
-        <v>5502</v>
+        <v>5206</v>
       </c>
       <c r="D139" t="s">
-        <v>566</v>
+        <v>426</v>
       </c>
       <c r="E139">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="F139" t="s">
-        <v>573</v>
+        <v>268</v>
       </c>
       <c r="G139" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B140" t="str" cm="1">
         <f t="array" ref="B140">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C140">
-        <v>5401</v>
+        <v>5206</v>
       </c>
       <c r="D140" t="s">
-        <v>554</v>
+        <v>426</v>
       </c>
       <c r="E140">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="F140" t="s">
-        <v>510</v>
+        <v>265</v>
       </c>
       <c r="G140" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="B141" t="str" cm="1">
         <f t="array" ref="B141">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Amériques</v>
       </c>
       <c r="C141">
-        <v>5302</v>
+        <v>5206</v>
       </c>
       <c r="D141" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E141">
-        <v>116</v>
+        <v>191</v>
       </c>
       <c r="F141" t="s">
-        <v>387</v>
+        <v>271</v>
       </c>
       <c r="G141" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B142" t="str" cm="1">
         <f t="array" ref="B142">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C142">
-        <v>5403</v>
+        <v>5102</v>
       </c>
       <c r="D142" t="s">
-        <v>552</v>
+        <v>161</v>
       </c>
       <c r="E142">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="F142" t="s">
-        <v>513</v>
+        <v>130</v>
       </c>
       <c r="G142" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B143" t="str" cm="1">
         <f t="array" ref="B143">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C143">
-        <v>5207</v>
+        <v>5305</v>
       </c>
       <c r="D143" t="s">
-        <v>190</v>
+        <v>417</v>
       </c>
       <c r="E143">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="F143" t="s">
-        <v>212</v>
+        <v>281</v>
       </c>
       <c r="G143" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="B144" t="str" cm="1">
         <f t="array" ref="B144">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Afrique</v>
       </c>
       <c r="C144">
-        <v>5504</v>
+        <v>5105</v>
       </c>
       <c r="D144" t="s">
-        <v>589</v>
+        <v>162</v>
       </c>
       <c r="E144">
-        <v>70</v>
+        <v>195</v>
       </c>
       <c r="F144" t="s">
-        <v>578</v>
+        <v>133</v>
       </c>
       <c r="G144" t="s">
-        <v>580</v>
+        <v>135</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B145" t="str" cm="1">
         <f t="array" ref="B145">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C145">
-        <v>5401</v>
+        <v>5101</v>
       </c>
       <c r="D145" t="s">
-        <v>554</v>
+        <v>163</v>
       </c>
       <c r="E145">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="F145" t="s">
-        <v>520</v>
+        <v>136</v>
       </c>
       <c r="G145" t="s">
-        <v>522</v>
+        <v>138</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B146" t="str" cm="1">
         <f t="array" ref="B146">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C146">
-        <v>5401</v>
+        <v>5105</v>
       </c>
       <c r="D146" t="s">
-        <v>554</v>
+        <v>162</v>
       </c>
       <c r="E146">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="F146" t="s">
-        <v>462</v>
+        <v>139</v>
       </c>
       <c r="G146" t="s">
-        <v>464</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B147" t="str" cm="1">
         <f t="array" ref="B147">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C147">
-        <v>5101</v>
+        <v>5403</v>
       </c>
       <c r="D147" t="s">
-        <v>163</v>
+        <v>552</v>
       </c>
       <c r="E147">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="F147" t="s">
-        <v>127</v>
+        <v>535</v>
       </c>
       <c r="G147" t="s">
-        <v>129</v>
+        <v>537</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B148" t="str" cm="1">
         <f t="array" ref="B148">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C148">
-        <v>5305</v>
+        <v>5401</v>
       </c>
       <c r="D148" t="s">
-        <v>417</v>
+        <v>554</v>
       </c>
       <c r="E148">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F148" t="s">
-        <v>281</v>
+        <v>532</v>
       </c>
       <c r="G148" t="s">
-        <v>283</v>
+        <v>534</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B149" t="str" cm="1">
         <f t="array" ref="B149">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C149">
-        <v>5403</v>
+        <v>5104</v>
       </c>
       <c r="D149" t="s">
-        <v>552</v>
+        <v>160</v>
       </c>
       <c r="E149">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="F149" t="s">
-        <v>529</v>
+        <v>8</v>
       </c>
       <c r="G149" t="s">
-        <v>531</v>
-      </c>
-      <c r="H149" t="s">
-        <v>643</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B150" t="str" cm="1">
         <f t="array" ref="B150">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C150">
-        <v>5103</v>
+        <v>5403</v>
       </c>
       <c r="D150" t="s">
-        <v>164</v>
+        <v>552</v>
       </c>
       <c r="E150">
-        <v>276</v>
+        <v>203</v>
       </c>
       <c r="F150" t="s">
-        <v>142</v>
+        <v>456</v>
       </c>
       <c r="G150" t="s">
-        <v>144</v>
+        <v>458</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="A151" s="1">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5100</v>
       </c>
-      <c r="B151" t="str" cm="1">
+      <c r="B151" s="1" t="str" cm="1">
         <f t="array" ref="B151">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
         <v>Afrique</v>
       </c>
       <c r="C151">
-        <v>5105</v>
+        <v>5103</v>
       </c>
       <c r="D151" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E151">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="F151" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G151" t="s">
-        <v>135</v>
+        <v>144</v>
+      </c>
+      <c r="H151" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="B152" t="str" cm="1">
         <f t="array" ref="B152">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Amériques</v>
       </c>
       <c r="C152">
-        <v>5502</v>
+        <v>5207</v>
       </c>
       <c r="D152" t="s">
-        <v>566</v>
+        <v>190</v>
       </c>
       <c r="E152">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="F152" t="s">
-        <v>557</v>
+        <v>218</v>
       </c>
       <c r="G152" t="s">
-        <v>559</v>
+        <v>220</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B153" t="str" cm="1">
         <f t="array" ref="B153">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C153">
-        <v>5105</v>
+        <v>5301</v>
       </c>
       <c r="D153" t="s">
-        <v>162</v>
+        <v>414</v>
       </c>
       <c r="E153">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="F153" t="s">
-        <v>139</v>
+        <v>393</v>
       </c>
       <c r="G153" t="s">
-        <v>141</v>
+        <v>395</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B154" t="str" cm="1">
         <f t="array" ref="B154">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C154">
-        <v>5204</v>
+        <v>5104</v>
       </c>
       <c r="D154" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E154">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="F154" t="s">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="G154" t="s">
-        <v>174</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -36176,175 +36173,172 @@
         <v>Europe</v>
       </c>
       <c r="C155">
-        <v>5403</v>
+        <v>5402</v>
       </c>
       <c r="D155" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E155">
-        <v>272</v>
+        <v>210</v>
       </c>
       <c r="F155" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="G155" t="s">
-        <v>528</v>
-      </c>
-      <c r="H155" t="s">
-        <v>642</v>
+        <v>540</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B156" t="str" cm="1">
         <f t="array" ref="B156">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C156">
-        <v>5102</v>
+        <v>5404</v>
       </c>
       <c r="D156" t="s">
-        <v>161</v>
+        <v>553</v>
       </c>
       <c r="E156">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="F156" t="s">
-        <v>130</v>
+        <v>541</v>
       </c>
       <c r="G156" t="s">
-        <v>132</v>
+        <v>543</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B157" t="str" cm="1">
         <f t="array" ref="B157">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C157">
-        <v>5207</v>
+        <v>5305</v>
       </c>
       <c r="D157" t="s">
-        <v>190</v>
+        <v>417</v>
       </c>
       <c r="E157">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F157" t="s">
-        <v>218</v>
+        <v>378</v>
       </c>
       <c r="G157" t="s">
-        <v>220</v>
+        <v>380</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B158" t="str" cm="1">
         <f t="array" ref="B158">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C158">
-        <v>5401</v>
+        <v>5301</v>
       </c>
       <c r="D158" t="s">
-        <v>554</v>
+        <v>414</v>
       </c>
       <c r="E158">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="F158" t="s">
-        <v>532</v>
+        <v>402</v>
       </c>
       <c r="G158" t="s">
-        <v>534</v>
+        <v>404</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B159" t="str" cm="1">
         <f t="array" ref="B159">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C159">
-        <v>5403</v>
+        <v>5302</v>
       </c>
       <c r="D159" t="s">
-        <v>552</v>
+        <v>418</v>
       </c>
       <c r="E159">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="F159" t="s">
-        <v>535</v>
+        <v>306</v>
       </c>
       <c r="G159" t="s">
-        <v>537</v>
+        <v>308</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B160" t="str" cm="1">
         <f t="array" ref="B160">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C160">
-        <v>5402</v>
+        <v>5101</v>
       </c>
       <c r="D160" t="s">
-        <v>555</v>
+        <v>163</v>
       </c>
       <c r="E160">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F160" t="s">
-        <v>538</v>
+        <v>124</v>
       </c>
       <c r="G160" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B161" t="str" cm="1">
         <f t="array" ref="B161">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C161">
-        <v>5104</v>
+        <v>5304</v>
       </c>
       <c r="D161" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="E161">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F161" t="s">
-        <v>50</v>
+        <v>396</v>
       </c>
       <c r="G161" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5100</v>
@@ -36354,72 +36348,72 @@
         <v>Afrique</v>
       </c>
       <c r="C162">
-        <v>5101</v>
+        <v>5105</v>
       </c>
       <c r="D162" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E162">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="F162" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="G162" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="B163" t="str" cm="1">
         <f t="array" ref="B163">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Amériques</v>
       </c>
       <c r="C163">
-        <v>5305</v>
+        <v>5206</v>
       </c>
       <c r="D163" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="E163">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F163" t="s">
-        <v>378</v>
+        <v>274</v>
       </c>
       <c r="G163" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B164" t="str" cm="1">
         <f t="array" ref="B164">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C164">
-        <v>5102</v>
+        <v>5305</v>
       </c>
       <c r="D164" t="s">
-        <v>161</v>
+        <v>417</v>
       </c>
       <c r="E164">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c r="F164" t="s">
-        <v>145</v>
+        <v>366</v>
       </c>
       <c r="G164" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5100</v>
@@ -36429,22 +36423,22 @@
         <v>Afrique</v>
       </c>
       <c r="C165">
-        <v>5105</v>
+        <v>5103</v>
       </c>
       <c r="D165" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E165">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F165" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G165" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5300</v>
@@ -36454,22 +36448,22 @@
         <v>Asie</v>
       </c>
       <c r="C166">
-        <v>5304</v>
+        <v>5305</v>
       </c>
       <c r="D166" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E166">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F166" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="G166" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5300</v>
@@ -36479,522 +36473,534 @@
         <v>Asie</v>
       </c>
       <c r="C167">
-        <v>5301</v>
+        <v>5305</v>
       </c>
       <c r="D167" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E167">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="F167" t="s">
-        <v>393</v>
+        <v>312</v>
       </c>
       <c r="G167" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B168" t="str" cm="1">
         <f t="array" ref="B168">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C168">
-        <v>5301</v>
+        <v>5101</v>
       </c>
       <c r="D168" t="s">
-        <v>414</v>
+        <v>163</v>
       </c>
       <c r="E168">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="F168" t="s">
-        <v>402</v>
+        <v>115</v>
       </c>
       <c r="G168" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B169" t="str" cm="1">
         <f t="array" ref="B169">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C169">
-        <v>5304</v>
+        <v>5401</v>
       </c>
       <c r="D169" t="s">
-        <v>415</v>
+        <v>554</v>
       </c>
       <c r="E169">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="F169" t="s">
-        <v>399</v>
+        <v>551</v>
       </c>
       <c r="G169" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+      <c r="H169" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B170" t="str" cm="1">
         <f t="array" ref="B170">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C170">
-        <v>5206</v>
+        <v>5402</v>
       </c>
       <c r="D170" t="s">
-        <v>426</v>
+        <v>555</v>
       </c>
       <c r="E170">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="F170" t="s">
-        <v>274</v>
+        <v>523</v>
       </c>
       <c r="G170" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B171" t="str" cm="1">
         <f t="array" ref="B171">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C171">
-        <v>5103</v>
+        <v>5401</v>
       </c>
       <c r="D171" t="s">
-        <v>164</v>
+        <v>554</v>
       </c>
       <c r="E171">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F171" t="s">
-        <v>151</v>
+        <v>548</v>
       </c>
       <c r="G171" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="B172" t="str" cm="1">
         <f t="array" ref="B172">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Amériques</v>
       </c>
       <c r="C172">
-        <v>5305</v>
+        <v>5203</v>
       </c>
       <c r="D172" t="s">
-        <v>417</v>
+        <v>227</v>
       </c>
       <c r="E172">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F172" t="s">
-        <v>405</v>
+        <v>231</v>
       </c>
       <c r="G172" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B173" t="str" cm="1">
         <f t="array" ref="B173">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C173">
-        <v>5302</v>
+        <v>5105</v>
       </c>
       <c r="D173" t="s">
-        <v>418</v>
+        <v>162</v>
       </c>
       <c r="E173">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="F173" t="s">
-        <v>306</v>
+        <v>23</v>
       </c>
       <c r="G173" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B174" t="str" cm="1">
         <f t="array" ref="B174">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C174">
-        <v>5101</v>
+        <v>5207</v>
       </c>
       <c r="D174" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="E174">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="F174" t="s">
-        <v>124</v>
+        <v>221</v>
       </c>
       <c r="G174" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B175" t="str" cm="1">
         <f t="array" ref="B175">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C175">
-        <v>5101</v>
+        <v>5301</v>
       </c>
       <c r="D175" t="s">
-        <v>163</v>
+        <v>414</v>
       </c>
       <c r="E175">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="F175" t="s">
-        <v>115</v>
+        <v>369</v>
       </c>
       <c r="G175" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B176" t="str" cm="1">
         <f t="array" ref="B176">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C176">
-        <v>5401</v>
+        <v>5207</v>
       </c>
       <c r="D176" t="s">
-        <v>554</v>
+        <v>190</v>
       </c>
       <c r="E176">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F176" t="s">
-        <v>548</v>
+        <v>224</v>
       </c>
       <c r="G176" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B177" t="str" cm="1">
         <f t="array" ref="B177">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C177">
-        <v>5207</v>
+        <v>5304</v>
       </c>
       <c r="D177" t="s">
-        <v>190</v>
+        <v>415</v>
       </c>
       <c r="E177">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F177" t="s">
-        <v>221</v>
+        <v>408</v>
       </c>
       <c r="G177" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B178" t="str" cm="1">
         <f t="array" ref="B178">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C178">
-        <v>5203</v>
+        <v>5101</v>
       </c>
       <c r="D178" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="E178">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F178" t="s">
-        <v>231</v>
+        <v>53</v>
       </c>
       <c r="G178" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="B179" t="str" cm="1">
         <f t="array" ref="B179">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Océanie</v>
       </c>
       <c r="C179">
-        <v>5301</v>
+        <v>5504</v>
       </c>
       <c r="D179" t="s">
-        <v>414</v>
+        <v>589</v>
       </c>
       <c r="E179">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="F179" t="s">
-        <v>369</v>
+        <v>581</v>
       </c>
       <c r="G179" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B180" t="str" cm="1">
         <f t="array" ref="B180">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C180">
-        <v>5206</v>
+        <v>5403</v>
       </c>
       <c r="D180" t="s">
-        <v>426</v>
+        <v>552</v>
       </c>
       <c r="E180">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="F180" t="s">
-        <v>271</v>
+        <v>519</v>
       </c>
       <c r="G180" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+      <c r="H180" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B181" t="str" cm="1">
         <f t="array" ref="B181">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C181">
-        <v>5207</v>
+        <v>5305</v>
       </c>
       <c r="D181" t="s">
-        <v>190</v>
+        <v>417</v>
       </c>
       <c r="E181">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="F181" t="s">
-        <v>224</v>
+        <v>411</v>
       </c>
       <c r="G181" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B182" t="str" cm="1">
         <f t="array" ref="B182">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C182">
-        <v>5304</v>
+        <v>5102</v>
       </c>
       <c r="D182" t="s">
-        <v>415</v>
+        <v>161</v>
       </c>
       <c r="E182">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="F182" t="s">
-        <v>408</v>
+        <v>121</v>
       </c>
       <c r="G182" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="B183" t="str" cm="1">
         <f t="array" ref="B183">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Afrique</v>
       </c>
       <c r="C183">
-        <v>5502</v>
+        <v>5101</v>
       </c>
       <c r="D183" t="s">
-        <v>566</v>
+        <v>163</v>
       </c>
       <c r="E183">
-        <v>155</v>
+        <v>251</v>
       </c>
       <c r="F183" t="s">
-        <v>563</v>
+        <v>154</v>
       </c>
       <c r="G183" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="B184" t="str" cm="1">
         <f t="array" ref="B184">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Europe</v>
       </c>
       <c r="C184">
-        <v>5504</v>
+        <v>5404</v>
       </c>
       <c r="D184" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="E184">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="F184" t="s">
-        <v>581</v>
+        <v>440</v>
       </c>
       <c r="G184" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B185" t="str" cm="1">
         <f t="array" ref="B185">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C185">
-        <v>5305</v>
+        <v>5404</v>
       </c>
       <c r="D185" t="s">
-        <v>417</v>
+        <v>553</v>
       </c>
       <c r="E185">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F185" t="s">
-        <v>411</v>
+        <v>492</v>
       </c>
       <c r="G185" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B186" t="str" cm="1">
         <f t="array" ref="B186">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C186">
-        <v>5104</v>
+        <v>5403</v>
       </c>
       <c r="D186" t="s">
-        <v>160</v>
+        <v>552</v>
       </c>
       <c r="E186">
-        <v>202</v>
+        <v>272</v>
       </c>
       <c r="F186" t="s">
-        <v>8</v>
+        <v>526</v>
       </c>
       <c r="G186" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+      <c r="H186" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B187" t="str" cm="1">
         <f t="array" ref="B187">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C187">
-        <v>5101</v>
+        <v>5403</v>
       </c>
       <c r="D187" t="s">
-        <v>163</v>
+        <v>552</v>
       </c>
       <c r="E187">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="F187" t="s">
-        <v>154</v>
+        <v>501</v>
       </c>
       <c r="G187" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+      <c r="H187" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5100</v>
@@ -37004,19 +37010,47 @@
         <v>Afrique</v>
       </c>
       <c r="C188">
-        <v>5101</v>
+        <v>5103</v>
       </c>
       <c r="D188" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E188">
-        <v>181</v>
+        <v>276</v>
       </c>
       <c r="F188" t="s">
-        <v>157</v>
+        <v>645</v>
       </c>
       <c r="G188" t="s">
-        <v>159</v>
+        <v>144</v>
+      </c>
+      <c r="H188" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B189" t="str" cm="1">
+        <f t="array" ref="B189">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C189">
+        <v>5302</v>
+      </c>
+      <c r="D189" t="s">
+        <v>418</v>
+      </c>
+      <c r="E189">
+        <v>351</v>
+      </c>
+      <c r="F189" t="s">
+        <v>296</v>
+      </c>
+      <c r="G189" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/FAOdata/PAYS _FAO.xlsx
+++ b/FAOdata/PAYS _FAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d620ac185dc3dbd/Documents/GitHub/OC-P04VA/FAOdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="8_{167CB271-4155-49F1-9784-E217C6EB9421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38540B69-4A84-459D-B8E0-57F98954CB15}"/>
+  <xr:revisionPtr revIDLastSave="233" documentId="8_{167CB271-4155-49F1-9784-E217C6EB9421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B89A8A7-AC94-4A23-8036-73716F1540C3}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28335" yWindow="0" windowWidth="28155" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FAOgroupePays" sheetId="7" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6291" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6348" uniqueCount="674">
   <si>
     <t>Code Groupe de pays</t>
   </si>
@@ -2017,13 +2017,97 @@
   </si>
   <si>
     <t>Soudan ex</t>
+  </si>
+  <si>
+    <t>BHR</t>
+  </si>
+  <si>
+    <t>Bahreïn</t>
+  </si>
+  <si>
+    <t>Update1</t>
+  </si>
+  <si>
+    <t>Bermudes</t>
+  </si>
+  <si>
+    <t>BMU</t>
+  </si>
+  <si>
+    <t>Bhoutan</t>
+  </si>
+  <si>
+    <t>BTN</t>
+  </si>
+  <si>
+    <t>Brunéi Darussalam</t>
+  </si>
+  <si>
+    <t>BRN</t>
+  </si>
+  <si>
+    <t>Guinée équatoriale</t>
+  </si>
+  <si>
+    <t>GNQ</t>
+  </si>
+  <si>
+    <t>Micronésie (États fédérés de)</t>
+  </si>
+  <si>
+    <t>FSM</t>
+  </si>
+  <si>
+    <t>Porto Rico</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>Érythrée</t>
+  </si>
+  <si>
+    <t>ERI</t>
+  </si>
+  <si>
+    <t>Singapour</t>
+  </si>
+  <si>
+    <t>SGP</t>
+  </si>
+  <si>
+    <t>Somalie</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>TON</t>
+  </si>
+  <si>
+    <t>Soudan du Sud</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>Update2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2045,8 +2129,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD5D5D5"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2077,8 +2173,14 @@
         <bgColor theme="6" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2139,11 +2241,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2160,6 +2286,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3398,8 +3532,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{120D56E9-AC4C-41C5-870B-8A13C24A7D46}" name="Tableau62" displayName="Tableau62" ref="A1:H189" totalsRowShown="0">
-  <autoFilter ref="A1:H189" xr:uid="{A195BCB9-0DE4-408C-B2BB-BD35C5C1E9CC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{120D56E9-AC4C-41C5-870B-8A13C24A7D46}" name="Tableau62" displayName="Tableau62" ref="A1:H204" totalsRowShown="0">
+  <autoFilter ref="A1:H204" xr:uid="{A195BCB9-0DE4-408C-B2BB-BD35C5C1E9CC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H189">
     <sortCondition ref="E1:E189"/>
   </sortState>
@@ -32267,10 +32401,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71FBCA2-551D-49A7-B242-D0EBDBF161A6}">
-  <dimension ref="A1:H189"/>
+  <dimension ref="A1:H204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="F203" sqref="F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37053,10 +37187,407 @@
         <v>297</v>
       </c>
     </row>
+    <row r="190" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B190" t="str" cm="1">
+        <f t="array" ref="B190">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C190">
+        <v>5305</v>
+      </c>
+      <c r="D190" t="s">
+        <v>417</v>
+      </c>
+      <c r="E190">
+        <v>13</v>
+      </c>
+      <c r="F190" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="G190" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="H190" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C191">
+        <v>5207</v>
+      </c>
+      <c r="D191" t="s">
+        <v>227</v>
+      </c>
+      <c r="E191">
+        <v>17</v>
+      </c>
+      <c r="F191" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="G191" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="H191" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B192" s="1" t="str" cm="1">
+        <f t="array" ref="B192">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C192">
+        <v>5303</v>
+      </c>
+      <c r="D192" t="s">
+        <v>416</v>
+      </c>
+      <c r="E192" s="18">
+        <v>18</v>
+      </c>
+      <c r="F192" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="G192" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="H192" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B193" s="1" t="str" cm="1">
+        <f t="array" ref="B193">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C193">
+        <v>5304</v>
+      </c>
+      <c r="D193" t="s">
+        <v>415</v>
+      </c>
+      <c r="E193">
+        <v>26</v>
+      </c>
+      <c r="F193" t="s">
+        <v>653</v>
+      </c>
+      <c r="G193" s="17" t="s">
+        <v>654</v>
+      </c>
+      <c r="H193" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B194" s="1" t="str" cm="1">
+        <f t="array" ref="B194">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C194">
+        <v>5102</v>
+      </c>
+      <c r="D194" t="s">
+        <v>161</v>
+      </c>
+      <c r="E194">
+        <v>61</v>
+      </c>
+      <c r="F194" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="G194" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="H194" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B195" s="1" t="str" cm="1">
+        <f t="array" ref="B195">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C195">
+        <v>5304</v>
+      </c>
+      <c r="D195" t="s">
+        <v>415</v>
+      </c>
+      <c r="E195">
+        <v>145</v>
+      </c>
+      <c r="F195" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="G195" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="H195" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B196" s="1" t="str" cm="1">
+        <f t="array" ref="B196">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C196">
+        <v>5206</v>
+      </c>
+      <c r="D196" t="s">
+        <v>426</v>
+      </c>
+      <c r="E196">
+        <v>177</v>
+      </c>
+      <c r="F196" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="G196" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="H196" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B197" s="1" t="str" cm="1">
+        <f t="array" ref="B197">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C197">
+        <v>5101</v>
+      </c>
+      <c r="D197" t="s">
+        <v>163</v>
+      </c>
+      <c r="E197">
+        <v>178</v>
+      </c>
+      <c r="F197" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="G197" s="17" t="s">
+        <v>662</v>
+      </c>
+      <c r="H197" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B198" s="1" t="str" cm="1">
+        <f t="array" ref="B198">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C198">
+        <v>5304</v>
+      </c>
+      <c r="D198" t="s">
+        <v>415</v>
+      </c>
+      <c r="E198">
+        <v>200</v>
+      </c>
+      <c r="F198" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="G198" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="H198" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B199" s="1" t="str" cm="1">
+        <f t="array" ref="B199">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C199">
+        <v>5101</v>
+      </c>
+      <c r="D199" t="s">
+        <v>163</v>
+      </c>
+      <c r="E199">
+        <v>201</v>
+      </c>
+      <c r="F199" s="17" t="s">
+        <v>665</v>
+      </c>
+      <c r="G199" s="17" t="s">
+        <v>666</v>
+      </c>
+      <c r="H199" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B200" s="1" t="str" cm="1">
+        <f t="array" ref="B200">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C200">
+        <v>5302</v>
+      </c>
+      <c r="D200" t="s">
+        <v>418</v>
+      </c>
+      <c r="E200">
+        <v>214</v>
+      </c>
+      <c r="F200" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="G200" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="H200" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5500</v>
+      </c>
+      <c r="B201" s="1" t="str" cm="1">
+        <f t="array" ref="B201">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Océanie</v>
+      </c>
+      <c r="C201">
+        <v>5504</v>
+      </c>
+      <c r="D201" t="s">
+        <v>589</v>
+      </c>
+      <c r="E201">
+        <v>219</v>
+      </c>
+      <c r="F201" s="16" t="s">
+        <v>667</v>
+      </c>
+      <c r="G201" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="H201" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B202" s="1" t="str" cm="1">
+        <f t="array" ref="B202">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C202">
+        <v>5101</v>
+      </c>
+      <c r="D202" t="s">
+        <v>163</v>
+      </c>
+      <c r="E202">
+        <v>277</v>
+      </c>
+      <c r="F202" s="17" t="s">
+        <v>669</v>
+      </c>
+      <c r="G202" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="H202" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B203" s="1" t="str" cm="1">
+        <f t="array" ref="B203">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C203">
+        <v>5305</v>
+      </c>
+      <c r="D203" t="s">
+        <v>417</v>
+      </c>
+      <c r="E203">
+        <v>299</v>
+      </c>
+      <c r="F203" s="17" t="s">
+        <v>671</v>
+      </c>
+      <c r="G203" s="17" t="s">
+        <v>672</v>
+      </c>
+      <c r="H203" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/FAOdata/PAYS _FAO.xlsx
+++ b/FAOdata/PAYS _FAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d620ac185dc3dbd/Documents/GitHub/OC-P04VA/FAOdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="8_{167CB271-4155-49F1-9784-E217C6EB9421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B89A8A7-AC94-4A23-8036-73716F1540C3}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="8_{167CB271-4155-49F1-9784-E217C6EB9421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2540365-9B48-4E1D-8FE4-ADCAE4AC60A3}"/>
   <bookViews>
-    <workbookView xWindow="-28335" yWindow="0" windowWidth="28155" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="600" windowWidth="28155" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FAOgroupePays" sheetId="7" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6348" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6344" uniqueCount="674">
   <si>
     <t>Code Groupe de pays</t>
   </si>
@@ -2269,7 +2269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2286,14 +2286,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3534,8 +3534,8 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{120D56E9-AC4C-41C5-870B-8A13C24A7D46}" name="Tableau62" displayName="Tableau62" ref="A1:H204" totalsRowShown="0">
   <autoFilter ref="A1:H204" xr:uid="{A195BCB9-0DE4-408C-B2BB-BD35C5C1E9CC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H189">
-    <sortCondition ref="E1:E189"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H204">
+    <sortCondition ref="E1:E204"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{9B6411D5-A3DD-4C60-9032-B615691189DD}" name="CodeContinent" dataDxfId="14">
@@ -32403,8 +32403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71FBCA2-551D-49A7-B242-D0EBDBF161A6}">
   <dimension ref="A1:H204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="F203" sqref="F203"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32698,154 +32698,162 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B12" t="str" cm="1">
         <f t="array" ref="B12">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C12">
-        <v>5206</v>
+        <v>5305</v>
       </c>
       <c r="D12" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E12">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>244</v>
-      </c>
-      <c r="G12" t="s">
-        <v>246</v>
+        <v>13</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="H12" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B13" t="str" cm="1">
         <f t="array" ref="B13">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C13">
-        <v>5404</v>
+        <v>5206</v>
       </c>
       <c r="D13" t="s">
-        <v>553</v>
+        <v>426</v>
       </c>
       <c r="E13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>443</v>
+        <v>244</v>
       </c>
       <c r="G13" t="s">
-        <v>442</v>
-      </c>
-      <c r="H13" t="s">
-        <v>639</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B14" t="str" cm="1">
         <f t="array" ref="B14">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C14">
-        <v>5303</v>
+        <v>5404</v>
       </c>
       <c r="D14" t="s">
-        <v>416</v>
+        <v>553</v>
       </c>
       <c r="E14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>290</v>
+        <v>443</v>
       </c>
       <c r="G14" t="s">
-        <v>292</v>
+        <v>442</v>
+      </c>
+      <c r="H14" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B15" t="str" cm="1">
         <f t="array" ref="B15">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C15">
-        <v>5207</v>
+        <v>5303</v>
       </c>
       <c r="D15" t="s">
-        <v>190</v>
+        <v>416</v>
       </c>
       <c r="E15">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>194</v>
+        <v>290</v>
       </c>
       <c r="G15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
-      </c>
-      <c r="B16" t="str" cm="1">
-        <f t="array" ref="B16">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
-      </c>
-      <c r="C16">
-        <v>5104</v>
-      </c>
-      <c r="D16" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5200</v>
       </c>
-      <c r="B17" t="str" cm="1">
+      <c r="B16" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16">
+        <v>5207</v>
+      </c>
+      <c r="D16" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16">
+        <v>17</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="H16" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B17" s="1" t="str" cm="1">
         <f t="array" ref="B17">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C17">
-        <v>5207</v>
+        <v>5303</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
-      </c>
-      <c r="E17">
-        <v>21</v>
-      </c>
-      <c r="F17" t="s">
-        <v>197</v>
-      </c>
-      <c r="G17" t="s">
-        <v>199</v>
+        <v>416</v>
+      </c>
+      <c r="E17" s="17">
+        <v>18</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>651</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="H17" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -32858,194 +32866,197 @@
         <v>Amériques</v>
       </c>
       <c r="C18">
-        <v>5204</v>
+        <v>5207</v>
       </c>
       <c r="D18" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="E18">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="G18" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="B19" t="str" cm="1">
         <f t="array" ref="B19">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Afrique</v>
       </c>
       <c r="C19">
-        <v>5502</v>
+        <v>5104</v>
       </c>
       <c r="D19" t="s">
-        <v>566</v>
+        <v>160</v>
       </c>
       <c r="E19">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>557</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>559</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B20" t="str" cm="1">
         <f t="array" ref="B20">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C20">
-        <v>5401</v>
+        <v>5207</v>
       </c>
       <c r="D20" t="s">
-        <v>554</v>
+        <v>190</v>
       </c>
       <c r="E20">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>447</v>
+        <v>197</v>
       </c>
       <c r="G20" t="s">
-        <v>449</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="B21" t="str" cm="1">
         <f t="array" ref="B21">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Amériques</v>
       </c>
       <c r="C21">
-        <v>5304</v>
+        <v>5204</v>
       </c>
       <c r="D21" t="s">
-        <v>415</v>
+        <v>165</v>
       </c>
       <c r="E21">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>360</v>
+        <v>166</v>
       </c>
       <c r="G21" t="s">
-        <v>362</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5500</v>
       </c>
       <c r="B22" t="str" cm="1">
         <f t="array" ref="B22">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Océanie</v>
       </c>
       <c r="C22">
-        <v>5101</v>
+        <v>5502</v>
       </c>
       <c r="D22" t="s">
-        <v>163</v>
+        <v>566</v>
       </c>
       <c r="E22">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F22" t="s">
+        <v>557</v>
+      </c>
+      <c r="G22" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B23" s="1" t="str" cm="1">
+        <f t="array" ref="B23">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C23">
+        <v>5304</v>
+      </c>
+      <c r="D23" t="s">
+        <v>415</v>
+      </c>
+      <c r="E23">
         <v>26</v>
       </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
-      </c>
-      <c r="B23" t="str" cm="1">
-        <f t="array" ref="B23">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
-      </c>
-      <c r="C23">
-        <v>5102</v>
-      </c>
-      <c r="D23" t="s">
-        <v>161</v>
-      </c>
-      <c r="E23">
-        <v>32</v>
-      </c>
       <c r="F23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" t="s">
-        <v>34</v>
+        <v>653</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="H23" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B24" t="str" cm="1">
         <f t="array" ref="B24">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C24">
-        <v>5203</v>
+        <v>5401</v>
       </c>
       <c r="D24" t="s">
-        <v>227</v>
+        <v>554</v>
       </c>
       <c r="E24">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>228</v>
+        <v>447</v>
       </c>
       <c r="G24" t="s">
-        <v>230</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B25" t="str" cm="1">
         <f t="array" ref="B25">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C25">
-        <v>5105</v>
+        <v>5304</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
+        <v>415</v>
       </c>
       <c r="E25">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>360</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -33058,147 +33069,144 @@
         <v>Afrique</v>
       </c>
       <c r="C26">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="D26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E26">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B27" t="str" cm="1">
         <f t="array" ref="B27">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C27">
-        <v>5303</v>
+        <v>5102</v>
       </c>
       <c r="D27" t="s">
-        <v>416</v>
+        <v>161</v>
       </c>
       <c r="E27">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>390</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>392</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B28" t="str" cm="1">
         <f t="array" ref="B28">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C28">
-        <v>5102</v>
+        <v>5203</v>
       </c>
       <c r="D28" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="E28">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>145</v>
+        <v>228</v>
       </c>
       <c r="G28" t="s">
-        <v>147</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B29" t="str" cm="1">
         <f t="array" ref="B29">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C29">
-        <v>5207</v>
+        <v>5105</v>
       </c>
       <c r="D29" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>202</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B30" t="str" cm="1">
         <f t="array" ref="B30">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C30">
-        <v>5302</v>
+        <v>5102</v>
       </c>
       <c r="D30" t="s">
-        <v>418</v>
+        <v>161</v>
       </c>
       <c r="E30">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>304</v>
+        <v>118</v>
       </c>
       <c r="G30" t="s">
-        <v>297</v>
-      </c>
-      <c r="H30" t="s">
-        <v>296</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B31" t="str" cm="1">
         <f t="array" ref="B31">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C31">
-        <v>5207</v>
+        <v>5303</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>416</v>
       </c>
       <c r="E31">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>203</v>
+        <v>390</v>
       </c>
       <c r="G31" t="s">
-        <v>205</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -33211,69 +33219,72 @@
         <v>Afrique</v>
       </c>
       <c r="C32">
-        <v>5101</v>
+        <v>5102</v>
       </c>
       <c r="D32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E32">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B33" t="str" cm="1">
         <f t="array" ref="B33">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C33">
-        <v>5102</v>
+        <v>5207</v>
       </c>
       <c r="D33" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="E33">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B34" t="str" cm="1">
         <f t="array" ref="B34">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C34">
-        <v>5204</v>
+        <v>5302</v>
       </c>
       <c r="D34" t="s">
-        <v>165</v>
+        <v>418</v>
       </c>
       <c r="E34">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>169</v>
+        <v>304</v>
       </c>
       <c r="G34" t="s">
-        <v>171</v>
+        <v>297</v>
+      </c>
+      <c r="H34" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -33286,272 +33297,272 @@
         <v>Amériques</v>
       </c>
       <c r="C35">
-        <v>5206</v>
+        <v>5207</v>
       </c>
       <c r="D35" t="s">
-        <v>426</v>
+        <v>190</v>
       </c>
       <c r="E35">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="G35" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B36" t="str" cm="1">
         <f t="array" ref="B36">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C36">
-        <v>5305</v>
+        <v>5101</v>
       </c>
       <c r="D36" t="s">
-        <v>417</v>
+        <v>163</v>
       </c>
       <c r="E36">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>309</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>311</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B37" t="str" cm="1">
         <f t="array" ref="B37">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C37">
-        <v>5401</v>
+        <v>5102</v>
       </c>
       <c r="D37" t="s">
-        <v>554</v>
+        <v>161</v>
       </c>
       <c r="E37">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>636</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>547</v>
-      </c>
-      <c r="H37" t="s">
-        <v>638</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="B38" t="str" cm="1">
         <f t="array" ref="B38">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Amériques</v>
       </c>
       <c r="C38">
-        <v>5305</v>
+        <v>5204</v>
       </c>
       <c r="D38" t="s">
-        <v>417</v>
+        <v>165</v>
       </c>
       <c r="E38">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F38" t="s">
-        <v>287</v>
+        <v>169</v>
       </c>
       <c r="G38" t="s">
-        <v>289</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B39" t="str" cm="1">
         <f t="array" ref="B39">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C39">
-        <v>5105</v>
+        <v>5206</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
+        <v>426</v>
       </c>
       <c r="E39">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>247</v>
       </c>
       <c r="G39" t="s">
-        <v>19</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B40" t="str" cm="1">
         <f t="array" ref="B40">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C40">
-        <v>5402</v>
+        <v>5305</v>
       </c>
       <c r="D40" t="s">
-        <v>555</v>
+        <v>417</v>
       </c>
       <c r="E40">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s">
-        <v>453</v>
+        <v>309</v>
       </c>
       <c r="G40" t="s">
-        <v>455</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B41" t="str" cm="1">
         <f t="array" ref="B41">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C41">
-        <v>5206</v>
+        <v>5401</v>
       </c>
       <c r="D41" t="s">
-        <v>426</v>
+        <v>554</v>
       </c>
       <c r="E41">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F41" t="s">
-        <v>250</v>
+        <v>636</v>
       </c>
       <c r="G41" t="s">
-        <v>252</v>
+        <v>547</v>
+      </c>
+      <c r="H41" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B42" t="str" cm="1">
         <f t="array" ref="B42">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C42">
-        <v>5206</v>
+        <v>5305</v>
       </c>
       <c r="D42" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E42">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F42" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="G42" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B43" t="str" cm="1">
         <f t="array" ref="B43">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C43">
-        <v>5401</v>
+        <v>5105</v>
       </c>
       <c r="D43" t="s">
-        <v>554</v>
+        <v>162</v>
       </c>
       <c r="E43">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s">
-        <v>437</v>
+        <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>439</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B44" t="str" cm="1">
         <f t="array" ref="B44">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C44">
-        <v>5207</v>
+        <v>5402</v>
       </c>
       <c r="D44" t="s">
-        <v>190</v>
+        <v>555</v>
       </c>
       <c r="E44">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F44" t="s">
-        <v>206</v>
+        <v>453</v>
       </c>
       <c r="G44" t="s">
-        <v>208</v>
+        <v>455</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B45" t="str" cm="1">
         <f t="array" ref="B45">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C45">
-        <v>5103</v>
+        <v>5206</v>
       </c>
       <c r="D45" t="s">
-        <v>164</v>
+        <v>426</v>
       </c>
       <c r="E45">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
+        <v>250</v>
       </c>
       <c r="G45" t="s">
-        <v>49</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -33564,450 +33575,453 @@
         <v>Amériques</v>
       </c>
       <c r="C46">
-        <v>5204</v>
+        <v>5206</v>
       </c>
       <c r="D46" t="s">
-        <v>165</v>
+        <v>426</v>
       </c>
       <c r="E46">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F46" t="s">
-        <v>172</v>
+        <v>262</v>
       </c>
       <c r="G46" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B47" t="str" cm="1">
         <f t="array" ref="B47">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C47">
-        <v>5101</v>
+        <v>5401</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>554</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>437</v>
       </c>
       <c r="G47" t="s">
-        <v>55</v>
-      </c>
-      <c r="H47" t="s">
-        <v>641</v>
+        <v>439</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B48" t="str" cm="1">
         <f t="array" ref="B48">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C48">
-        <v>5402</v>
+        <v>5207</v>
       </c>
       <c r="D48" t="s">
-        <v>555</v>
+        <v>190</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F48" t="s">
-        <v>459</v>
+        <v>206</v>
       </c>
       <c r="G48" t="s">
-        <v>461</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="B49" t="str" cm="1">
         <f t="array" ref="B49">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Afrique</v>
       </c>
       <c r="C49">
-        <v>5502</v>
+        <v>5103</v>
       </c>
       <c r="D49" t="s">
-        <v>566</v>
+        <v>164</v>
       </c>
       <c r="E49">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F49" t="s">
-        <v>567</v>
+        <v>47</v>
       </c>
       <c r="G49" t="s">
-        <v>569</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B50" t="str" cm="1">
         <f t="array" ref="B50">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C50">
-        <v>5402</v>
+        <v>5204</v>
       </c>
       <c r="D50" t="s">
-        <v>555</v>
+        <v>165</v>
       </c>
       <c r="E50">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F50" t="s">
-        <v>465</v>
+        <v>172</v>
       </c>
       <c r="G50" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
-      </c>
-      <c r="B51" t="str" cm="1">
+        <v>5100</v>
+      </c>
+      <c r="B51" s="1" t="str" cm="1">
         <f t="array" ref="B51">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C51">
-        <v>5404</v>
+        <v>5102</v>
       </c>
       <c r="D51" t="s">
-        <v>553</v>
+        <v>161</v>
       </c>
       <c r="E51">
-        <v>68</v>
-      </c>
-      <c r="F51" t="s">
-        <v>468</v>
-      </c>
-      <c r="G51" t="s">
-        <v>470</v>
+        <v>61</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>655</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="H51" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="B52" t="str" cm="1">
         <f t="array" ref="B52">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Afrique</v>
       </c>
       <c r="C52">
-        <v>5504</v>
+        <v>5101</v>
       </c>
       <c r="D52" t="s">
-        <v>589</v>
+        <v>163</v>
       </c>
       <c r="E52">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F52" t="s">
-        <v>578</v>
+        <v>56</v>
       </c>
       <c r="G52" t="s">
-        <v>580</v>
+        <v>55</v>
+      </c>
+      <c r="H52" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B53" t="str" cm="1">
         <f t="array" ref="B53">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C53">
-        <v>5101</v>
+        <v>5402</v>
       </c>
       <c r="D53" t="s">
-        <v>163</v>
+        <v>555</v>
       </c>
       <c r="E53">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>459</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>461</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="B54" t="str" cm="1">
         <f t="array" ref="B54">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Océanie</v>
       </c>
       <c r="C54">
-        <v>5305</v>
+        <v>5502</v>
       </c>
       <c r="D54" t="s">
-        <v>417</v>
+        <v>566</v>
       </c>
       <c r="E54">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F54" t="s">
-        <v>315</v>
+        <v>567</v>
       </c>
       <c r="G54" t="s">
-        <v>317</v>
+        <v>569</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B55" t="str" cm="1">
         <f t="array" ref="B55">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C55">
-        <v>5102</v>
+        <v>5402</v>
       </c>
       <c r="D55" t="s">
-        <v>161</v>
+        <v>555</v>
       </c>
       <c r="E55">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F55" t="s">
-        <v>58</v>
+        <v>465</v>
       </c>
       <c r="G55" t="s">
-        <v>60</v>
+        <v>467</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B56" t="str" cm="1">
         <f t="array" ref="B56">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C56">
-        <v>5105</v>
+        <v>5404</v>
       </c>
       <c r="D56" t="s">
-        <v>162</v>
+        <v>553</v>
       </c>
       <c r="E56">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
+        <v>468</v>
       </c>
       <c r="G56" t="s">
-        <v>63</v>
+        <v>470</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="B57" t="str" cm="1">
         <f t="array" ref="B57">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Océanie</v>
       </c>
       <c r="C57">
-        <v>5404</v>
+        <v>5504</v>
       </c>
       <c r="D57" t="s">
-        <v>553</v>
+        <v>589</v>
       </c>
       <c r="E57">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F57" t="s">
-        <v>431</v>
+        <v>578</v>
       </c>
       <c r="G57" t="s">
-        <v>433</v>
+        <v>580</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B58" t="str" cm="1">
         <f t="array" ref="B58">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C58">
-        <v>5403</v>
+        <v>5101</v>
       </c>
       <c r="D58" t="s">
-        <v>552</v>
+        <v>163</v>
       </c>
       <c r="E58">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F58" t="s">
-        <v>444</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s">
-        <v>446</v>
-      </c>
-      <c r="H58" t="s">
-        <v>642</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B59" t="str" cm="1">
         <f t="array" ref="B59">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C59">
-        <v>5105</v>
+        <v>5305</v>
       </c>
       <c r="D59" t="s">
-        <v>162</v>
+        <v>417</v>
       </c>
       <c r="E59">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F59" t="s">
-        <v>64</v>
+        <v>315</v>
       </c>
       <c r="G59" t="s">
-        <v>66</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="B60" t="str" cm="1">
         <f t="array" ref="B60">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Afrique</v>
       </c>
       <c r="C60">
-        <v>5503</v>
+        <v>5102</v>
       </c>
       <c r="D60" t="s">
-        <v>576</v>
+        <v>161</v>
       </c>
       <c r="E60">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F60" t="s">
-        <v>560</v>
+        <v>58</v>
       </c>
       <c r="G60" t="s">
-        <v>562</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B61" t="str" cm="1">
         <f t="array" ref="B61">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C61">
-        <v>5403</v>
+        <v>5105</v>
       </c>
       <c r="D61" t="s">
-        <v>552</v>
+        <v>162</v>
       </c>
       <c r="E61">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F61" t="s">
-        <v>471</v>
+        <v>61</v>
       </c>
       <c r="G61" t="s">
-        <v>473</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B62" t="str" cm="1">
         <f t="array" ref="B62">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C62">
-        <v>5206</v>
+        <v>5404</v>
       </c>
       <c r="D62" t="s">
-        <v>426</v>
+        <v>553</v>
       </c>
       <c r="E62">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F62" t="s">
-        <v>253</v>
+        <v>431</v>
       </c>
       <c r="G62" t="s">
-        <v>255</v>
+        <v>433</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B63" t="str" cm="1">
         <f t="array" ref="B63">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C63">
-        <v>5204</v>
+        <v>5403</v>
       </c>
       <c r="D63" t="s">
-        <v>165</v>
+        <v>552</v>
       </c>
       <c r="E63">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F63" t="s">
-        <v>175</v>
+        <v>444</v>
       </c>
       <c r="G63" t="s">
-        <v>177</v>
+        <v>446</v>
+      </c>
+      <c r="H63" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -34026,63 +34040,63 @@
         <v>162</v>
       </c>
       <c r="E64">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F64" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G64" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="B65" t="str" cm="1">
         <f t="array" ref="B65">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Océanie</v>
       </c>
       <c r="C65">
-        <v>5207</v>
+        <v>5503</v>
       </c>
       <c r="D65" t="s">
-        <v>190</v>
+        <v>576</v>
       </c>
       <c r="E65">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F65" t="s">
-        <v>209</v>
+        <v>560</v>
       </c>
       <c r="G65" t="s">
-        <v>211</v>
+        <v>562</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B66" t="str" cm="1">
         <f t="array" ref="B66">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C66">
-        <v>5206</v>
+        <v>5403</v>
       </c>
       <c r="D66" t="s">
-        <v>426</v>
+        <v>552</v>
       </c>
       <c r="E66">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F66" t="s">
-        <v>256</v>
+        <v>471</v>
       </c>
       <c r="G66" t="s">
-        <v>258</v>
+        <v>473</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -34095,147 +34109,144 @@
         <v>Amériques</v>
       </c>
       <c r="C67">
-        <v>5204</v>
+        <v>5206</v>
       </c>
       <c r="D67" t="s">
-        <v>165</v>
+        <v>426</v>
       </c>
       <c r="E67">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F67" t="s">
-        <v>178</v>
+        <v>253</v>
       </c>
       <c r="G67" t="s">
-        <v>180</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="B68" t="str" cm="1">
         <f t="array" ref="B68">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Amériques</v>
       </c>
       <c r="C68">
-        <v>5302</v>
+        <v>5204</v>
       </c>
       <c r="D68" t="s">
-        <v>418</v>
+        <v>165</v>
       </c>
       <c r="E68">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F68" t="s">
-        <v>298</v>
+        <v>175</v>
       </c>
       <c r="G68" t="s">
-        <v>300</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B69" t="str" cm="1">
         <f t="array" ref="B69">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C69">
-        <v>5401</v>
+        <v>5105</v>
       </c>
       <c r="D69" t="s">
-        <v>554</v>
+        <v>162</v>
       </c>
       <c r="E69">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F69" t="s">
-        <v>474</v>
+        <v>67</v>
       </c>
       <c r="G69" t="s">
-        <v>476</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B70" t="str" cm="1">
         <f t="array" ref="B70">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C70">
-        <v>5403</v>
+        <v>5207</v>
       </c>
       <c r="D70" t="s">
-        <v>552</v>
+        <v>190</v>
       </c>
       <c r="E70">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F70" t="s">
-        <v>450</v>
+        <v>209</v>
       </c>
       <c r="G70" t="s">
-        <v>452</v>
-      </c>
-      <c r="H70" t="s">
-        <v>642</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B71" t="str" cm="1">
         <f t="array" ref="B71">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C71">
-        <v>5402</v>
+        <v>5206</v>
       </c>
       <c r="D71" t="s">
-        <v>555</v>
+        <v>426</v>
       </c>
       <c r="E71">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F71" t="s">
-        <v>480</v>
+        <v>256</v>
       </c>
       <c r="G71" t="s">
-        <v>482</v>
+        <v>258</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="B72" t="str" cm="1">
         <f t="array" ref="B72">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Amériques</v>
       </c>
       <c r="C72">
-        <v>5303</v>
+        <v>5204</v>
       </c>
       <c r="D72" t="s">
-        <v>416</v>
+        <v>165</v>
       </c>
       <c r="E72">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F72" t="s">
-        <v>318</v>
+        <v>178</v>
       </c>
       <c r="G72" t="s">
-        <v>320</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -34248,69 +34259,72 @@
         <v>Asie</v>
       </c>
       <c r="C73">
-        <v>5304</v>
+        <v>5302</v>
       </c>
       <c r="D73" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E73">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F73" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="G73" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B74" t="str" cm="1">
         <f t="array" ref="B74">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C74">
-        <v>5303</v>
+        <v>5401</v>
       </c>
       <c r="D74" t="s">
-        <v>416</v>
+        <v>554</v>
       </c>
       <c r="E74">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F74" t="s">
-        <v>324</v>
+        <v>474</v>
       </c>
       <c r="G74" t="s">
-        <v>326</v>
+        <v>476</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B75" t="str" cm="1">
         <f t="array" ref="B75">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C75">
-        <v>5305</v>
+        <v>5403</v>
       </c>
       <c r="D75" t="s">
-        <v>417</v>
+        <v>552</v>
       </c>
       <c r="E75">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F75" t="s">
-        <v>327</v>
+        <v>450</v>
       </c>
       <c r="G75" t="s">
-        <v>329</v>
+        <v>452</v>
+      </c>
+      <c r="H75" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -34329,13 +34343,13 @@
         <v>555</v>
       </c>
       <c r="E76">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F76" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="G76" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -34348,69 +34362,69 @@
         <v>Asie</v>
       </c>
       <c r="C77">
-        <v>5305</v>
+        <v>5303</v>
       </c>
       <c r="D77" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E77">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F77" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G77" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B78" t="str" cm="1">
         <f t="array" ref="B78">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C78">
-        <v>5403</v>
+        <v>5304</v>
       </c>
       <c r="D78" t="s">
-        <v>552</v>
+        <v>415</v>
       </c>
       <c r="E78">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F78" t="s">
-        <v>483</v>
+        <v>321</v>
       </c>
       <c r="G78" t="s">
-        <v>485</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B79" t="str" cm="1">
         <f t="array" ref="B79">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C79">
-        <v>5105</v>
+        <v>5303</v>
       </c>
       <c r="D79" t="s">
-        <v>162</v>
+        <v>416</v>
       </c>
       <c r="E79">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>324</v>
       </c>
       <c r="G79" t="s">
-        <v>43</v>
+        <v>326</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -34423,44 +34437,44 @@
         <v>Asie</v>
       </c>
       <c r="C80">
-        <v>5301</v>
+        <v>5305</v>
       </c>
       <c r="D80" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E80">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F80" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="G80" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B81" t="str" cm="1">
         <f t="array" ref="B81">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C81">
-        <v>5206</v>
+        <v>5402</v>
       </c>
       <c r="D81" t="s">
-        <v>426</v>
+        <v>555</v>
       </c>
       <c r="E81">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F81" t="s">
-        <v>259</v>
+        <v>477</v>
       </c>
       <c r="G81" t="s">
-        <v>261</v>
+        <v>479</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -34473,119 +34487,119 @@
         <v>Asie</v>
       </c>
       <c r="C82">
-        <v>5302</v>
+        <v>5305</v>
       </c>
       <c r="D82" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E82">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F82" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G82" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B83" t="str" cm="1">
         <f t="array" ref="B83">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C83">
-        <v>5305</v>
+        <v>5403</v>
       </c>
       <c r="D83" t="s">
-        <v>417</v>
+        <v>552</v>
       </c>
       <c r="E83">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F83" t="s">
-        <v>336</v>
+        <v>483</v>
       </c>
       <c r="G83" t="s">
-        <v>338</v>
+        <v>485</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B84" t="str" cm="1">
         <f t="array" ref="B84">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C84">
-        <v>5301</v>
+        <v>5105</v>
       </c>
       <c r="D84" t="s">
-        <v>414</v>
+        <v>162</v>
       </c>
       <c r="E84">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F84" t="s">
-        <v>342</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>344</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B85" t="str" cm="1">
         <f t="array" ref="B85">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C85">
-        <v>5101</v>
+        <v>5301</v>
       </c>
       <c r="D85" t="s">
-        <v>163</v>
+        <v>414</v>
       </c>
       <c r="E85">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F85" t="s">
-        <v>73</v>
+        <v>339</v>
       </c>
       <c r="G85" t="s">
-        <v>75</v>
+        <v>341</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="B86" t="str" cm="1">
         <f t="array" ref="B86">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Amériques</v>
       </c>
       <c r="C86">
-        <v>5304</v>
+        <v>5206</v>
       </c>
       <c r="D86" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="E86">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F86" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="G86" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -34604,13 +34618,13 @@
         <v>418</v>
       </c>
       <c r="E87">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F87" t="s">
-        <v>387</v>
+        <v>333</v>
       </c>
       <c r="G87" t="s">
-        <v>389</v>
+        <v>335</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -34623,19 +34637,19 @@
         <v>Asie</v>
       </c>
       <c r="C88">
-        <v>5302</v>
+        <v>5305</v>
       </c>
       <c r="D88" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E88">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F88" t="s">
-        <v>381</v>
+        <v>336</v>
       </c>
       <c r="G88" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -34648,44 +34662,44 @@
         <v>Asie</v>
       </c>
       <c r="C89">
-        <v>5305</v>
+        <v>5301</v>
       </c>
       <c r="D89" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E89">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F89" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G89" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B90" t="str" cm="1">
         <f t="array" ref="B90">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C90">
-        <v>5402</v>
+        <v>5101</v>
       </c>
       <c r="D90" t="s">
-        <v>555</v>
+        <v>163</v>
       </c>
       <c r="E90">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F90" t="s">
-        <v>486</v>
+        <v>73</v>
       </c>
       <c r="G90" t="s">
-        <v>488</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -34704,13 +34718,13 @@
         <v>415</v>
       </c>
       <c r="E91">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F91" t="s">
-        <v>384</v>
+        <v>293</v>
       </c>
       <c r="G91" t="s">
-        <v>386</v>
+        <v>295</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -34723,119 +34737,119 @@
         <v>Asie</v>
       </c>
       <c r="C92">
-        <v>5305</v>
+        <v>5302</v>
       </c>
       <c r="D92" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E92">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F92" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="G92" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B93" t="str" cm="1">
         <f t="array" ref="B93">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C93">
-        <v>5104</v>
+        <v>5302</v>
       </c>
       <c r="D93" t="s">
-        <v>160</v>
+        <v>418</v>
       </c>
       <c r="E93">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F93" t="s">
-        <v>76</v>
+        <v>381</v>
       </c>
       <c r="G93" t="s">
-        <v>78</v>
+        <v>383</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B94" t="str" cm="1">
         <f t="array" ref="B94">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C94">
-        <v>5105</v>
+        <v>5305</v>
       </c>
       <c r="D94" t="s">
-        <v>162</v>
+        <v>417</v>
       </c>
       <c r="E94">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F94" t="s">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="G94" t="s">
-        <v>81</v>
+        <v>347</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B95" t="str" cm="1">
         <f t="array" ref="B95">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C95">
-        <v>5103</v>
+        <v>5402</v>
       </c>
       <c r="D95" t="s">
-        <v>164</v>
+        <v>555</v>
       </c>
       <c r="E95">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F95" t="s">
-        <v>82</v>
+        <v>486</v>
       </c>
       <c r="G95" t="s">
-        <v>84</v>
+        <v>488</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B96" t="str" cm="1">
         <f t="array" ref="B96">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C96">
-        <v>5402</v>
+        <v>5304</v>
       </c>
       <c r="D96" t="s">
-        <v>555</v>
+        <v>415</v>
       </c>
       <c r="E96">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F96" t="s">
-        <v>489</v>
+        <v>384</v>
       </c>
       <c r="G96" t="s">
-        <v>491</v>
+        <v>386</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -34848,19 +34862,19 @@
         <v>Asie</v>
       </c>
       <c r="C97">
-        <v>5302</v>
+        <v>5305</v>
       </c>
       <c r="D97" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E97">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F97" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="G97" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -34873,19 +34887,19 @@
         <v>Afrique</v>
       </c>
       <c r="C98">
-        <v>5101</v>
+        <v>5104</v>
       </c>
       <c r="D98" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E98">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F98" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G98" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -34898,119 +34912,119 @@
         <v>Afrique</v>
       </c>
       <c r="C99">
-        <v>5101</v>
+        <v>5105</v>
       </c>
       <c r="D99" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E99">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F99" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G99" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B100" t="str" cm="1">
         <f t="array" ref="B100">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C100">
-        <v>5304</v>
+        <v>5103</v>
       </c>
       <c r="D100" t="s">
-        <v>415</v>
+        <v>164</v>
       </c>
       <c r="E100">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F100" t="s">
-        <v>351</v>
+        <v>82</v>
       </c>
       <c r="G100" t="s">
-        <v>353</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B101" t="str" cm="1">
         <f t="array" ref="B101">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C101">
-        <v>5303</v>
+        <v>5402</v>
       </c>
       <c r="D101" t="s">
-        <v>416</v>
+        <v>555</v>
       </c>
       <c r="E101">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F101" t="s">
-        <v>354</v>
+        <v>489</v>
       </c>
       <c r="G101" t="s">
-        <v>356</v>
+        <v>491</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B102" t="str" cm="1">
         <f t="array" ref="B102">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C102">
-        <v>5105</v>
+        <v>5302</v>
       </c>
       <c r="D102" t="s">
-        <v>162</v>
+        <v>418</v>
       </c>
       <c r="E102">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F102" t="s">
-        <v>91</v>
+        <v>301</v>
       </c>
       <c r="G102" t="s">
-        <v>93</v>
+        <v>303</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B103" t="str" cm="1">
         <f t="array" ref="B103">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C103">
-        <v>5403</v>
+        <v>5101</v>
       </c>
       <c r="D103" t="s">
-        <v>552</v>
+        <v>163</v>
       </c>
       <c r="E103">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F103" t="s">
-        <v>498</v>
+        <v>85</v>
       </c>
       <c r="G103" t="s">
-        <v>500</v>
+        <v>87</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -35023,119 +35037,119 @@
         <v>Afrique</v>
       </c>
       <c r="C104">
-        <v>5105</v>
+        <v>5101</v>
       </c>
       <c r="D104" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E104">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F104" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G104" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B105" t="str" cm="1">
         <f t="array" ref="B105">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C105">
-        <v>5101</v>
+        <v>5304</v>
       </c>
       <c r="D105" t="s">
-        <v>163</v>
+        <v>415</v>
       </c>
       <c r="E105">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F105" t="s">
-        <v>97</v>
+        <v>351</v>
       </c>
       <c r="G105" t="s">
-        <v>99</v>
+        <v>353</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B106" t="str" cm="1">
         <f t="array" ref="B106">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C106">
-        <v>5204</v>
+        <v>5303</v>
       </c>
       <c r="D106" t="s">
-        <v>165</v>
+        <v>416</v>
       </c>
       <c r="E106">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F106" t="s">
-        <v>181</v>
+        <v>354</v>
       </c>
       <c r="G106" t="s">
-        <v>183</v>
+        <v>356</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B107" t="str" cm="1">
         <f t="array" ref="B107">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C107">
-        <v>5302</v>
+        <v>5105</v>
       </c>
       <c r="D107" t="s">
-        <v>418</v>
+        <v>162</v>
       </c>
       <c r="E107">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F107" t="s">
-        <v>357</v>
+        <v>91</v>
       </c>
       <c r="G107" t="s">
-        <v>359</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B108" t="str" cm="1">
         <f t="array" ref="B108">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C108">
-        <v>5103</v>
+        <v>5403</v>
       </c>
       <c r="D108" t="s">
-        <v>164</v>
+        <v>552</v>
       </c>
       <c r="E108">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F108" t="s">
-        <v>94</v>
+        <v>498</v>
       </c>
       <c r="G108" t="s">
-        <v>96</v>
+        <v>500</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -35148,69 +35162,69 @@
         <v>Afrique</v>
       </c>
       <c r="C109">
-        <v>5101</v>
+        <v>5105</v>
       </c>
       <c r="D109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E109">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F109" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G109" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B110" t="str" cm="1">
         <f t="array" ref="B110">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C110">
-        <v>5401</v>
+        <v>5101</v>
       </c>
       <c r="D110" t="s">
-        <v>554</v>
+        <v>163</v>
       </c>
       <c r="E110">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F110" t="s">
-        <v>516</v>
+        <v>97</v>
       </c>
       <c r="G110" t="s">
-        <v>518</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B111" t="str" cm="1">
         <f t="array" ref="B111">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C111">
-        <v>5104</v>
+        <v>5204</v>
       </c>
       <c r="D111" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E111">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F111" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="G111" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -35223,94 +35237,97 @@
         <v>Asie</v>
       </c>
       <c r="C112">
-        <v>5303</v>
+        <v>5302</v>
       </c>
       <c r="D112" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E112">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F112" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G112" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B113" t="str" cm="1">
         <f t="array" ref="B113">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C113">
-        <v>5404</v>
+        <v>5103</v>
       </c>
       <c r="D113" t="s">
-        <v>553</v>
+        <v>164</v>
       </c>
       <c r="E113">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F113" t="s">
-        <v>507</v>
+        <v>94</v>
       </c>
       <c r="G113" t="s">
-        <v>509</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B114" t="str" cm="1">
         <f t="array" ref="B114">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C114">
-        <v>5206</v>
+        <v>5101</v>
       </c>
       <c r="D114" t="s">
-        <v>426</v>
+        <v>163</v>
       </c>
       <c r="E114">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F114" t="s">
-        <v>238</v>
+        <v>103</v>
       </c>
       <c r="G114" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
-      </c>
-      <c r="B115" t="str" cm="1">
+        <v>5300</v>
+      </c>
+      <c r="B115" s="1" t="str" cm="1">
         <f t="array" ref="B115">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Asie</v>
       </c>
       <c r="C115">
-        <v>5502</v>
+        <v>5304</v>
       </c>
       <c r="D115" t="s">
-        <v>566</v>
+        <v>415</v>
       </c>
       <c r="E115">
-        <v>153</v>
-      </c>
-      <c r="F115" t="s">
-        <v>570</v>
-      </c>
-      <c r="G115" t="s">
-        <v>572</v>
+        <v>145</v>
+      </c>
+      <c r="F115" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="G115" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="H115" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -35323,147 +35340,144 @@
         <v>Europe</v>
       </c>
       <c r="C116">
-        <v>5403</v>
+        <v>5401</v>
       </c>
       <c r="D116" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E116">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F116" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="G116" t="s">
-        <v>497</v>
-      </c>
-      <c r="H116" t="s">
-        <v>642</v>
+        <v>518</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="B117" t="str" cm="1">
         <f t="array" ref="B117">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Afrique</v>
       </c>
       <c r="C117">
-        <v>5502</v>
+        <v>5104</v>
       </c>
       <c r="D117" t="s">
-        <v>566</v>
+        <v>160</v>
       </c>
       <c r="E117">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F117" t="s">
-        <v>563</v>
+        <v>106</v>
       </c>
       <c r="G117" t="s">
-        <v>565</v>
+        <v>108</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="B118" t="str" cm="1">
         <f t="array" ref="B118">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Asie</v>
       </c>
       <c r="C118">
-        <v>5501</v>
+        <v>5303</v>
       </c>
       <c r="D118" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E118">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F118" t="s">
-        <v>423</v>
+        <v>363</v>
       </c>
       <c r="G118" t="s">
-        <v>425</v>
+        <v>365</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B119" t="str" cm="1">
         <f t="array" ref="B119">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C119">
-        <v>5204</v>
+        <v>5404</v>
       </c>
       <c r="D119" t="s">
-        <v>165</v>
+        <v>553</v>
       </c>
       <c r="E119">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F119" t="s">
-        <v>184</v>
+        <v>507</v>
       </c>
       <c r="G119" t="s">
-        <v>186</v>
+        <v>509</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B120" t="str" cm="1">
         <f t="array" ref="B120">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C120">
-        <v>5105</v>
+        <v>5206</v>
       </c>
       <c r="D120" t="s">
-        <v>162</v>
+        <v>426</v>
       </c>
       <c r="E120">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F120" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="G120" t="s">
-        <v>111</v>
+        <v>240</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5500</v>
       </c>
       <c r="B121" t="str" cm="1">
         <f t="array" ref="B121">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Océanie</v>
       </c>
       <c r="C121">
-        <v>5105</v>
+        <v>5502</v>
       </c>
       <c r="D121" t="s">
-        <v>162</v>
+        <v>566</v>
       </c>
       <c r="E121">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F121" t="s">
-        <v>112</v>
+        <v>570</v>
       </c>
       <c r="G121" t="s">
-        <v>114</v>
+        <v>572</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -35476,169 +35490,172 @@
         <v>Europe</v>
       </c>
       <c r="C122">
-        <v>5402</v>
+        <v>5403</v>
       </c>
       <c r="D122" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E122">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F122" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="G122" t="s">
-        <v>506</v>
+        <v>497</v>
+      </c>
+      <c r="H122" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="B123" t="str" cm="1">
         <f t="array" ref="B123">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Océanie</v>
       </c>
       <c r="C123">
-        <v>5303</v>
+        <v>5502</v>
       </c>
       <c r="D123" t="s">
-        <v>416</v>
+        <v>566</v>
       </c>
       <c r="E123">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F123" t="s">
-        <v>372</v>
+        <v>563</v>
       </c>
       <c r="G123" t="s">
-        <v>374</v>
+        <v>565</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="B124" t="str" cm="1">
         <f t="array" ref="B124">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Océanie</v>
       </c>
       <c r="C124">
-        <v>5204</v>
+        <v>5501</v>
       </c>
       <c r="D124" t="s">
-        <v>165</v>
+        <v>419</v>
       </c>
       <c r="E124">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F124" t="s">
-        <v>187</v>
+        <v>423</v>
       </c>
       <c r="G124" t="s">
-        <v>189</v>
+        <v>425</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B125" t="str" cm="1">
         <f t="array" ref="B125">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C125">
-        <v>5401</v>
+        <v>5204</v>
       </c>
       <c r="D125" t="s">
-        <v>554</v>
+        <v>165</v>
       </c>
       <c r="E125">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F125" t="s">
-        <v>545</v>
+        <v>184</v>
       </c>
       <c r="G125" t="s">
-        <v>547</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="B126" t="str" cm="1">
         <f t="array" ref="B126">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Afrique</v>
       </c>
       <c r="C126">
-        <v>5502</v>
+        <v>5105</v>
       </c>
       <c r="D126" t="s">
-        <v>566</v>
+        <v>162</v>
       </c>
       <c r="E126">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F126" t="s">
-        <v>573</v>
+        <v>109</v>
       </c>
       <c r="G126" t="s">
-        <v>575</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B127" t="str" cm="1">
         <f t="array" ref="B127">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C127">
-        <v>5207</v>
+        <v>5105</v>
       </c>
       <c r="D127" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="E127">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F127" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="G127" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B128" t="str" cm="1">
         <f t="array" ref="B128">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C128">
-        <v>5207</v>
+        <v>5402</v>
       </c>
       <c r="D128" t="s">
-        <v>190</v>
+        <v>555</v>
       </c>
       <c r="E128">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F128" t="s">
-        <v>215</v>
+        <v>504</v>
       </c>
       <c r="G128" t="s">
-        <v>217</v>
+        <v>506</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -35651,44 +35668,44 @@
         <v>Asie</v>
       </c>
       <c r="C129">
-        <v>5304</v>
+        <v>5303</v>
       </c>
       <c r="D129" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E129">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F129" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G129" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B130" t="str" cm="1">
         <f t="array" ref="B130">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C130">
-        <v>5401</v>
+        <v>5204</v>
       </c>
       <c r="D130" t="s">
-        <v>554</v>
+        <v>165</v>
       </c>
       <c r="E130">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F130" t="s">
-        <v>510</v>
+        <v>187</v>
       </c>
       <c r="G130" t="s">
-        <v>512</v>
+        <v>189</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -35701,144 +35718,144 @@
         <v>Europe</v>
       </c>
       <c r="C131">
-        <v>5403</v>
+        <v>5401</v>
       </c>
       <c r="D131" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E131">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F131" t="s">
-        <v>513</v>
+        <v>545</v>
       </c>
       <c r="G131" t="s">
-        <v>515</v>
+        <v>547</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5500</v>
       </c>
       <c r="B132" t="str" cm="1">
         <f t="array" ref="B132">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Océanie</v>
       </c>
       <c r="C132">
-        <v>5105</v>
+        <v>5502</v>
       </c>
       <c r="D132" t="s">
-        <v>162</v>
+        <v>566</v>
       </c>
       <c r="E132">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F132" t="s">
-        <v>70</v>
+        <v>573</v>
       </c>
       <c r="G132" t="s">
-        <v>72</v>
+        <v>575</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="B133" t="str" cm="1">
         <f t="array" ref="B133">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Amériques</v>
       </c>
       <c r="C133">
-        <v>5304</v>
+        <v>5207</v>
       </c>
       <c r="D133" t="s">
-        <v>415</v>
+        <v>190</v>
       </c>
       <c r="E133">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F133" t="s">
-        <v>399</v>
+        <v>212</v>
       </c>
       <c r="G133" t="s">
-        <v>401</v>
+        <v>214</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B134" t="str" cm="1">
         <f t="array" ref="B134">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C134">
-        <v>5101</v>
+        <v>5207</v>
       </c>
       <c r="D134" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="E134">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F134" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="G134" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B135" t="str" cm="1">
         <f t="array" ref="B135">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C135">
-        <v>5401</v>
+        <v>5304</v>
       </c>
       <c r="D135" t="s">
-        <v>554</v>
+        <v>415</v>
       </c>
       <c r="E135">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F135" t="s">
-        <v>520</v>
+        <v>375</v>
       </c>
       <c r="G135" t="s">
-        <v>522</v>
+        <v>377</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B136" t="str" cm="1">
         <f t="array" ref="B136">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C136">
-        <v>5101</v>
+        <v>5401</v>
       </c>
       <c r="D136" t="s">
-        <v>163</v>
+        <v>554</v>
       </c>
       <c r="E136">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="F136" t="s">
-        <v>127</v>
+        <v>510</v>
       </c>
       <c r="G136" t="s">
-        <v>129</v>
+        <v>512</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -35851,80 +35868,77 @@
         <v>Europe</v>
       </c>
       <c r="C137">
-        <v>5401</v>
+        <v>5403</v>
       </c>
       <c r="D137" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E137">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="F137" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="G137" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B138" t="str" cm="1">
         <f t="array" ref="B138">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C138">
-        <v>5403</v>
+        <v>5105</v>
       </c>
       <c r="D138" t="s">
-        <v>552</v>
+        <v>162</v>
       </c>
       <c r="E138">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="F138" t="s">
-        <v>529</v>
+        <v>70</v>
       </c>
       <c r="G138" t="s">
-        <v>531</v>
-      </c>
-      <c r="H138" t="s">
-        <v>643</v>
+        <v>72</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B139" t="str" cm="1">
         <f t="array" ref="B139">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C139">
-        <v>5206</v>
+        <v>5304</v>
       </c>
       <c r="D139" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="E139">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>399</v>
       </c>
       <c r="G139" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5200</v>
       </c>
-      <c r="B140" t="str" cm="1">
+      <c r="B140" s="1" t="str" cm="1">
         <f t="array" ref="B140">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
         <v>Amériques</v>
       </c>
@@ -35935,38 +35949,44 @@
         <v>426</v>
       </c>
       <c r="E140">
-        <v>189</v>
-      </c>
-      <c r="F140" t="s">
-        <v>265</v>
-      </c>
-      <c r="G140" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141">
+        <v>177</v>
+      </c>
+      <c r="F140" s="16" t="s">
+        <v>659</v>
+      </c>
+      <c r="G140" s="18" t="s">
+        <v>660</v>
+      </c>
+      <c r="H140" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
-      </c>
-      <c r="B141" t="str" cm="1">
+        <v>5100</v>
+      </c>
+      <c r="B141" s="1" t="str" cm="1">
         <f t="array" ref="B141">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C141">
-        <v>5206</v>
+        <v>5101</v>
       </c>
       <c r="D141" t="s">
-        <v>426</v>
+        <v>163</v>
       </c>
       <c r="E141">
-        <v>191</v>
-      </c>
-      <c r="F141" t="s">
-        <v>271</v>
-      </c>
-      <c r="G141" t="s">
-        <v>273</v>
+        <v>178</v>
+      </c>
+      <c r="F141" s="16" t="s">
+        <v>661</v>
+      </c>
+      <c r="G141" s="16" t="s">
+        <v>662</v>
+      </c>
+      <c r="H141" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -35979,44 +35999,44 @@
         <v>Afrique</v>
       </c>
       <c r="C142">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="D142" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E142">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F142" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="G142" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B143" t="str" cm="1">
         <f t="array" ref="B143">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C143">
-        <v>5305</v>
+        <v>5401</v>
       </c>
       <c r="D143" t="s">
-        <v>417</v>
+        <v>554</v>
       </c>
       <c r="E143">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F143" t="s">
-        <v>281</v>
+        <v>520</v>
       </c>
       <c r="G143" t="s">
-        <v>283</v>
+        <v>522</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -36029,247 +36049,247 @@
         <v>Afrique</v>
       </c>
       <c r="C144">
-        <v>5105</v>
+        <v>5101</v>
       </c>
       <c r="D144" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E144">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F144" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G144" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B145" t="str" cm="1">
         <f t="array" ref="B145">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C145">
-        <v>5101</v>
+        <v>5401</v>
       </c>
       <c r="D145" t="s">
-        <v>163</v>
+        <v>554</v>
       </c>
       <c r="E145">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="F145" t="s">
-        <v>136</v>
+        <v>462</v>
       </c>
       <c r="G145" t="s">
-        <v>138</v>
+        <v>464</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B146" t="str" cm="1">
         <f t="array" ref="B146">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C146">
-        <v>5105</v>
+        <v>5403</v>
       </c>
       <c r="D146" t="s">
-        <v>162</v>
+        <v>552</v>
       </c>
       <c r="E146">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="F146" t="s">
-        <v>139</v>
+        <v>529</v>
       </c>
       <c r="G146" t="s">
-        <v>141</v>
+        <v>531</v>
+      </c>
+      <c r="H146" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B147" t="str" cm="1">
         <f t="array" ref="B147">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C147">
-        <v>5403</v>
+        <v>5206</v>
       </c>
       <c r="D147" t="s">
-        <v>552</v>
+        <v>426</v>
       </c>
       <c r="E147">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F147" t="s">
-        <v>535</v>
+        <v>268</v>
       </c>
       <c r="G147" t="s">
-        <v>537</v>
+        <v>270</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B148" t="str" cm="1">
         <f t="array" ref="B148">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C148">
-        <v>5401</v>
+        <v>5206</v>
       </c>
       <c r="D148" t="s">
-        <v>554</v>
+        <v>426</v>
       </c>
       <c r="E148">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F148" t="s">
-        <v>532</v>
+        <v>265</v>
       </c>
       <c r="G148" t="s">
-        <v>534</v>
+        <v>267</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B149" t="str" cm="1">
         <f t="array" ref="B149">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C149">
-        <v>5104</v>
+        <v>5206</v>
       </c>
       <c r="D149" t="s">
-        <v>160</v>
+        <v>426</v>
       </c>
       <c r="E149">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="F149" t="s">
-        <v>8</v>
+        <v>271</v>
       </c>
       <c r="G149" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B150" t="str" cm="1">
         <f t="array" ref="B150">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C150">
-        <v>5403</v>
+        <v>5102</v>
       </c>
       <c r="D150" t="s">
-        <v>552</v>
+        <v>161</v>
       </c>
       <c r="E150">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F150" t="s">
-        <v>456</v>
+        <v>130</v>
       </c>
       <c r="G150" t="s">
-        <v>458</v>
+        <v>132</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
+      <c r="A151">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
-      </c>
-      <c r="B151" s="1" t="str" cm="1">
+        <v>5300</v>
+      </c>
+      <c r="B151" t="str" cm="1">
         <f t="array" ref="B151">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C151">
-        <v>5103</v>
+        <v>5305</v>
       </c>
       <c r="D151" t="s">
-        <v>164</v>
+        <v>417</v>
       </c>
       <c r="E151">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F151" t="s">
-        <v>142</v>
+        <v>281</v>
       </c>
       <c r="G151" t="s">
-        <v>144</v>
-      </c>
-      <c r="H151" t="s">
-        <v>645</v>
+        <v>283</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B152" t="str" cm="1">
         <f t="array" ref="B152">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C152">
-        <v>5207</v>
+        <v>5105</v>
       </c>
       <c r="D152" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="E152">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F152" t="s">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="G152" t="s">
-        <v>220</v>
+        <v>135</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B153" t="str" cm="1">
         <f t="array" ref="B153">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C153">
-        <v>5301</v>
+        <v>5101</v>
       </c>
       <c r="D153" t="s">
-        <v>414</v>
+        <v>163</v>
       </c>
       <c r="E153">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F153" t="s">
-        <v>393</v>
+        <v>136</v>
       </c>
       <c r="G153" t="s">
-        <v>395</v>
+        <v>138</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -36282,19 +36302,19 @@
         <v>Afrique</v>
       </c>
       <c r="C154">
-        <v>5104</v>
+        <v>5105</v>
       </c>
       <c r="D154" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E154">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F154" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="G154" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -36307,19 +36327,19 @@
         <v>Europe</v>
       </c>
       <c r="C155">
-        <v>5402</v>
+        <v>5403</v>
       </c>
       <c r="D155" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E155">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="F155" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G155" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -36332,269 +36352,278 @@
         <v>Europe</v>
       </c>
       <c r="C156">
-        <v>5404</v>
+        <v>5401</v>
       </c>
       <c r="D156" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E156">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F156" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="G156" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5300</v>
       </c>
-      <c r="B157" t="str" cm="1">
+      <c r="B157" s="1" t="str" cm="1">
         <f t="array" ref="B157">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
         <v>Asie</v>
       </c>
       <c r="C157">
-        <v>5305</v>
+        <v>5304</v>
       </c>
       <c r="D157" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E157">
-        <v>212</v>
-      </c>
-      <c r="F157" t="s">
-        <v>378</v>
-      </c>
-      <c r="G157" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158">
+        <v>200</v>
+      </c>
+      <c r="F157" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="G157" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="H157" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
-      </c>
-      <c r="B158" t="str" cm="1">
+        <v>5100</v>
+      </c>
+      <c r="B158" s="1" t="str" cm="1">
         <f t="array" ref="B158">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C158">
-        <v>5301</v>
+        <v>5101</v>
       </c>
       <c r="D158" t="s">
-        <v>414</v>
+        <v>163</v>
       </c>
       <c r="E158">
-        <v>213</v>
-      </c>
-      <c r="F158" t="s">
-        <v>402</v>
-      </c>
-      <c r="G158" t="s">
-        <v>404</v>
+        <v>201</v>
+      </c>
+      <c r="F158" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="G158" s="16" t="s">
+        <v>666</v>
+      </c>
+      <c r="H158" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B159" t="str" cm="1">
         <f t="array" ref="B159">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C159">
-        <v>5302</v>
+        <v>5104</v>
       </c>
       <c r="D159" t="s">
-        <v>418</v>
+        <v>160</v>
       </c>
       <c r="E159">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>8</v>
       </c>
       <c r="G159" t="s">
-        <v>308</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B160" t="str" cm="1">
         <f t="array" ref="B160">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C160">
+        <v>5403</v>
+      </c>
+      <c r="D160" t="s">
+        <v>552</v>
+      </c>
+      <c r="E160">
+        <v>203</v>
+      </c>
+      <c r="F160" t="s">
+        <v>456</v>
+      </c>
+      <c r="G160" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B161" s="1" t="str" cm="1">
+        <f t="array" ref="B161">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
         <v>Afrique</v>
       </c>
-      <c r="C160">
-        <v>5101</v>
-      </c>
-      <c r="D160" t="s">
-        <v>163</v>
-      </c>
-      <c r="E160">
-        <v>215</v>
-      </c>
-      <c r="F160" t="s">
-        <v>124</v>
-      </c>
-      <c r="G160" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
-      </c>
-      <c r="B161" t="str" cm="1">
-        <f t="array" ref="B161">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
-      </c>
       <c r="C161">
-        <v>5304</v>
+        <v>5103</v>
       </c>
       <c r="D161" t="s">
-        <v>415</v>
+        <v>164</v>
       </c>
       <c r="E161">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F161" t="s">
-        <v>396</v>
+        <v>142</v>
       </c>
       <c r="G161" t="s">
-        <v>398</v>
+        <v>144</v>
+      </c>
+      <c r="H161" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B162" t="str" cm="1">
         <f t="array" ref="B162">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C162">
-        <v>5105</v>
+        <v>5207</v>
       </c>
       <c r="D162" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="E162">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F162" t="s">
-        <v>148</v>
+        <v>218</v>
       </c>
       <c r="G162" t="s">
-        <v>150</v>
+        <v>220</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B163" t="str" cm="1">
         <f t="array" ref="B163">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C163">
-        <v>5206</v>
+        <v>5301</v>
       </c>
       <c r="D163" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E163">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F163" t="s">
-        <v>274</v>
+        <v>393</v>
       </c>
       <c r="G163" t="s">
-        <v>276</v>
+        <v>395</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B164" t="str" cm="1">
         <f t="array" ref="B164">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C164">
-        <v>5305</v>
+        <v>5104</v>
       </c>
       <c r="D164" t="s">
-        <v>417</v>
+        <v>160</v>
       </c>
       <c r="E164">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="F164" t="s">
-        <v>366</v>
+        <v>50</v>
       </c>
       <c r="G164" t="s">
-        <v>368</v>
+        <v>52</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B165" t="str" cm="1">
         <f t="array" ref="B165">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C165">
-        <v>5103</v>
+        <v>5402</v>
       </c>
       <c r="D165" t="s">
-        <v>164</v>
+        <v>555</v>
       </c>
       <c r="E165">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F165" t="s">
-        <v>151</v>
+        <v>538</v>
       </c>
       <c r="G165" t="s">
-        <v>153</v>
+        <v>540</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B166" t="str" cm="1">
         <f t="array" ref="B166">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C166">
-        <v>5305</v>
+        <v>5404</v>
       </c>
       <c r="D166" t="s">
-        <v>417</v>
+        <v>553</v>
       </c>
       <c r="E166">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F166" t="s">
-        <v>405</v>
+        <v>541</v>
       </c>
       <c r="G166" t="s">
-        <v>407</v>
+        <v>543</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -36613,166 +36642,166 @@
         <v>417</v>
       </c>
       <c r="E167">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F167" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="G167" t="s">
-        <v>314</v>
+        <v>380</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B168" t="str" cm="1">
         <f t="array" ref="B168">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C168">
-        <v>5101</v>
+        <v>5301</v>
       </c>
       <c r="D168" t="s">
-        <v>163</v>
+        <v>414</v>
       </c>
       <c r="E168">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="F168" t="s">
-        <v>115</v>
+        <v>402</v>
       </c>
       <c r="G168" t="s">
-        <v>117</v>
+        <v>404</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B169" t="str" cm="1">
         <f t="array" ref="B169">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C169">
-        <v>5401</v>
+        <v>5302</v>
       </c>
       <c r="D169" t="s">
-        <v>554</v>
+        <v>418</v>
       </c>
       <c r="E169">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="F169" t="s">
-        <v>551</v>
+        <v>306</v>
       </c>
       <c r="G169" t="s">
-        <v>464</v>
-      </c>
-      <c r="H169" t="s">
-        <v>640</v>
+        <v>308</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B170" t="str" cm="1">
         <f t="array" ref="B170">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C170">
-        <v>5402</v>
+        <v>5101</v>
       </c>
       <c r="D170" t="s">
-        <v>555</v>
+        <v>163</v>
       </c>
       <c r="E170">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="F170" t="s">
-        <v>523</v>
+        <v>124</v>
       </c>
       <c r="G170" t="s">
-        <v>525</v>
+        <v>126</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B171" t="str" cm="1">
         <f t="array" ref="B171">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C171">
-        <v>5401</v>
+        <v>5304</v>
       </c>
       <c r="D171" t="s">
-        <v>554</v>
+        <v>415</v>
       </c>
       <c r="E171">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="F171" t="s">
-        <v>548</v>
+        <v>396</v>
       </c>
       <c r="G171" t="s">
-        <v>550</v>
+        <v>398</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B172" t="str" cm="1">
         <f t="array" ref="B172">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C172">
-        <v>5203</v>
+        <v>5105</v>
       </c>
       <c r="D172" t="s">
-        <v>227</v>
+        <v>162</v>
       </c>
       <c r="E172">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="F172" t="s">
-        <v>231</v>
+        <v>148</v>
       </c>
       <c r="G172" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
-      </c>
-      <c r="B173" t="str" cm="1">
+        <v>5500</v>
+      </c>
+      <c r="B173" s="1" t="str" cm="1">
         <f t="array" ref="B173">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Océanie</v>
       </c>
       <c r="C173">
-        <v>5105</v>
+        <v>5504</v>
       </c>
       <c r="D173" t="s">
-        <v>162</v>
+        <v>589</v>
       </c>
       <c r="E173">
-        <v>233</v>
-      </c>
-      <c r="F173" t="s">
-        <v>23</v>
-      </c>
-      <c r="G173" t="s">
-        <v>25</v>
+        <v>219</v>
+      </c>
+      <c r="F173" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="G173" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="H173" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -36785,19 +36814,19 @@
         <v>Amériques</v>
       </c>
       <c r="C174">
-        <v>5207</v>
+        <v>5206</v>
       </c>
       <c r="D174" t="s">
-        <v>190</v>
+        <v>426</v>
       </c>
       <c r="E174">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F174" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="G174" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -36810,44 +36839,44 @@
         <v>Asie</v>
       </c>
       <c r="C175">
-        <v>5301</v>
+        <v>5305</v>
       </c>
       <c r="D175" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E175">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="F175" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G175" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B176" t="str" cm="1">
         <f t="array" ref="B176">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C176">
-        <v>5207</v>
+        <v>5103</v>
       </c>
       <c r="D176" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="E176">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="F176" t="s">
-        <v>224</v>
+        <v>151</v>
       </c>
       <c r="G176" t="s">
-        <v>226</v>
+        <v>153</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -36860,69 +36889,69 @@
         <v>Asie</v>
       </c>
       <c r="C177">
-        <v>5304</v>
+        <v>5305</v>
       </c>
       <c r="D177" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E177">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="F177" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G177" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B178" t="str" cm="1">
         <f t="array" ref="B178">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C178">
-        <v>5101</v>
+        <v>5305</v>
       </c>
       <c r="D178" t="s">
-        <v>163</v>
+        <v>417</v>
       </c>
       <c r="E178">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="F178" t="s">
-        <v>53</v>
+        <v>312</v>
       </c>
       <c r="G178" t="s">
-        <v>55</v>
+        <v>314</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="B179" t="str" cm="1">
         <f t="array" ref="B179">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Afrique</v>
       </c>
       <c r="C179">
-        <v>5504</v>
+        <v>5101</v>
       </c>
       <c r="D179" t="s">
-        <v>589</v>
+        <v>163</v>
       </c>
       <c r="E179">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="F179" t="s">
-        <v>581</v>
+        <v>115</v>
       </c>
       <c r="G179" t="s">
-        <v>583</v>
+        <v>117</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -36935,560 +36964,534 @@
         <v>Europe</v>
       </c>
       <c r="C180">
-        <v>5403</v>
+        <v>5401</v>
       </c>
       <c r="D180" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E180">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="F180" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="G180" t="s">
-        <v>503</v>
+        <v>464</v>
       </c>
       <c r="H180" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B181" t="str" cm="1">
         <f t="array" ref="B181">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C181">
-        <v>5305</v>
+        <v>5402</v>
       </c>
       <c r="D181" t="s">
-        <v>417</v>
+        <v>555</v>
       </c>
       <c r="E181">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="F181" t="s">
-        <v>411</v>
+        <v>523</v>
       </c>
       <c r="G181" t="s">
-        <v>413</v>
+        <v>525</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B182" t="str" cm="1">
         <f t="array" ref="B182">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C182">
-        <v>5102</v>
+        <v>5401</v>
       </c>
       <c r="D182" t="s">
-        <v>161</v>
+        <v>554</v>
       </c>
       <c r="E182">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="F182" t="s">
-        <v>121</v>
+        <v>548</v>
       </c>
       <c r="G182" t="s">
-        <v>123</v>
+        <v>550</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B183" t="str" cm="1">
         <f t="array" ref="B183">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C183">
-        <v>5101</v>
+        <v>5203</v>
       </c>
       <c r="D183" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="E183">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="F183" t="s">
-        <v>154</v>
+        <v>231</v>
       </c>
       <c r="G183" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B184" t="str" cm="1">
         <f t="array" ref="B184">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C184">
-        <v>5404</v>
+        <v>5105</v>
       </c>
       <c r="D184" t="s">
-        <v>553</v>
+        <v>162</v>
       </c>
       <c r="E184">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="F184" t="s">
-        <v>440</v>
+        <v>23</v>
       </c>
       <c r="G184" t="s">
-        <v>442</v>
+        <v>25</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B185" t="str" cm="1">
         <f t="array" ref="B185">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C185">
-        <v>5404</v>
+        <v>5207</v>
       </c>
       <c r="D185" t="s">
-        <v>553</v>
+        <v>190</v>
       </c>
       <c r="E185">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="F185" t="s">
-        <v>492</v>
+        <v>221</v>
       </c>
       <c r="G185" t="s">
-        <v>494</v>
+        <v>223</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B186" t="str" cm="1">
         <f t="array" ref="B186">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C186">
-        <v>5403</v>
+        <v>5301</v>
       </c>
       <c r="D186" t="s">
-        <v>552</v>
+        <v>414</v>
       </c>
       <c r="E186">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="F186" t="s">
-        <v>526</v>
+        <v>369</v>
       </c>
       <c r="G186" t="s">
-        <v>528</v>
-      </c>
-      <c r="H186" t="s">
-        <v>642</v>
+        <v>371</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B187" t="str" cm="1">
         <f t="array" ref="B187">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C187">
-        <v>5403</v>
+        <v>5207</v>
       </c>
       <c r="D187" t="s">
-        <v>552</v>
+        <v>190</v>
       </c>
       <c r="E187">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="F187" t="s">
-        <v>501</v>
+        <v>224</v>
       </c>
       <c r="G187" t="s">
-        <v>503</v>
-      </c>
-      <c r="H187" t="s">
-        <v>642</v>
+        <v>226</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B188" t="str" cm="1">
         <f t="array" ref="B188">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C188">
-        <v>5103</v>
+        <v>5304</v>
       </c>
       <c r="D188" t="s">
-        <v>164</v>
+        <v>415</v>
       </c>
       <c r="E188">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="F188" t="s">
-        <v>645</v>
+        <v>408</v>
       </c>
       <c r="G188" t="s">
-        <v>144</v>
-      </c>
-      <c r="H188" t="s">
-        <v>645</v>
+        <v>410</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B189" t="str" cm="1">
         <f t="array" ref="B189">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C189">
-        <v>5302</v>
+        <v>5101</v>
       </c>
       <c r="D189" t="s">
-        <v>418</v>
+        <v>163</v>
       </c>
       <c r="E189">
-        <v>351</v>
+        <v>238</v>
       </c>
       <c r="F189" t="s">
-        <v>296</v>
+        <v>53</v>
       </c>
       <c r="G189" t="s">
-        <v>297</v>
+        <v>55</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="B190" t="str" cm="1">
         <f t="array" ref="B190">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Océanie</v>
       </c>
       <c r="C190">
-        <v>5305</v>
+        <v>5504</v>
       </c>
       <c r="D190" t="s">
-        <v>417</v>
+        <v>589</v>
       </c>
       <c r="E190">
-        <v>13</v>
-      </c>
-      <c r="F190" s="16" t="s">
-        <v>647</v>
-      </c>
-      <c r="G190" s="16" t="s">
-        <v>646</v>
-      </c>
-      <c r="H190" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A191" s="1">
+        <v>244</v>
+      </c>
+      <c r="F190" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="G190" s="19" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>234</v>
+        <v>5400</v>
+      </c>
+      <c r="B191" t="str" cm="1">
+        <f t="array" ref="B191">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
       </c>
       <c r="C191">
-        <v>5207</v>
+        <v>5403</v>
       </c>
       <c r="D191" t="s">
-        <v>227</v>
+        <v>552</v>
       </c>
       <c r="E191">
-        <v>17</v>
-      </c>
-      <c r="F191" s="17" t="s">
-        <v>649</v>
-      </c>
-      <c r="G191" s="17" t="s">
-        <v>650</v>
+        <v>248</v>
+      </c>
+      <c r="F191" t="s">
+        <v>519</v>
+      </c>
+      <c r="G191" t="s">
+        <v>503</v>
       </c>
       <c r="H191" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="1">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5300</v>
       </c>
-      <c r="B192" s="1" t="str" cm="1">
+      <c r="B192" t="str" cm="1">
         <f t="array" ref="B192">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
         <v>Asie</v>
       </c>
       <c r="C192">
-        <v>5303</v>
+        <v>5305</v>
       </c>
       <c r="D192" t="s">
-        <v>416</v>
-      </c>
-      <c r="E192" s="18">
-        <v>18</v>
-      </c>
-      <c r="F192" s="16" t="s">
-        <v>651</v>
-      </c>
-      <c r="G192" s="17" t="s">
-        <v>652</v>
-      </c>
-      <c r="H192" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A193" s="1">
-        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
-      </c>
-      <c r="B193" s="1" t="str" cm="1">
-        <f t="array" ref="B193">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
-      </c>
-      <c r="C193">
-        <v>5304</v>
-      </c>
-      <c r="D193" t="s">
-        <v>415</v>
-      </c>
-      <c r="E193">
-        <v>26</v>
-      </c>
-      <c r="F193" t="s">
-        <v>653</v>
-      </c>
-      <c r="G193" s="17" t="s">
-        <v>654</v>
-      </c>
-      <c r="H193" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A194" s="1">
+        <v>417</v>
+      </c>
+      <c r="E192">
+        <v>249</v>
+      </c>
+      <c r="F192" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="G192" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5100</v>
       </c>
-      <c r="B194" s="1" t="str" cm="1">
+      <c r="B193" t="str" cm="1">
+        <f t="array" ref="B193">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C193">
+        <v>5102</v>
+      </c>
+      <c r="D193" t="s">
+        <v>161</v>
+      </c>
+      <c r="E193">
+        <v>250</v>
+      </c>
+      <c r="F193" t="s">
+        <v>121</v>
+      </c>
+      <c r="G193" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B194" t="str" cm="1">
         <f t="array" ref="B194">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
         <v>Afrique</v>
       </c>
       <c r="C194">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="D194" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E194">
-        <v>61</v>
-      </c>
-      <c r="F194" s="17" t="s">
-        <v>655</v>
-      </c>
-      <c r="G194" s="17" t="s">
-        <v>656</v>
-      </c>
-      <c r="H194" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A195" s="1">
+        <v>251</v>
+      </c>
+      <c r="F194" t="s">
+        <v>154</v>
+      </c>
+      <c r="G194" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
-      </c>
-      <c r="B195" s="1" t="str" cm="1">
+        <v>5400</v>
+      </c>
+      <c r="B195" t="str" cm="1">
         <f t="array" ref="B195">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C195">
-        <v>5304</v>
+        <v>5404</v>
       </c>
       <c r="D195" t="s">
-        <v>415</v>
+        <v>553</v>
       </c>
       <c r="E195">
-        <v>145</v>
-      </c>
-      <c r="F195" s="17" t="s">
-        <v>657</v>
-      </c>
-      <c r="G195" s="17" t="s">
-        <v>658</v>
-      </c>
-      <c r="H195" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="1">
+        <v>255</v>
+      </c>
+      <c r="F195" t="s">
+        <v>440</v>
+      </c>
+      <c r="G195" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
-      </c>
-      <c r="B196" s="1" t="str" cm="1">
+        <v>5400</v>
+      </c>
+      <c r="B196" t="str" cm="1">
         <f t="array" ref="B196">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C196">
-        <v>5206</v>
+        <v>5404</v>
       </c>
       <c r="D196" t="s">
-        <v>426</v>
+        <v>553</v>
       </c>
       <c r="E196">
-        <v>177</v>
-      </c>
-      <c r="F196" s="17" t="s">
-        <v>659</v>
-      </c>
-      <c r="G196" s="16" t="s">
-        <v>660</v>
-      </c>
-      <c r="H196" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="1">
+        <v>256</v>
+      </c>
+      <c r="F196" t="s">
+        <v>492</v>
+      </c>
+      <c r="G196" s="19" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B197" t="str" cm="1">
+        <f t="array" ref="B197">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C197">
+        <v>5403</v>
+      </c>
+      <c r="D197" t="s">
+        <v>552</v>
+      </c>
+      <c r="E197">
+        <v>272</v>
+      </c>
+      <c r="F197" t="s">
+        <v>526</v>
+      </c>
+      <c r="G197" t="s">
+        <v>528</v>
+      </c>
+      <c r="H197" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="B198" t="str" cm="1">
+        <f t="array" ref="B198">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Europe</v>
+      </c>
+      <c r="C198">
+        <v>5403</v>
+      </c>
+      <c r="D198" t="s">
+        <v>552</v>
+      </c>
+      <c r="E198">
+        <v>273</v>
+      </c>
+      <c r="F198" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="G198" t="s">
+        <v>503</v>
+      </c>
+      <c r="H198" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5100</v>
       </c>
-      <c r="B197" s="1" t="str" cm="1">
-        <f t="array" ref="B197">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
-      </c>
-      <c r="C197">
-        <v>5101</v>
-      </c>
-      <c r="D197" t="s">
-        <v>163</v>
-      </c>
-      <c r="E197">
-        <v>178</v>
-      </c>
-      <c r="F197" s="17" t="s">
-        <v>661</v>
-      </c>
-      <c r="G197" s="17" t="s">
-        <v>662</v>
-      </c>
-      <c r="H197" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="1">
-        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
-      </c>
-      <c r="B198" s="1" t="str" cm="1">
-        <f t="array" ref="B198">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
-      </c>
-      <c r="C198">
-        <v>5304</v>
-      </c>
-      <c r="D198" t="s">
-        <v>415</v>
-      </c>
-      <c r="E198">
-        <v>200</v>
-      </c>
-      <c r="F198" s="19" t="s">
-        <v>663</v>
-      </c>
-      <c r="G198" s="17" t="s">
-        <v>664</v>
-      </c>
-      <c r="H198" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A199" s="1">
-        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
-      </c>
-      <c r="B199" s="1" t="str" cm="1">
+      <c r="B199" t="str" cm="1">
         <f t="array" ref="B199">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
         <v>Afrique</v>
       </c>
       <c r="C199">
-        <v>5101</v>
+        <v>5103</v>
       </c>
       <c r="D199" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E199">
-        <v>201</v>
-      </c>
-      <c r="F199" s="17" t="s">
-        <v>665</v>
-      </c>
-      <c r="G199" s="17" t="s">
-        <v>666</v>
+        <v>276</v>
+      </c>
+      <c r="F199" t="s">
+        <v>645</v>
+      </c>
+      <c r="G199" t="s">
+        <v>144</v>
       </c>
       <c r="H199" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B200" s="1" t="str" cm="1">
         <f t="array" ref="B200">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C200">
-        <v>5302</v>
+        <v>5101</v>
       </c>
       <c r="D200" t="s">
-        <v>418</v>
+        <v>163</v>
       </c>
       <c r="E200">
-        <v>214</v>
-      </c>
-      <c r="F200" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="G200" s="17" t="s">
-        <v>308</v>
+        <v>277</v>
+      </c>
+      <c r="F200" s="16" t="s">
+        <v>669</v>
+      </c>
+      <c r="G200" s="16" t="s">
+        <v>670</v>
       </c>
       <c r="H200" t="s">
         <v>648</v>
@@ -37497,86 +37500,61 @@
     <row r="201" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="B201" s="1" t="str" cm="1">
         <f t="array" ref="B201">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Asie</v>
       </c>
       <c r="C201">
-        <v>5504</v>
+        <v>5305</v>
       </c>
       <c r="D201" t="s">
-        <v>589</v>
+        <v>417</v>
       </c>
       <c r="E201">
-        <v>219</v>
-      </c>
-      <c r="F201" s="16" t="s">
-        <v>667</v>
-      </c>
-      <c r="G201" s="17" t="s">
-        <v>668</v>
+        <v>299</v>
+      </c>
+      <c r="F201" s="20" t="s">
+        <v>671</v>
+      </c>
+      <c r="G201" s="16" t="s">
+        <v>672</v>
       </c>
       <c r="H201" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A202" s="1">
-        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
-      </c>
-      <c r="B202" s="1" t="str" cm="1">
-        <f t="array" ref="B202">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
-      </c>
-      <c r="C202">
-        <v>5101</v>
-      </c>
-      <c r="D202" t="s">
-        <v>163</v>
-      </c>
-      <c r="E202">
-        <v>277</v>
-      </c>
-      <c r="F202" s="17" t="s">
-        <v>669</v>
-      </c>
-      <c r="G202" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H202" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A203" s="1">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5300</v>
       </c>
-      <c r="B203" s="1" t="str" cm="1">
-        <f t="array" ref="B203">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+      <c r="B202" t="str" cm="1">
+        <f t="array" ref="B202">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
         <v>Asie</v>
       </c>
-      <c r="C203">
-        <v>5305</v>
-      </c>
-      <c r="D203" t="s">
-        <v>417</v>
-      </c>
-      <c r="E203">
-        <v>299</v>
-      </c>
-      <c r="F203" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="G203" s="17" t="s">
-        <v>672</v>
-      </c>
-      <c r="H203" t="s">
-        <v>673</v>
-      </c>
+      <c r="C202">
+        <v>5302</v>
+      </c>
+      <c r="D202" t="s">
+        <v>418</v>
+      </c>
+      <c r="E202">
+        <v>351</v>
+      </c>
+      <c r="F202" t="s">
+        <v>296</v>
+      </c>
+      <c r="G202" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="F203" s="16"/>
+      <c r="G203" s="16"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>

--- a/FAOdata/PAYS _FAO.xlsx
+++ b/FAOdata/PAYS _FAO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d620ac185dc3dbd/Documents/GitHub/OC-P04VA/FAOdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\OneDrive\Documents\GitHub\OC-P04VA\FAOdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="247" documentId="8_{167CB271-4155-49F1-9784-E217C6EB9421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2540365-9B48-4E1D-8FE4-ADCAE4AC60A3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1993266-BB8F-4F2E-BA23-C608B4C4F576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="600" windowWidth="28155" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FAOgroupePays" sheetId="7" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6344" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6352" uniqueCount="676">
   <si>
     <t>Code Groupe de pays</t>
   </si>
@@ -2101,6 +2101,12 @@
   </si>
   <si>
     <t>Update2</t>
+  </si>
+  <si>
+    <t>Chine (exc. Hong-Kong et Macao)</t>
+  </si>
+  <si>
+    <t>Uptade1 Aide Alim</t>
   </si>
 </sst>
 </file>
@@ -32404,7 +32410,7 @@
   <dimension ref="A1:H204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D210" sqref="D210"/>
+      <selection activeCell="F208" sqref="F208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37551,14 +37557,60 @@
       </c>
     </row>
     <row r="203" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
-      <c r="F203" s="16"/>
-      <c r="G203" s="16"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
+      <c r="A203">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B203" t="str" cm="1">
+        <f t="array" ref="B203">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C203">
+        <v>5302</v>
+      </c>
+      <c r="D203" t="s">
+        <v>418</v>
+      </c>
+      <c r="E203">
+        <v>357</v>
+      </c>
+      <c r="F203" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="G203" t="s">
+        <v>297</v>
+      </c>
+      <c r="H203" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B204" s="1" t="str" cm="1">
+        <f t="array" ref="B204">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C204">
+        <v>5305</v>
+      </c>
+      <c r="D204" t="s">
+        <v>417</v>
+      </c>
+      <c r="E204">
+        <v>76</v>
+      </c>
+      <c r="F204" t="s">
+        <v>671</v>
+      </c>
+      <c r="G204" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="H204" t="s">
+        <v>675</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/FAOdata/PAYS _FAO.xlsx
+++ b/FAOdata/PAYS _FAO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\OneDrive\Documents\GitHub\OC-P04VA\FAOdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d620ac185dc3dbd/Documents/GitHub/OC-P04VA/FAOdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1993266-BB8F-4F2E-BA23-C608B4C4F576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{A1993266-BB8F-4F2E-BA23-C608B4C4F576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51AFF47E-CB7E-41B0-8A65-DA09004539CD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="465" yWindow="0" windowWidth="28155" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FAOgroupePays" sheetId="7" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6352" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6381" uniqueCount="682">
   <si>
     <t>Code Groupe de pays</t>
   </si>
@@ -2107,6 +2107,24 @@
   </si>
   <si>
     <t>Uptade1 Aide Alim</t>
+  </si>
+  <si>
+    <t>QAT</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyen Orient </t>
+  </si>
+  <si>
+    <t>Moyen Orient  (uptade1)</t>
+  </si>
+  <si>
+    <t>Ex URSS</t>
+  </si>
+  <si>
+    <t>Ex URSS (Biélorussie)</t>
   </si>
 </sst>
 </file>
@@ -2275,7 +2293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2298,8 +2316,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3538,10 +3560,10 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{120D56E9-AC4C-41C5-870B-8A13C24A7D46}" name="Tableau62" displayName="Tableau62" ref="A1:H204" totalsRowShown="0">
-  <autoFilter ref="A1:H204" xr:uid="{A195BCB9-0DE4-408C-B2BB-BD35C5C1E9CC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H204">
-    <sortCondition ref="E1:E204"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{120D56E9-AC4C-41C5-870B-8A13C24A7D46}" name="Tableau62" displayName="Tableau62" ref="A1:H205" totalsRowShown="0">
+  <autoFilter ref="A1:H205" xr:uid="{A195BCB9-0DE4-408C-B2BB-BD35C5C1E9CC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H205">
+    <sortCondition ref="F1:F205"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{9B6411D5-A3DD-4C60-9032-B615691189DD}" name="CodeContinent" dataDxfId="14">
@@ -32407,10 +32429,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71FBCA2-551D-49A7-B242-D0EBDBF161A6}">
-  <dimension ref="A1:H204"/>
+  <dimension ref="A1:H205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F208" sqref="F208"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32461,44 +32483,44 @@
         <v>Asie</v>
       </c>
       <c r="C2">
-        <v>5305</v>
+        <v>5303</v>
       </c>
       <c r="D2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B3" t="str" cm="1">
         <f t="array" ref="B3">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C3">
-        <v>5303</v>
+        <v>5104</v>
       </c>
       <c r="D3" t="s">
-        <v>416</v>
+        <v>160</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="F3" t="s">
-        <v>278</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>280</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -32554,51 +32576,51 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B6" t="str" cm="1">
         <f t="array" ref="B6">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C6">
-        <v>5102</v>
+        <v>5404</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>553</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>431</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B7" t="str" cm="1">
         <f t="array" ref="B7">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C7">
-        <v>5206</v>
+        <v>5102</v>
       </c>
       <c r="D7" t="s">
-        <v>426</v>
+        <v>161</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>235</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -32611,69 +32633,72 @@
         <v>Amériques</v>
       </c>
       <c r="C8">
-        <v>5207</v>
+        <v>5206</v>
       </c>
       <c r="D8" t="s">
-        <v>190</v>
+        <v>426</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="G8" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="B9" t="str" cm="1">
         <f t="array" ref="B9">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Amériques</v>
       </c>
       <c r="C9">
-        <v>5501</v>
+        <v>5206</v>
       </c>
       <c r="D9" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="F9" t="s">
-        <v>420</v>
+        <v>238</v>
       </c>
       <c r="G9" t="s">
-        <v>422</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B10" t="str" cm="1">
         <f t="array" ref="B10">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C10">
-        <v>5404</v>
+        <v>5305</v>
       </c>
       <c r="D10" t="s">
-        <v>553</v>
+        <v>417</v>
       </c>
       <c r="E10">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="F10" t="s">
-        <v>434</v>
+        <v>281</v>
       </c>
       <c r="G10" t="s">
-        <v>436</v>
+        <v>283</v>
+      </c>
+      <c r="H10" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -32686,19 +32711,19 @@
         <v>Amériques</v>
       </c>
       <c r="C11">
-        <v>5206</v>
+        <v>5207</v>
       </c>
       <c r="D11" t="s">
-        <v>426</v>
+        <v>190</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="G11" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -32717,41 +32742,41 @@
         <v>417</v>
       </c>
       <c r="E12">
-        <v>13</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>647</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>646</v>
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>284</v>
+      </c>
+      <c r="G12" t="s">
+        <v>286</v>
       </c>
       <c r="H12" t="s">
-        <v>648</v>
+        <v>680</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="B13" t="str" cm="1">
         <f t="array" ref="B13">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Océanie</v>
       </c>
       <c r="C13">
-        <v>5206</v>
+        <v>5501</v>
       </c>
       <c r="D13" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="E13">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="G13" t="s">
-        <v>246</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -32770,16 +32795,13 @@
         <v>553</v>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="G14" t="s">
-        <v>442</v>
-      </c>
-      <c r="H14" t="s">
-        <v>639</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -32792,352 +32814,364 @@
         <v>Asie</v>
       </c>
       <c r="C15">
-        <v>5303</v>
+        <v>5305</v>
       </c>
       <c r="D15" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+        <v>289</v>
+      </c>
+      <c r="H15" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5200</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>234</v>
+      <c r="B16" t="str" cm="1">
+        <f t="array" ref="B16">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
       </c>
       <c r="C16">
-        <v>5207</v>
+        <v>5206</v>
       </c>
       <c r="D16" t="s">
-        <v>227</v>
+        <v>426</v>
       </c>
       <c r="E16">
-        <v>17</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>649</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>650</v>
-      </c>
-      <c r="H16" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>241</v>
+      </c>
+      <c r="G16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5300</v>
       </c>
-      <c r="B17" s="1" t="str" cm="1">
+      <c r="B17" t="str" cm="1">
         <f t="array" ref="B17">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
         <v>Asie</v>
       </c>
       <c r="C17">
-        <v>5303</v>
+        <v>5305</v>
       </c>
       <c r="D17" t="s">
-        <v>416</v>
-      </c>
-      <c r="E17" s="17">
-        <v>18</v>
+        <v>417</v>
+      </c>
+      <c r="E17">
+        <v>13</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>651</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>652</v>
+        <v>647</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>646</v>
       </c>
       <c r="H17" t="s">
-        <v>648</v>
+        <v>679</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B18" t="str" cm="1">
         <f t="array" ref="B18">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C18">
-        <v>5207</v>
+        <v>5303</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>416</v>
       </c>
       <c r="E18">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>194</v>
+        <v>290</v>
       </c>
       <c r="G18" t="s">
-        <v>196</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B19" t="str" cm="1">
         <f t="array" ref="B19">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C19">
-        <v>5104</v>
+        <v>5206</v>
       </c>
       <c r="D19" t="s">
-        <v>160</v>
+        <v>426</v>
       </c>
       <c r="E19">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B20" t="str" cm="1">
         <f t="array" ref="B20">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C20">
-        <v>5207</v>
+        <v>5401</v>
       </c>
       <c r="D20" t="s">
-        <v>190</v>
+        <v>554</v>
       </c>
       <c r="E20">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F20" t="s">
-        <v>197</v>
+        <v>437</v>
       </c>
       <c r="G20" t="s">
-        <v>199</v>
+        <v>439</v>
+      </c>
+      <c r="H20" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B21" t="str" cm="1">
         <f t="array" ref="B21">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C21">
-        <v>5204</v>
+        <v>5404</v>
       </c>
       <c r="D21" t="s">
-        <v>165</v>
+        <v>553</v>
       </c>
       <c r="E21">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
+        <v>440</v>
       </c>
       <c r="G21" t="s">
-        <v>168</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="B22" t="str" cm="1">
         <f t="array" ref="B22">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Europe</v>
       </c>
       <c r="C22">
-        <v>5502</v>
+        <v>5404</v>
       </c>
       <c r="D22" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="E22">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>557</v>
+        <v>443</v>
       </c>
       <c r="G22" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+        <v>442</v>
+      </c>
+      <c r="H22" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
-      </c>
-      <c r="B23" s="1" t="str" cm="1">
+        <v>5200</v>
+      </c>
+      <c r="B23" t="str" cm="1">
         <f t="array" ref="B23">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Amériques</v>
       </c>
       <c r="C23">
-        <v>5304</v>
+        <v>5204</v>
       </c>
       <c r="D23" t="s">
-        <v>415</v>
+        <v>165</v>
       </c>
       <c r="E23">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>653</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>654</v>
-      </c>
-      <c r="H23" t="s">
-        <v>648</v>
+        <v>166</v>
+      </c>
+      <c r="G23" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B24" t="str" cm="1">
         <f t="array" ref="B24">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C24">
-        <v>5401</v>
+        <v>5105</v>
       </c>
       <c r="D24" t="s">
-        <v>554</v>
+        <v>162</v>
       </c>
       <c r="E24">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>447</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25">
+        <v>5207</v>
+      </c>
+      <c r="D25" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25">
+        <v>17</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="H25" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5300</v>
       </c>
-      <c r="B25" t="str" cm="1">
-        <f t="array" ref="B25">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+      <c r="B26" s="1" t="str" cm="1">
+        <f t="array" ref="B26">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
         <v>Asie</v>
       </c>
-      <c r="C25">
-        <v>5304</v>
-      </c>
-      <c r="D25" t="s">
-        <v>415</v>
-      </c>
-      <c r="E25">
-        <v>28</v>
-      </c>
-      <c r="F25" t="s">
-        <v>360</v>
-      </c>
-      <c r="G25" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
-      </c>
-      <c r="B26" t="str" cm="1">
-        <f t="array" ref="B26">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
-      </c>
       <c r="C26">
-        <v>5101</v>
+        <v>5303</v>
       </c>
       <c r="D26" t="s">
-        <v>163</v>
-      </c>
-      <c r="E26">
-        <v>29</v>
-      </c>
-      <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s">
-        <v>28</v>
+        <v>416</v>
+      </c>
+      <c r="E26" s="17">
+        <v>18</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>651</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="H26" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B27" t="str" cm="1">
         <f t="array" ref="B27">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C27">
-        <v>5102</v>
+        <v>5207</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="E27">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>194</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B28" t="str" cm="1">
         <f t="array" ref="B28">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C28">
-        <v>5203</v>
+        <v>5403</v>
       </c>
       <c r="D28" t="s">
-        <v>227</v>
+        <v>552</v>
       </c>
       <c r="E28">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="F28" t="s">
-        <v>228</v>
+        <v>444</v>
       </c>
       <c r="G28" t="s">
-        <v>230</v>
+        <v>446</v>
+      </c>
+      <c r="H28" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -33150,197 +33184,197 @@
         <v>Afrique</v>
       </c>
       <c r="C29">
-        <v>5105</v>
+        <v>5104</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E29">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B30" t="str" cm="1">
         <f t="array" ref="B30">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C30">
-        <v>5102</v>
+        <v>5207</v>
       </c>
       <c r="D30" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="E30">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="G30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5300</v>
       </c>
-      <c r="B31" t="str" cm="1">
+      <c r="B31" s="1" t="str" cm="1">
         <f t="array" ref="B31">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
         <v>Asie</v>
       </c>
       <c r="C31">
-        <v>5303</v>
+        <v>5304</v>
       </c>
       <c r="D31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E31">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F31" t="s">
-        <v>390</v>
-      </c>
-      <c r="G31" t="s">
-        <v>392</v>
+        <v>653</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="H31" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B32" t="str" cm="1">
         <f t="array" ref="B32">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C32">
-        <v>5102</v>
+        <v>5401</v>
       </c>
       <c r="D32" t="s">
-        <v>161</v>
+        <v>554</v>
       </c>
       <c r="E32">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F32" t="s">
-        <v>145</v>
+        <v>447</v>
       </c>
       <c r="G32" t="s">
-        <v>147</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B33" t="str" cm="1">
         <f t="array" ref="B33">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C33">
-        <v>5207</v>
+        <v>5105</v>
       </c>
       <c r="D33" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="F33" t="s">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="G33" t="s">
-        <v>202</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B34" t="str" cm="1">
         <f t="array" ref="B34">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C34">
-        <v>5302</v>
+        <v>5101</v>
       </c>
       <c r="D34" t="s">
-        <v>418</v>
+        <v>163</v>
       </c>
       <c r="E34">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>304</v>
+        <v>26</v>
       </c>
       <c r="G34" t="s">
-        <v>297</v>
-      </c>
-      <c r="H34" t="s">
-        <v>296</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B35" t="str" cm="1">
         <f t="array" ref="B35">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C35">
-        <v>5207</v>
+        <v>5105</v>
       </c>
       <c r="D35" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="E35">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B36" t="str" cm="1">
         <f t="array" ref="B36">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C36">
-        <v>5101</v>
+        <v>5304</v>
       </c>
       <c r="D36" t="s">
-        <v>163</v>
+        <v>415</v>
       </c>
       <c r="E36">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>293</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -33359,13 +33393,13 @@
         <v>161</v>
       </c>
       <c r="E37">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -33378,19 +33412,19 @@
         <v>Amériques</v>
       </c>
       <c r="C38">
-        <v>5204</v>
+        <v>5203</v>
       </c>
       <c r="D38" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="E38">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="G38" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -33403,19 +33437,19 @@
         <v>Amériques</v>
       </c>
       <c r="C39">
-        <v>5206</v>
+        <v>5207</v>
       </c>
       <c r="D39" t="s">
-        <v>426</v>
+        <v>190</v>
       </c>
       <c r="E39">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F39" t="s">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="G39" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -33428,47 +33462,44 @@
         <v>Asie</v>
       </c>
       <c r="C40">
-        <v>5305</v>
+        <v>5302</v>
       </c>
       <c r="D40" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E40">
-        <v>50</v>
+        <v>351</v>
       </c>
       <c r="F40" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="G40" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B41" t="str" cm="1">
         <f t="array" ref="B41">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C41">
-        <v>5401</v>
+        <v>5302</v>
       </c>
       <c r="D41" t="s">
-        <v>554</v>
+        <v>418</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="F41" t="s">
-        <v>636</v>
+        <v>298</v>
       </c>
       <c r="G41" t="s">
-        <v>547</v>
-      </c>
-      <c r="H41" t="s">
-        <v>638</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -33481,169 +33512,178 @@
         <v>Asie</v>
       </c>
       <c r="C42">
-        <v>5305</v>
+        <v>5302</v>
       </c>
       <c r="D42" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E42">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="F42" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="G42" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B43" t="str" cm="1">
         <f t="array" ref="B43">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C43">
-        <v>5105</v>
+        <v>5302</v>
       </c>
       <c r="D43" t="s">
-        <v>162</v>
+        <v>418</v>
       </c>
       <c r="E43">
-        <v>53</v>
-      </c>
-      <c r="F43" t="s">
-        <v>17</v>
+        <v>357</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>674</v>
       </c>
       <c r="G43" t="s">
-        <v>19</v>
+        <v>297</v>
+      </c>
+      <c r="H43" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B44" t="str" cm="1">
         <f t="array" ref="B44">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C44">
-        <v>5402</v>
+        <v>5302</v>
       </c>
       <c r="D44" t="s">
-        <v>555</v>
+        <v>418</v>
       </c>
       <c r="E44">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>453</v>
+        <v>304</v>
       </c>
       <c r="G44" t="s">
-        <v>455</v>
+        <v>297</v>
+      </c>
+      <c r="H44" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B45" t="str" cm="1">
         <f t="array" ref="B45">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C45">
-        <v>5206</v>
+        <v>5302</v>
       </c>
       <c r="D45" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E45">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="F45" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="G45" t="s">
-        <v>252</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B46" t="str" cm="1">
         <f t="array" ref="B46">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C46">
-        <v>5206</v>
+        <v>5305</v>
       </c>
       <c r="D46" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E46">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="G46" t="s">
-        <v>264</v>
+        <v>311</v>
+      </c>
+      <c r="H46" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B47" t="str" cm="1">
         <f t="array" ref="B47">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C47">
-        <v>5401</v>
+        <v>5207</v>
       </c>
       <c r="D47" t="s">
-        <v>554</v>
+        <v>190</v>
       </c>
       <c r="E47">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>437</v>
+        <v>203</v>
       </c>
       <c r="G47" t="s">
-        <v>439</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B48" t="str" cm="1">
         <f t="array" ref="B48">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C48">
-        <v>5207</v>
+        <v>5101</v>
       </c>
       <c r="D48" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="E48">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>206</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>208</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -33656,19 +33696,19 @@
         <v>Afrique</v>
       </c>
       <c r="C49">
-        <v>5103</v>
+        <v>5102</v>
       </c>
       <c r="D49" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E49">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F49" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -33687,219 +33727,216 @@
         <v>165</v>
       </c>
       <c r="E50">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F50" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G50" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5100</v>
       </c>
-      <c r="B51" s="1" t="str" cm="1">
+      <c r="B51" t="str" cm="1">
         <f t="array" ref="B51">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
         <v>Afrique</v>
       </c>
       <c r="C51">
-        <v>5102</v>
+        <v>5105</v>
       </c>
       <c r="D51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E51">
-        <v>61</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>655</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>656</v>
-      </c>
-      <c r="H51" t="s">
-        <v>648</v>
+        <v>107</v>
+      </c>
+      <c r="F51" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B52" t="str" cm="1">
         <f t="array" ref="B52">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C52">
-        <v>5101</v>
+        <v>5403</v>
       </c>
       <c r="D52" t="s">
-        <v>163</v>
+        <v>552</v>
       </c>
       <c r="E52">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
+        <v>450</v>
       </c>
       <c r="G52" t="s">
-        <v>55</v>
+        <v>452</v>
       </c>
       <c r="H52" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B53" t="str" cm="1">
         <f t="array" ref="B53">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C53">
-        <v>5402</v>
+        <v>5206</v>
       </c>
       <c r="D53" t="s">
-        <v>555</v>
+        <v>426</v>
       </c>
       <c r="E53">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F53" t="s">
-        <v>459</v>
+        <v>247</v>
       </c>
       <c r="G53" t="s">
-        <v>461</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="B54" t="str" cm="1">
         <f t="array" ref="B54">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Europe</v>
       </c>
       <c r="C54">
-        <v>5502</v>
+        <v>5402</v>
       </c>
       <c r="D54" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="E54">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F54" t="s">
-        <v>567</v>
+        <v>453</v>
       </c>
       <c r="G54" t="s">
-        <v>569</v>
+        <v>455</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B55" t="str" cm="1">
         <f t="array" ref="B55">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C55">
-        <v>5402</v>
+        <v>5101</v>
       </c>
       <c r="D55" t="s">
-        <v>555</v>
+        <v>163</v>
       </c>
       <c r="E55">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F55" t="s">
-        <v>465</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s">
-        <v>467</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B56" t="str" cm="1">
         <f t="array" ref="B56">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C56">
-        <v>5404</v>
+        <v>5206</v>
       </c>
       <c r="D56" t="s">
-        <v>553</v>
+        <v>426</v>
       </c>
       <c r="E56">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>468</v>
+        <v>250</v>
       </c>
       <c r="G56" t="s">
-        <v>470</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="B57" t="str" cm="1">
         <f t="array" ref="B57">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Afrique</v>
       </c>
       <c r="C57">
-        <v>5504</v>
+        <v>5103</v>
       </c>
       <c r="D57" t="s">
-        <v>589</v>
+        <v>164</v>
       </c>
       <c r="E57">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F57" t="s">
-        <v>578</v>
+        <v>47</v>
       </c>
       <c r="G57" t="s">
-        <v>580</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B58" t="str" cm="1">
         <f t="array" ref="B58">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C58">
-        <v>5101</v>
+        <v>5204</v>
       </c>
       <c r="D58" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E58">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -33918,63 +33955,69 @@
         <v>417</v>
       </c>
       <c r="E59">
-        <v>73</v>
+        <v>225</v>
       </c>
       <c r="F59" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G59" t="s">
-        <v>317</v>
+        <v>314</v>
+      </c>
+      <c r="H59" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B60" t="str" cm="1">
         <f t="array" ref="B60">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C60">
-        <v>5102</v>
+        <v>5207</v>
       </c>
       <c r="D60" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="E60">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F60" t="s">
-        <v>58</v>
+        <v>206</v>
       </c>
       <c r="G60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5100</v>
       </c>
-      <c r="B61" t="str" cm="1">
+      <c r="B61" s="1" t="str" cm="1">
         <f t="array" ref="B61">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
         <v>Afrique</v>
       </c>
       <c r="C61">
-        <v>5105</v>
+        <v>5101</v>
       </c>
       <c r="D61" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E61">
-        <v>75</v>
-      </c>
-      <c r="F61" t="s">
-        <v>61</v>
-      </c>
-      <c r="G61" t="s">
-        <v>63</v>
+        <v>178</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>661</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>662</v>
+      </c>
+      <c r="H61" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -33987,19 +34030,19 @@
         <v>Europe</v>
       </c>
       <c r="C62">
-        <v>5404</v>
+        <v>5403</v>
       </c>
       <c r="D62" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E62">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="F62" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="G62" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -34012,22 +34055,22 @@
         <v>Europe</v>
       </c>
       <c r="C63">
-        <v>5403</v>
+        <v>5402</v>
       </c>
       <c r="D63" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E63">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F63" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="G63" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="H63" t="s">
-        <v>642</v>
+        <v>680</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -34040,297 +34083,303 @@
         <v>Afrique</v>
       </c>
       <c r="C64">
-        <v>5105</v>
+        <v>5104</v>
       </c>
       <c r="D64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E64">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="F64" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="B65" t="str" cm="1">
         <f t="array" ref="B65">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Amériques</v>
       </c>
       <c r="C65">
-        <v>5503</v>
+        <v>5203</v>
       </c>
       <c r="D65" t="s">
-        <v>576</v>
+        <v>227</v>
       </c>
       <c r="E65">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="F65" t="s">
-        <v>560</v>
+        <v>231</v>
       </c>
       <c r="G65" t="s">
-        <v>562</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B66" t="str" cm="1">
         <f t="array" ref="B66">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C66">
-        <v>5403</v>
+        <v>5101</v>
       </c>
       <c r="D66" t="s">
-        <v>552</v>
+        <v>163</v>
       </c>
       <c r="E66">
-        <v>84</v>
+        <v>238</v>
       </c>
       <c r="F66" t="s">
-        <v>471</v>
+        <v>53</v>
       </c>
       <c r="G66" t="s">
-        <v>473</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B67" t="str" cm="1">
         <f t="array" ref="B67">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C67">
-        <v>5206</v>
+        <v>5101</v>
       </c>
       <c r="D67" t="s">
-        <v>426</v>
+        <v>163</v>
       </c>
       <c r="E67">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F67" t="s">
-        <v>253</v>
+        <v>56</v>
       </c>
       <c r="G67" t="s">
-        <v>255</v>
+        <v>55</v>
+      </c>
+      <c r="H67" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B68" t="str" cm="1">
         <f t="array" ref="B68">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C68">
-        <v>5204</v>
+        <v>5401</v>
       </c>
       <c r="D68" t="s">
-        <v>165</v>
+        <v>554</v>
       </c>
       <c r="E68">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="F68" t="s">
-        <v>175</v>
+        <v>462</v>
       </c>
       <c r="G68" t="s">
-        <v>177</v>
+        <v>464</v>
+      </c>
+      <c r="H68" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5500</v>
       </c>
       <c r="B69" t="str" cm="1">
         <f t="array" ref="B69">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Océanie</v>
       </c>
       <c r="C69">
-        <v>5105</v>
+        <v>5502</v>
       </c>
       <c r="D69" t="s">
-        <v>162</v>
+        <v>566</v>
       </c>
       <c r="E69">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="F69" t="s">
-        <v>67</v>
+        <v>567</v>
       </c>
       <c r="G69" t="s">
-        <v>69</v>
+        <v>569</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B70" t="str" cm="1">
         <f t="array" ref="B70">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C70">
-        <v>5207</v>
+        <v>5402</v>
       </c>
       <c r="D70" t="s">
-        <v>190</v>
+        <v>555</v>
       </c>
       <c r="E70">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="F70" t="s">
-        <v>209</v>
+        <v>465</v>
       </c>
       <c r="G70" t="s">
-        <v>211</v>
+        <v>467</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B71" t="str" cm="1">
         <f t="array" ref="B71">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C71">
-        <v>5206</v>
+        <v>5404</v>
       </c>
       <c r="D71" t="s">
-        <v>426</v>
+        <v>553</v>
       </c>
       <c r="E71">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="F71" t="s">
-        <v>256</v>
+        <v>468</v>
       </c>
       <c r="G71" t="s">
-        <v>258</v>
+        <v>470</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B72" t="str" cm="1">
         <f t="array" ref="B72">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C72">
-        <v>5204</v>
+        <v>5102</v>
       </c>
       <c r="D72" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E72">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="F72" t="s">
-        <v>178</v>
+        <v>58</v>
       </c>
       <c r="G72" t="s">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B73" t="str" cm="1">
         <f t="array" ref="B73">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C73">
-        <v>5302</v>
+        <v>5105</v>
       </c>
       <c r="D73" t="s">
-        <v>418</v>
+        <v>162</v>
       </c>
       <c r="E73">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F73" t="s">
-        <v>298</v>
+        <v>61</v>
       </c>
       <c r="G73" t="s">
-        <v>300</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B74" t="str" cm="1">
         <f t="array" ref="B74">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C74">
-        <v>5401</v>
+        <v>5305</v>
       </c>
       <c r="D74" t="s">
-        <v>554</v>
+        <v>417</v>
       </c>
       <c r="E74">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>474</v>
+        <v>315</v>
       </c>
       <c r="G74" t="s">
-        <v>476</v>
+        <v>317</v>
+      </c>
+      <c r="H74" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B75" t="str" cm="1">
         <f t="array" ref="B75">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C75">
-        <v>5403</v>
+        <v>5105</v>
       </c>
       <c r="D75" t="s">
-        <v>552</v>
+        <v>162</v>
       </c>
       <c r="E75">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="F75" t="s">
-        <v>450</v>
+        <v>64</v>
       </c>
       <c r="G75" t="s">
-        <v>452</v>
-      </c>
-      <c r="H75" t="s">
-        <v>642</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -34343,272 +34392,275 @@
         <v>Europe</v>
       </c>
       <c r="C76">
-        <v>5402</v>
+        <v>5403</v>
       </c>
       <c r="D76" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E76">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F76" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="G76" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="B77" t="str" cm="1">
         <f t="array" ref="B77">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Amériques</v>
       </c>
       <c r="C77">
-        <v>5303</v>
+        <v>5206</v>
       </c>
       <c r="D77" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="E77">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F77" t="s">
-        <v>318</v>
+        <v>253</v>
       </c>
       <c r="G77" t="s">
-        <v>320</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="B78" t="str" cm="1">
         <f t="array" ref="B78">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Amériques</v>
       </c>
       <c r="C78">
-        <v>5304</v>
+        <v>5204</v>
       </c>
       <c r="D78" t="s">
-        <v>415</v>
+        <v>165</v>
       </c>
       <c r="E78">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F78" t="s">
-        <v>321</v>
+        <v>175</v>
       </c>
       <c r="G78" t="s">
-        <v>323</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B79" t="str" cm="1">
         <f t="array" ref="B79">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C79">
-        <v>5303</v>
+        <v>5105</v>
       </c>
       <c r="D79" t="s">
-        <v>416</v>
+        <v>162</v>
       </c>
       <c r="E79">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F79" t="s">
-        <v>324</v>
+        <v>67</v>
       </c>
       <c r="G79" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
-      </c>
-      <c r="B80" t="str" cm="1">
+        <v>5100</v>
+      </c>
+      <c r="B80" s="1" t="str" cm="1">
         <f t="array" ref="B80">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C80">
-        <v>5305</v>
+        <v>5102</v>
       </c>
       <c r="D80" t="s">
-        <v>417</v>
+        <v>161</v>
       </c>
       <c r="E80">
-        <v>103</v>
-      </c>
-      <c r="F80" t="s">
-        <v>327</v>
-      </c>
-      <c r="G80" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>655</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="H80" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B81" t="str" cm="1">
         <f t="array" ref="B81">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C81">
-        <v>5402</v>
+        <v>5105</v>
       </c>
       <c r="D81" t="s">
-        <v>555</v>
+        <v>162</v>
       </c>
       <c r="E81">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="F81" t="s">
-        <v>477</v>
+        <v>70</v>
       </c>
       <c r="G81" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="B82" t="str" cm="1">
         <f t="array" ref="B82">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Amériques</v>
       </c>
       <c r="C82">
-        <v>5305</v>
+        <v>5207</v>
       </c>
       <c r="D82" t="s">
-        <v>417</v>
+        <v>190</v>
       </c>
       <c r="E82">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F82" t="s">
-        <v>330</v>
+        <v>209</v>
       </c>
       <c r="G82" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B83" t="str" cm="1">
         <f t="array" ref="B83">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C83">
-        <v>5403</v>
+        <v>5206</v>
       </c>
       <c r="D83" t="s">
-        <v>552</v>
+        <v>426</v>
       </c>
       <c r="E83">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F83" t="s">
-        <v>483</v>
+        <v>256</v>
       </c>
       <c r="G83" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B84" t="str" cm="1">
         <f t="array" ref="B84">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C84">
-        <v>5105</v>
+        <v>5204</v>
       </c>
       <c r="D84" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E84">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="G84" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B85" t="str" cm="1">
         <f t="array" ref="B85">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C85">
-        <v>5301</v>
+        <v>5401</v>
       </c>
       <c r="D85" t="s">
-        <v>414</v>
+        <v>554</v>
       </c>
       <c r="E85">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F85" t="s">
-        <v>339</v>
+        <v>474</v>
       </c>
       <c r="G85" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="B86" t="str" cm="1">
         <f t="array" ref="B86">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Océanie</v>
       </c>
       <c r="C86">
-        <v>5206</v>
+        <v>5502</v>
       </c>
       <c r="D86" t="s">
-        <v>426</v>
+        <v>566</v>
       </c>
       <c r="E86">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="F86" t="s">
-        <v>259</v>
+        <v>557</v>
       </c>
       <c r="G86" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5300</v>
@@ -34618,22 +34670,22 @@
         <v>Asie</v>
       </c>
       <c r="C87">
-        <v>5302</v>
+        <v>5303</v>
       </c>
       <c r="D87" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E87">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F87" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="G87" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5300</v>
@@ -34643,22 +34695,22 @@
         <v>Asie</v>
       </c>
       <c r="C88">
-        <v>5305</v>
+        <v>5304</v>
       </c>
       <c r="D88" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E88">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F88" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="G88" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5300</v>
@@ -34668,97 +34720,97 @@
         <v>Asie</v>
       </c>
       <c r="C89">
-        <v>5301</v>
+        <v>5303</v>
       </c>
       <c r="D89" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E89">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F89" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="G89" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B90" t="str" cm="1">
         <f t="array" ref="B90">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C90">
-        <v>5101</v>
+        <v>5305</v>
       </c>
       <c r="D90" t="s">
-        <v>163</v>
+        <v>417</v>
       </c>
       <c r="E90">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F90" t="s">
-        <v>73</v>
+        <v>327</v>
       </c>
       <c r="G90" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B91" t="str" cm="1">
         <f t="array" ref="B91">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C91">
-        <v>5304</v>
+        <v>5402</v>
       </c>
       <c r="D91" t="s">
-        <v>415</v>
+        <v>555</v>
       </c>
       <c r="E91">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F91" t="s">
-        <v>293</v>
+        <v>477</v>
       </c>
       <c r="G91" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B92" t="str" cm="1">
         <f t="array" ref="B92">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C92">
-        <v>5302</v>
+        <v>5402</v>
       </c>
       <c r="D92" t="s">
-        <v>418</v>
+        <v>555</v>
       </c>
       <c r="E92">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F92" t="s">
-        <v>387</v>
+        <v>480</v>
       </c>
       <c r="G92" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5300</v>
@@ -34768,72 +34820,75 @@
         <v>Asie</v>
       </c>
       <c r="C93">
-        <v>5302</v>
+        <v>5305</v>
       </c>
       <c r="D93" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E93">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F93" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="G93" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="H93" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B94" t="str" cm="1">
         <f t="array" ref="B94">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C94">
-        <v>5305</v>
+        <v>5403</v>
       </c>
       <c r="D94" t="s">
-        <v>417</v>
+        <v>552</v>
       </c>
       <c r="E94">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F94" t="s">
-        <v>345</v>
+        <v>483</v>
       </c>
       <c r="G94" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B95" t="str" cm="1">
         <f t="array" ref="B95">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C95">
-        <v>5402</v>
+        <v>5206</v>
       </c>
       <c r="D95" t="s">
-        <v>555</v>
+        <v>426</v>
       </c>
       <c r="E95">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F95" t="s">
-        <v>486</v>
+        <v>259</v>
       </c>
       <c r="G95" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5300</v>
@@ -34843,22 +34898,22 @@
         <v>Asie</v>
       </c>
       <c r="C96">
-        <v>5304</v>
+        <v>5302</v>
       </c>
       <c r="D96" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E96">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F96" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="G96" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5300</v>
@@ -34874,41 +34929,47 @@
         <v>417</v>
       </c>
       <c r="E97">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F97" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="G97" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="H97" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B98" t="str" cm="1">
         <f t="array" ref="B98">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C98">
-        <v>5104</v>
+        <v>5301</v>
       </c>
       <c r="D98" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="E98">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F98" t="s">
-        <v>76</v>
+        <v>339</v>
       </c>
       <c r="G98" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="H98" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5100</v>
@@ -34918,72 +34979,75 @@
         <v>Afrique</v>
       </c>
       <c r="C99">
-        <v>5105</v>
+        <v>5101</v>
       </c>
       <c r="D99" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E99">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F99" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G99" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B100" t="str" cm="1">
         <f t="array" ref="B100">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C100">
-        <v>5103</v>
+        <v>5301</v>
       </c>
       <c r="D100" t="s">
-        <v>164</v>
+        <v>414</v>
       </c>
       <c r="E100">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F100" t="s">
-        <v>82</v>
+        <v>342</v>
       </c>
       <c r="G100" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="H100" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="B101" t="str" cm="1">
         <f t="array" ref="B101">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Océanie</v>
       </c>
       <c r="C101">
-        <v>5402</v>
+        <v>5503</v>
       </c>
       <c r="D101" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="E101">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="F101" t="s">
-        <v>489</v>
+        <v>560</v>
       </c>
       <c r="G101" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5300</v>
@@ -34993,22 +35057,25 @@
         <v>Asie</v>
       </c>
       <c r="C102">
-        <v>5302</v>
+        <v>5305</v>
       </c>
       <c r="D102" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E102">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F102" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="G102" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="H102" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5100</v>
@@ -35018,47 +35085,50 @@
         <v>Afrique</v>
       </c>
       <c r="C103">
-        <v>5101</v>
+        <v>5104</v>
       </c>
       <c r="D103" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E103">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F103" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G103" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B104" t="str" cm="1">
         <f t="array" ref="B104">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C104">
-        <v>5101</v>
+        <v>5402</v>
       </c>
       <c r="D104" t="s">
-        <v>163</v>
+        <v>555</v>
       </c>
       <c r="E104">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F104" t="s">
-        <v>88</v>
+        <v>486</v>
       </c>
       <c r="G104" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+      <c r="H104" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5300</v>
@@ -35068,47 +35138,50 @@
         <v>Asie</v>
       </c>
       <c r="C105">
-        <v>5304</v>
+        <v>5305</v>
       </c>
       <c r="D105" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E105">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F105" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G105" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="H105" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B106" t="str" cm="1">
         <f t="array" ref="B106">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C106">
-        <v>5303</v>
+        <v>5105</v>
       </c>
       <c r="D106" t="s">
-        <v>416</v>
+        <v>162</v>
       </c>
       <c r="E106">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F106" t="s">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="G106" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5100</v>
@@ -35118,22 +35191,22 @@
         <v>Afrique</v>
       </c>
       <c r="C107">
-        <v>5105</v>
+        <v>5103</v>
       </c>
       <c r="D107" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E107">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F107" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G107" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5400</v>
@@ -35143,97 +35216,103 @@
         <v>Europe</v>
       </c>
       <c r="C108">
-        <v>5403</v>
+        <v>5402</v>
       </c>
       <c r="D108" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E108">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F108" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="G108" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+      <c r="H108" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B109" t="str" cm="1">
         <f t="array" ref="B109">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C109">
-        <v>5105</v>
+        <v>5404</v>
       </c>
       <c r="D109" t="s">
-        <v>162</v>
+        <v>553</v>
       </c>
       <c r="E109">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="F109" t="s">
-        <v>100</v>
-      </c>
-      <c r="G109" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+      <c r="G109" s="21" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B110" t="str" cm="1">
         <f t="array" ref="B110">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C110">
-        <v>5101</v>
+        <v>5403</v>
       </c>
       <c r="D110" t="s">
-        <v>163</v>
+        <v>552</v>
       </c>
       <c r="E110">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F110" t="s">
-        <v>97</v>
+        <v>495</v>
       </c>
       <c r="G110" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+      <c r="H110" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B111" t="str" cm="1">
         <f t="array" ref="B111">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C111">
-        <v>5204</v>
+        <v>5101</v>
       </c>
       <c r="D111" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E111">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F111" t="s">
-        <v>181</v>
+        <v>85</v>
       </c>
       <c r="G111" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5300</v>
@@ -35243,19 +35322,19 @@
         <v>Asie</v>
       </c>
       <c r="C112">
-        <v>5302</v>
+        <v>5304</v>
       </c>
       <c r="D112" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E112">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F112" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G112" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -35268,72 +35347,69 @@
         <v>Afrique</v>
       </c>
       <c r="C113">
-        <v>5103</v>
+        <v>5101</v>
       </c>
       <c r="D113" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E113">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F113" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G113" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B114" t="str" cm="1">
         <f t="array" ref="B114">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C114">
+        <v>5303</v>
+      </c>
+      <c r="D114" t="s">
+        <v>416</v>
+      </c>
+      <c r="E114">
+        <v>132</v>
+      </c>
+      <c r="F114" t="s">
+        <v>354</v>
+      </c>
+      <c r="G114" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B115" t="str" cm="1">
+        <f t="array" ref="B115">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
         <v>Afrique</v>
       </c>
-      <c r="C114">
-        <v>5101</v>
-      </c>
-      <c r="D114" t="s">
-        <v>163</v>
-      </c>
-      <c r="E114">
-        <v>144</v>
-      </c>
-      <c r="F114" t="s">
-        <v>103</v>
-      </c>
-      <c r="G114" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
-        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
-      </c>
-      <c r="B115" s="1" t="str" cm="1">
-        <f t="array" ref="B115">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
-      </c>
       <c r="C115">
-        <v>5304</v>
+        <v>5105</v>
       </c>
       <c r="D115" t="s">
-        <v>415</v>
+        <v>162</v>
       </c>
       <c r="E115">
-        <v>145</v>
-      </c>
-      <c r="F115" s="16" t="s">
-        <v>657</v>
-      </c>
-      <c r="G115" s="16" t="s">
-        <v>658</v>
-      </c>
-      <c r="H115" t="s">
-        <v>648</v>
+        <v>133</v>
+      </c>
+      <c r="F115" t="s">
+        <v>91</v>
+      </c>
+      <c r="G115" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -35346,19 +35422,19 @@
         <v>Europe</v>
       </c>
       <c r="C116">
-        <v>5401</v>
+        <v>5403</v>
       </c>
       <c r="D116" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E116">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F116" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="G116" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -35371,69 +35447,69 @@
         <v>Afrique</v>
       </c>
       <c r="C117">
-        <v>5104</v>
+        <v>5103</v>
       </c>
       <c r="D117" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E117">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F117" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G117" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B118" t="str" cm="1">
         <f t="array" ref="B118">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C118">
-        <v>5303</v>
+        <v>5101</v>
       </c>
       <c r="D118" t="s">
-        <v>416</v>
+        <v>163</v>
       </c>
       <c r="E118">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F118" t="s">
-        <v>363</v>
+        <v>97</v>
       </c>
       <c r="G118" t="s">
-        <v>365</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B119" t="str" cm="1">
         <f t="array" ref="B119">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C119">
-        <v>5404</v>
+        <v>5105</v>
       </c>
       <c r="D119" t="s">
-        <v>553</v>
+        <v>162</v>
       </c>
       <c r="E119">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F119" t="s">
-        <v>507</v>
+        <v>100</v>
       </c>
       <c r="G119" t="s">
-        <v>509</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -35446,147 +35522,150 @@
         <v>Amériques</v>
       </c>
       <c r="C120">
-        <v>5206</v>
+        <v>5204</v>
       </c>
       <c r="D120" t="s">
-        <v>426</v>
+        <v>165</v>
       </c>
       <c r="E120">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="G120" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
-      </c>
-      <c r="B121" t="str" cm="1">
+        <v>5300</v>
+      </c>
+      <c r="B121" s="1" t="str" cm="1">
         <f t="array" ref="B121">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Asie</v>
       </c>
       <c r="C121">
-        <v>5502</v>
+        <v>5304</v>
       </c>
       <c r="D121" t="s">
-        <v>566</v>
+        <v>415</v>
       </c>
       <c r="E121">
-        <v>153</v>
-      </c>
-      <c r="F121" t="s">
-        <v>570</v>
-      </c>
-      <c r="G121" t="s">
-        <v>572</v>
+        <v>145</v>
+      </c>
+      <c r="F121" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="G121" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="H121" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B122" t="str" cm="1">
         <f t="array" ref="B122">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C122">
-        <v>5403</v>
+        <v>5302</v>
       </c>
       <c r="D122" t="s">
-        <v>552</v>
+        <v>418</v>
       </c>
       <c r="E122">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="F122" t="s">
-        <v>495</v>
+        <v>357</v>
       </c>
       <c r="G122" t="s">
-        <v>497</v>
-      </c>
-      <c r="H122" t="s">
-        <v>642</v>
+        <v>359</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="B123" t="str" cm="1">
         <f t="array" ref="B123">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Europe</v>
       </c>
       <c r="C123">
-        <v>5502</v>
+        <v>5403</v>
       </c>
       <c r="D123" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="E123">
-        <v>155</v>
-      </c>
-      <c r="F123" t="s">
-        <v>563</v>
+        <v>273</v>
+      </c>
+      <c r="F123" s="21" t="s">
+        <v>501</v>
       </c>
       <c r="G123" t="s">
-        <v>565</v>
+        <v>503</v>
+      </c>
+      <c r="H123" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="B124" t="str" cm="1">
         <f t="array" ref="B124">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Afrique</v>
       </c>
       <c r="C124">
-        <v>5501</v>
+        <v>5101</v>
       </c>
       <c r="D124" t="s">
-        <v>419</v>
+        <v>163</v>
       </c>
       <c r="E124">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F124" t="s">
-        <v>423</v>
+        <v>103</v>
       </c>
       <c r="G124" t="s">
-        <v>425</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B125" t="str" cm="1">
         <f t="array" ref="B125">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C125">
-        <v>5204</v>
+        <v>5304</v>
       </c>
       <c r="D125" t="s">
-        <v>165</v>
+        <v>415</v>
       </c>
       <c r="E125">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="F125" t="s">
-        <v>184</v>
+        <v>360</v>
       </c>
       <c r="G125" t="s">
-        <v>186</v>
+        <v>362</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -35599,119 +35678,119 @@
         <v>Afrique</v>
       </c>
       <c r="C126">
-        <v>5105</v>
+        <v>5104</v>
       </c>
       <c r="D126" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E126">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F126" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G126" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B127" t="str" cm="1">
         <f t="array" ref="B127">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C127">
-        <v>5105</v>
+        <v>5303</v>
       </c>
       <c r="D127" t="s">
-        <v>162</v>
+        <v>416</v>
       </c>
       <c r="E127">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F127" t="s">
-        <v>112</v>
+        <v>363</v>
       </c>
       <c r="G127" t="s">
-        <v>114</v>
+        <v>365</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B128" t="str" cm="1">
         <f t="array" ref="B128">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C128">
-        <v>5402</v>
+        <v>5204</v>
       </c>
       <c r="D128" t="s">
-        <v>555</v>
+        <v>165</v>
       </c>
       <c r="E128">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F128" t="s">
-        <v>504</v>
+        <v>184</v>
       </c>
       <c r="G128" t="s">
-        <v>506</v>
+        <v>186</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B129" t="str" cm="1">
         <f t="array" ref="B129">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C129">
-        <v>5303</v>
+        <v>5105</v>
       </c>
       <c r="D129" t="s">
-        <v>416</v>
+        <v>162</v>
       </c>
       <c r="E129">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F129" t="s">
-        <v>372</v>
+        <v>109</v>
       </c>
       <c r="G129" t="s">
-        <v>374</v>
+        <v>111</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="B130" t="str" cm="1">
         <f t="array" ref="B130">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Afrique</v>
       </c>
       <c r="C130">
-        <v>5204</v>
+        <v>5105</v>
       </c>
       <c r="D130" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E130">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F130" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="G130" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -35724,19 +35803,19 @@
         <v>Europe</v>
       </c>
       <c r="C131">
-        <v>5401</v>
+        <v>5402</v>
       </c>
       <c r="D131" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E131">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F131" t="s">
-        <v>545</v>
+        <v>504</v>
       </c>
       <c r="G131" t="s">
-        <v>547</v>
+        <v>506</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -35755,269 +35834,275 @@
         <v>566</v>
       </c>
       <c r="E132">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="F132" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G132" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="B133" t="str" cm="1">
         <f t="array" ref="B133">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Océanie</v>
       </c>
       <c r="C133">
-        <v>5207</v>
+        <v>5501</v>
       </c>
       <c r="D133" t="s">
-        <v>190</v>
+        <v>419</v>
       </c>
       <c r="E133">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="F133" t="s">
-        <v>212</v>
+        <v>423</v>
       </c>
       <c r="G133" t="s">
-        <v>214</v>
+        <v>425</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B134" t="str" cm="1">
         <f t="array" ref="B134">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C134">
-        <v>5207</v>
+        <v>5305</v>
       </c>
       <c r="D134" t="s">
-        <v>190</v>
+        <v>417</v>
       </c>
       <c r="E134">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="F134" t="s">
-        <v>215</v>
+        <v>366</v>
       </c>
       <c r="G134" t="s">
-        <v>217</v>
+        <v>368</v>
+      </c>
+      <c r="H134" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B135" t="str" cm="1">
         <f t="array" ref="B135">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C135">
-        <v>5304</v>
+        <v>5101</v>
       </c>
       <c r="D135" t="s">
-        <v>415</v>
+        <v>163</v>
       </c>
       <c r="E135">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="F135" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="G135" t="s">
-        <v>377</v>
+        <v>117</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B136" t="str" cm="1">
         <f t="array" ref="B136">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C136">
-        <v>5401</v>
+        <v>5301</v>
       </c>
       <c r="D136" t="s">
-        <v>554</v>
+        <v>414</v>
       </c>
       <c r="E136">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="F136" t="s">
-        <v>510</v>
+        <v>369</v>
       </c>
       <c r="G136" t="s">
-        <v>512</v>
+        <v>371</v>
+      </c>
+      <c r="H136" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B137" t="str" cm="1">
         <f t="array" ref="B137">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C137">
-        <v>5403</v>
+        <v>5303</v>
       </c>
       <c r="D137" t="s">
-        <v>552</v>
+        <v>416</v>
       </c>
       <c r="E137">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F137" t="s">
-        <v>513</v>
+        <v>372</v>
       </c>
       <c r="G137" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
-      </c>
-      <c r="B138" t="str" cm="1">
-        <f t="array" ref="B138">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
-      </c>
-      <c r="C138">
-        <v>5105</v>
-      </c>
-      <c r="D138" t="s">
-        <v>162</v>
-      </c>
-      <c r="E138">
-        <v>175</v>
-      </c>
-      <c r="F138" t="s">
-        <v>70</v>
-      </c>
-      <c r="G138" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5300</v>
       </c>
-      <c r="B139" t="str" cm="1">
+      <c r="B138" s="1" t="str" cm="1">
+        <f t="array" ref="B138">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C138">
+        <v>5305</v>
+      </c>
+      <c r="D138" t="s">
+        <v>417</v>
+      </c>
+      <c r="E138">
+        <v>299</v>
+      </c>
+      <c r="F138" s="22" t="s">
+        <v>671</v>
+      </c>
+      <c r="G138" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="H138" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5300</v>
+      </c>
+      <c r="B139" s="1" t="str" cm="1">
         <f t="array" ref="B139">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
         <v>Asie</v>
       </c>
       <c r="C139">
-        <v>5304</v>
+        <v>5305</v>
       </c>
       <c r="D139" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E139">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="F139" t="s">
-        <v>399</v>
-      </c>
-      <c r="G139" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A140" s="1">
+        <v>671</v>
+      </c>
+      <c r="G139" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="H139" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5200</v>
       </c>
-      <c r="B140" s="1" t="str" cm="1">
+      <c r="B140" t="str" cm="1">
         <f t="array" ref="B140">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
         <v>Amériques</v>
       </c>
       <c r="C140">
-        <v>5206</v>
+        <v>5204</v>
       </c>
       <c r="D140" t="s">
-        <v>426</v>
+        <v>165</v>
       </c>
       <c r="E140">
-        <v>177</v>
-      </c>
-      <c r="F140" s="16" t="s">
-        <v>659</v>
-      </c>
-      <c r="G140" s="18" t="s">
-        <v>660</v>
-      </c>
-      <c r="H140" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A141" s="1">
+        <v>166</v>
+      </c>
+      <c r="F140" t="s">
+        <v>187</v>
+      </c>
+      <c r="G140" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
-      </c>
-      <c r="B141" s="1" t="str" cm="1">
+        <v>5500</v>
+      </c>
+      <c r="B141" t="str" cm="1">
         <f t="array" ref="B141">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Océanie</v>
       </c>
       <c r="C141">
-        <v>5101</v>
+        <v>5502</v>
       </c>
       <c r="D141" t="s">
-        <v>163</v>
+        <v>566</v>
       </c>
       <c r="E141">
-        <v>178</v>
-      </c>
-      <c r="F141" s="16" t="s">
-        <v>661</v>
-      </c>
-      <c r="G141" s="16" t="s">
-        <v>662</v>
-      </c>
-      <c r="H141" t="s">
-        <v>648</v>
+        <v>168</v>
+      </c>
+      <c r="F141" t="s">
+        <v>573</v>
+      </c>
+      <c r="G141" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B142" t="str" cm="1">
         <f t="array" ref="B142">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C142">
-        <v>5101</v>
+        <v>5207</v>
       </c>
       <c r="D142" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="E142">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F142" t="s">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="G142" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -36030,69 +36115,69 @@
         <v>Europe</v>
       </c>
       <c r="C143">
-        <v>5401</v>
+        <v>5404</v>
       </c>
       <c r="D143" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E143">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="F143" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="G143" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B144" t="str" cm="1">
         <f t="array" ref="B144">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C144">
-        <v>5101</v>
+        <v>5207</v>
       </c>
       <c r="D144" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="E144">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F144" t="s">
-        <v>127</v>
+        <v>215</v>
       </c>
       <c r="G144" t="s">
-        <v>129</v>
+        <v>217</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B145" t="str" cm="1">
         <f t="array" ref="B145">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C145">
-        <v>5401</v>
+        <v>5304</v>
       </c>
       <c r="D145" t="s">
-        <v>554</v>
+        <v>415</v>
       </c>
       <c r="E145">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F145" t="s">
-        <v>462</v>
+        <v>375</v>
       </c>
       <c r="G145" t="s">
-        <v>464</v>
+        <v>377</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -36105,55 +36190,52 @@
         <v>Europe</v>
       </c>
       <c r="C146">
-        <v>5403</v>
+        <v>5401</v>
       </c>
       <c r="D146" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E146">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="F146" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="G146" t="s">
-        <v>531</v>
-      </c>
-      <c r="H146" t="s">
-        <v>643</v>
+        <v>512</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="B147" t="str" cm="1">
         <f t="array" ref="B147">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Océanie</v>
       </c>
       <c r="C147">
-        <v>5206</v>
+        <v>5504</v>
       </c>
       <c r="D147" t="s">
-        <v>426</v>
+        <v>589</v>
       </c>
       <c r="E147">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="F147" t="s">
-        <v>268</v>
+        <v>578</v>
       </c>
       <c r="G147" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5200</v>
       </c>
-      <c r="B148" t="str" cm="1">
+      <c r="B148" s="1" t="str" cm="1">
         <f t="array" ref="B148">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
         <v>Amériques</v>
       </c>
@@ -36164,63 +36246,69 @@
         <v>426</v>
       </c>
       <c r="E148">
-        <v>189</v>
-      </c>
-      <c r="F148" t="s">
-        <v>265</v>
-      </c>
-      <c r="G148" t="s">
-        <v>267</v>
+        <v>177</v>
+      </c>
+      <c r="F148" s="16" t="s">
+        <v>659</v>
+      </c>
+      <c r="G148" s="18" t="s">
+        <v>660</v>
+      </c>
+      <c r="H148" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B149" t="str" cm="1">
         <f t="array" ref="B149">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C149">
-        <v>5206</v>
+        <v>5403</v>
       </c>
       <c r="D149" t="s">
-        <v>426</v>
+        <v>552</v>
       </c>
       <c r="E149">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="F149" t="s">
-        <v>271</v>
+        <v>513</v>
       </c>
       <c r="G149" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
-      </c>
-      <c r="B150" t="str" cm="1">
+        <v>5300</v>
+      </c>
+      <c r="B150" s="1" t="str" cm="1">
         <f t="array" ref="B150">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C150">
-        <v>5102</v>
+        <v>5305</v>
       </c>
       <c r="D150" t="s">
-        <v>161</v>
+        <v>417</v>
       </c>
       <c r="E150">
-        <v>193</v>
-      </c>
-      <c r="F150" t="s">
-        <v>130</v>
-      </c>
-      <c r="G150" t="s">
-        <v>132</v>
+        <v>179</v>
+      </c>
+      <c r="F150" s="16" t="s">
+        <v>677</v>
+      </c>
+      <c r="G150" s="16" t="s">
+        <v>676</v>
+      </c>
+      <c r="H150" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -36239,13 +36327,16 @@
         <v>417</v>
       </c>
       <c r="E151">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="F151" t="s">
-        <v>281</v>
+        <v>378</v>
       </c>
       <c r="G151" t="s">
-        <v>283</v>
+        <v>380</v>
+      </c>
+      <c r="H151" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -36258,175 +36349,172 @@
         <v>Afrique</v>
       </c>
       <c r="C152">
-        <v>5105</v>
+        <v>5102</v>
       </c>
       <c r="D152" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E152">
-        <v>195</v>
+        <v>37</v>
       </c>
       <c r="F152" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="G152" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B153" t="str" cm="1">
         <f t="array" ref="B153">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C153">
-        <v>5101</v>
+        <v>5302</v>
       </c>
       <c r="D153" t="s">
-        <v>163</v>
+        <v>418</v>
       </c>
       <c r="E153">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="F153" t="s">
-        <v>136</v>
+        <v>381</v>
       </c>
       <c r="G153" t="s">
-        <v>138</v>
+        <v>383</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B154" t="str" cm="1">
         <f t="array" ref="B154">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C154">
-        <v>5105</v>
+        <v>5401</v>
       </c>
       <c r="D154" t="s">
-        <v>162</v>
+        <v>554</v>
       </c>
       <c r="E154">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="F154" t="s">
-        <v>139</v>
+        <v>516</v>
       </c>
       <c r="G154" t="s">
-        <v>141</v>
+        <v>518</v>
+      </c>
+      <c r="H154" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B155" t="str" cm="1">
         <f t="array" ref="B155">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C155">
-        <v>5403</v>
+        <v>5102</v>
       </c>
       <c r="D155" t="s">
-        <v>552</v>
+        <v>161</v>
       </c>
       <c r="E155">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="F155" t="s">
-        <v>535</v>
+        <v>121</v>
       </c>
       <c r="G155" t="s">
-        <v>537</v>
+        <v>123</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B156" t="str" cm="1">
         <f t="array" ref="B156">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C156">
-        <v>5401</v>
+        <v>5304</v>
       </c>
       <c r="D156" t="s">
-        <v>554</v>
+        <v>415</v>
       </c>
       <c r="E156">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="F156" t="s">
-        <v>532</v>
+        <v>384</v>
       </c>
       <c r="G156" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A157" s="1">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5200</v>
+      </c>
+      <c r="B157" t="str" cm="1">
+        <f t="array" ref="B157">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Amériques</v>
+      </c>
+      <c r="C157">
+        <v>5206</v>
+      </c>
+      <c r="D157" t="s">
+        <v>426</v>
+      </c>
+      <c r="E157">
+        <v>56</v>
+      </c>
+      <c r="F157" t="s">
+        <v>262</v>
+      </c>
+      <c r="G157" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5300</v>
       </c>
-      <c r="B157" s="1" t="str" cm="1">
-        <f t="array" ref="B157">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+      <c r="B158" t="str" cm="1">
+        <f t="array" ref="B158">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
         <v>Asie</v>
       </c>
-      <c r="C157">
-        <v>5304</v>
-      </c>
-      <c r="D157" t="s">
-        <v>415</v>
-      </c>
-      <c r="E157">
-        <v>200</v>
-      </c>
-      <c r="F157" s="18" t="s">
-        <v>663</v>
-      </c>
-      <c r="G157" s="16" t="s">
-        <v>664</v>
-      </c>
-      <c r="H157" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A158" s="1">
-        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
-      </c>
-      <c r="B158" s="1" t="str" cm="1">
-        <f t="array" ref="B158">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
-      </c>
       <c r="C158">
-        <v>5101</v>
+        <v>5302</v>
       </c>
       <c r="D158" t="s">
-        <v>163</v>
+        <v>418</v>
       </c>
       <c r="E158">
-        <v>201</v>
-      </c>
-      <c r="F158" s="16" t="s">
-        <v>665</v>
-      </c>
-      <c r="G158" s="16" t="s">
-        <v>666</v>
-      </c>
-      <c r="H158" t="s">
-        <v>648</v>
+        <v>116</v>
+      </c>
+      <c r="F158" t="s">
+        <v>387</v>
+      </c>
+      <c r="G158" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -36439,19 +36527,19 @@
         <v>Afrique</v>
       </c>
       <c r="C159">
-        <v>5104</v>
+        <v>5101</v>
       </c>
       <c r="D159" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E159">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F159" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="G159" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -36470,291 +36558,297 @@
         <v>552</v>
       </c>
       <c r="E160">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="F160" t="s">
-        <v>456</v>
+        <v>519</v>
       </c>
       <c r="G160" t="s">
-        <v>458</v>
+        <v>503</v>
+      </c>
+      <c r="H160" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
+      <c r="A161">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
-      </c>
-      <c r="B161" s="1" t="str" cm="1">
+        <v>5400</v>
+      </c>
+      <c r="B161" t="str" cm="1">
         <f t="array" ref="B161">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C161">
-        <v>5103</v>
+        <v>5401</v>
       </c>
       <c r="D161" t="s">
-        <v>164</v>
+        <v>554</v>
       </c>
       <c r="E161">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="F161" t="s">
-        <v>142</v>
+        <v>520</v>
       </c>
       <c r="G161" t="s">
-        <v>144</v>
-      </c>
-      <c r="H161" t="s">
-        <v>645</v>
+        <v>522</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B162" t="str" cm="1">
         <f t="array" ref="B162">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C162">
-        <v>5207</v>
+        <v>5402</v>
       </c>
       <c r="D162" t="s">
-        <v>190</v>
+        <v>555</v>
       </c>
       <c r="E162">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="F162" t="s">
-        <v>218</v>
+        <v>523</v>
       </c>
       <c r="G162" t="s">
-        <v>220</v>
+        <v>525</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B163" t="str" cm="1">
         <f t="array" ref="B163">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C163">
-        <v>5301</v>
+        <v>5101</v>
       </c>
       <c r="D163" t="s">
-        <v>414</v>
+        <v>163</v>
       </c>
       <c r="E163">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="F163" t="s">
-        <v>393</v>
+        <v>127</v>
       </c>
       <c r="G163" t="s">
-        <v>395</v>
+        <v>129</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B164" t="str" cm="1">
         <f t="array" ref="B164">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C164">
-        <v>5104</v>
+        <v>5206</v>
       </c>
       <c r="D164" t="s">
-        <v>160</v>
+        <v>426</v>
       </c>
       <c r="E164">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="F164" t="s">
-        <v>50</v>
+        <v>265</v>
       </c>
       <c r="G164" t="s">
-        <v>52</v>
+        <v>267</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B165" t="str" cm="1">
         <f t="array" ref="B165">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C165">
-        <v>5402</v>
+        <v>5206</v>
       </c>
       <c r="D165" t="s">
-        <v>555</v>
+        <v>426</v>
       </c>
       <c r="E165">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="F165" t="s">
-        <v>538</v>
+        <v>268</v>
       </c>
       <c r="G165" t="s">
-        <v>540</v>
+        <v>270</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="B166" t="str" cm="1">
         <f t="array" ref="B166">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Amériques</v>
       </c>
       <c r="C166">
-        <v>5404</v>
+        <v>5206</v>
       </c>
       <c r="D166" t="s">
-        <v>553</v>
+        <v>426</v>
       </c>
       <c r="E166">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="F166" t="s">
-        <v>541</v>
+        <v>271</v>
       </c>
       <c r="G166" t="s">
-        <v>543</v>
+        <v>273</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="B167" t="str" cm="1">
         <f t="array" ref="B167">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Océanie</v>
       </c>
       <c r="C167">
-        <v>5305</v>
+        <v>5504</v>
       </c>
       <c r="D167" t="s">
-        <v>417</v>
+        <v>589</v>
       </c>
       <c r="E167">
-        <v>212</v>
-      </c>
-      <c r="F167" t="s">
-        <v>378</v>
-      </c>
-      <c r="G167" t="s">
-        <v>380</v>
+        <v>244</v>
+      </c>
+      <c r="F167" s="21" t="s">
+        <v>581</v>
+      </c>
+      <c r="G167" s="21" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B168" t="str" cm="1">
         <f t="array" ref="B168">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C168">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="D168" t="s">
-        <v>414</v>
+        <v>161</v>
       </c>
       <c r="E168">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="F168" t="s">
-        <v>402</v>
+        <v>130</v>
       </c>
       <c r="G168" t="s">
-        <v>404</v>
+        <v>132</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B169" t="str" cm="1">
         <f t="array" ref="B169">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C169">
-        <v>5302</v>
+        <v>5105</v>
       </c>
       <c r="D169" t="s">
-        <v>418</v>
+        <v>162</v>
       </c>
       <c r="E169">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="F169" t="s">
-        <v>306</v>
+        <v>133</v>
       </c>
       <c r="G169" t="s">
-        <v>308</v>
+        <v>135</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B170" t="str" cm="1">
         <f t="array" ref="B170">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C170">
-        <v>5101</v>
+        <v>5403</v>
       </c>
       <c r="D170" t="s">
-        <v>163</v>
+        <v>552</v>
       </c>
       <c r="E170">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c r="F170" t="s">
-        <v>124</v>
+        <v>526</v>
       </c>
       <c r="G170" t="s">
-        <v>126</v>
+        <v>528</v>
+      </c>
+      <c r="H170" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B171" t="str" cm="1">
         <f t="array" ref="B171">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C171">
-        <v>5304</v>
+        <v>5403</v>
       </c>
       <c r="D171" t="s">
-        <v>415</v>
+        <v>552</v>
       </c>
       <c r="E171">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="F171" t="s">
-        <v>396</v>
+        <v>529</v>
       </c>
       <c r="G171" t="s">
-        <v>398</v>
+        <v>531</v>
+      </c>
+      <c r="H171" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -36767,180 +36861,186 @@
         <v>Afrique</v>
       </c>
       <c r="C172">
+        <v>5101</v>
+      </c>
+      <c r="D172" t="s">
+        <v>163</v>
+      </c>
+      <c r="E172">
+        <v>196</v>
+      </c>
+      <c r="F172" t="s">
+        <v>136</v>
+      </c>
+      <c r="G172" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B173" t="str" cm="1">
+        <f t="array" ref="B173">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C173">
         <v>5105</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D173" t="s">
         <v>162</v>
       </c>
-      <c r="E172">
-        <v>217</v>
-      </c>
-      <c r="F172" t="s">
-        <v>148</v>
-      </c>
-      <c r="G172" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A173" s="1">
+      <c r="E173">
+        <v>197</v>
+      </c>
+      <c r="F173" t="s">
+        <v>139</v>
+      </c>
+      <c r="G173" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
-      </c>
-      <c r="B173" s="1" t="str" cm="1">
-        <f t="array" ref="B173">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
-      </c>
-      <c r="C173">
-        <v>5504</v>
-      </c>
-      <c r="D173" t="s">
-        <v>589</v>
-      </c>
-      <c r="E173">
-        <v>219</v>
-      </c>
-      <c r="F173" s="18" t="s">
-        <v>667</v>
-      </c>
-      <c r="G173" s="16" t="s">
-        <v>668</v>
-      </c>
-      <c r="H173" t="s">
+        <v>5300</v>
+      </c>
+      <c r="B174" s="1" t="str" cm="1">
+        <f t="array" ref="B174">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Asie</v>
+      </c>
+      <c r="C174">
+        <v>5304</v>
+      </c>
+      <c r="D174" t="s">
+        <v>415</v>
+      </c>
+      <c r="E174">
+        <v>200</v>
+      </c>
+      <c r="F174" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="G174" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="H174" t="s">
         <v>648</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
-      </c>
-      <c r="B174" t="str" cm="1">
-        <f t="array" ref="B174">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
-      </c>
-      <c r="C174">
-        <v>5206</v>
-      </c>
-      <c r="D174" t="s">
-        <v>426</v>
-      </c>
-      <c r="E174">
-        <v>220</v>
-      </c>
-      <c r="F174" t="s">
-        <v>274</v>
-      </c>
-      <c r="G174" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B175" t="str" cm="1">
         <f t="array" ref="B175">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C175">
-        <v>5305</v>
+        <v>5401</v>
       </c>
       <c r="D175" t="s">
-        <v>417</v>
+        <v>554</v>
       </c>
       <c r="E175">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="F175" t="s">
-        <v>366</v>
+        <v>532</v>
       </c>
       <c r="G175" t="s">
-        <v>368</v>
+        <v>534</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="B176" t="str" cm="1">
         <f t="array" ref="B176">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Europe</v>
       </c>
       <c r="C176">
-        <v>5103</v>
+        <v>5403</v>
       </c>
       <c r="D176" t="s">
-        <v>164</v>
+        <v>552</v>
       </c>
       <c r="E176">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="F176" t="s">
-        <v>151</v>
+        <v>535</v>
       </c>
       <c r="G176" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
-      </c>
-      <c r="B177" t="str" cm="1">
-        <f t="array" ref="B177">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
-      </c>
-      <c r="C177">
-        <v>5305</v>
-      </c>
-      <c r="D177" t="s">
-        <v>417</v>
-      </c>
-      <c r="E177">
-        <v>223</v>
-      </c>
-      <c r="F177" t="s">
-        <v>405</v>
-      </c>
-      <c r="G177" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
-      </c>
-      <c r="B178" t="str" cm="1">
-        <f t="array" ref="B178">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
-      </c>
-      <c r="C178">
-        <v>5305</v>
-      </c>
-      <c r="D178" t="s">
-        <v>417</v>
-      </c>
-      <c r="E178">
-        <v>225</v>
-      </c>
-      <c r="F178" t="s">
-        <v>312</v>
-      </c>
-      <c r="G178" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5100</v>
       </c>
-      <c r="B179" t="str" cm="1">
+      <c r="B177" s="1" t="str" cm="1">
+        <f t="array" ref="B177">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C177">
+        <v>5101</v>
+      </c>
+      <c r="D177" t="s">
+        <v>163</v>
+      </c>
+      <c r="E177">
+        <v>201</v>
+      </c>
+      <c r="F177" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="G177" s="16" t="s">
+        <v>666</v>
+      </c>
+      <c r="H177" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B178" s="1" t="str" cm="1">
+        <f t="array" ref="B178">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C178">
+        <v>5103</v>
+      </c>
+      <c r="D178" t="s">
+        <v>164</v>
+      </c>
+      <c r="E178">
+        <v>206</v>
+      </c>
+      <c r="F178" t="s">
+        <v>142</v>
+      </c>
+      <c r="G178" t="s">
+        <v>144</v>
+      </c>
+      <c r="H178" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B179" s="1" t="str" cm="1">
         <f t="array" ref="B179">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
         <v>Afrique</v>
       </c>
@@ -36951,66 +37051,69 @@
         <v>163</v>
       </c>
       <c r="E179">
-        <v>226</v>
-      </c>
-      <c r="F179" t="s">
-        <v>115</v>
-      </c>
-      <c r="G179" t="s">
-        <v>117</v>
+        <v>277</v>
+      </c>
+      <c r="F179" s="16" t="s">
+        <v>669</v>
+      </c>
+      <c r="G179" s="16" t="s">
+        <v>670</v>
+      </c>
+      <c r="H179" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B180" t="str" cm="1">
         <f t="array" ref="B180">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C180">
-        <v>5401</v>
+        <v>5103</v>
       </c>
       <c r="D180" t="s">
-        <v>554</v>
+        <v>164</v>
       </c>
       <c r="E180">
-        <v>228</v>
+        <v>276</v>
       </c>
       <c r="F180" t="s">
-        <v>551</v>
+        <v>645</v>
       </c>
       <c r="G180" t="s">
-        <v>464</v>
+        <v>144</v>
       </c>
       <c r="H180" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B181" t="str" cm="1">
         <f t="array" ref="B181">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C181">
-        <v>5402</v>
+        <v>5303</v>
       </c>
       <c r="D181" t="s">
-        <v>555</v>
+        <v>416</v>
       </c>
       <c r="E181">
-        <v>229</v>
+        <v>38</v>
       </c>
       <c r="F181" t="s">
-        <v>523</v>
+        <v>390</v>
       </c>
       <c r="G181" t="s">
-        <v>525</v>
+        <v>392</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -37023,297 +37126,303 @@
         <v>Europe</v>
       </c>
       <c r="C182">
-        <v>5401</v>
+        <v>5402</v>
       </c>
       <c r="D182" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E182">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="F182" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="G182" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B183" t="str" cm="1">
         <f t="array" ref="B183">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C183">
-        <v>5203</v>
+        <v>5404</v>
       </c>
       <c r="D183" t="s">
-        <v>227</v>
+        <v>553</v>
       </c>
       <c r="E183">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="F183" t="s">
-        <v>231</v>
+        <v>541</v>
       </c>
       <c r="G183" t="s">
-        <v>233</v>
+        <v>543</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B184" t="str" cm="1">
         <f t="array" ref="B184">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C184">
-        <v>5105</v>
+        <v>5207</v>
       </c>
       <c r="D184" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="E184">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="F184" t="s">
-        <v>23</v>
+        <v>218</v>
       </c>
       <c r="G184" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B185" t="str" cm="1">
         <f t="array" ref="B185">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Asie</v>
       </c>
       <c r="C185">
-        <v>5207</v>
+        <v>5301</v>
       </c>
       <c r="D185" t="s">
-        <v>190</v>
+        <v>414</v>
       </c>
       <c r="E185">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="F185" t="s">
-        <v>221</v>
+        <v>393</v>
       </c>
       <c r="G185" t="s">
-        <v>223</v>
+        <v>395</v>
+      </c>
+      <c r="H185" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="B186" t="str" cm="1">
         <f t="array" ref="B186">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C186">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="D186" t="s">
-        <v>414</v>
+        <v>161</v>
       </c>
       <c r="E186">
-        <v>235</v>
+        <v>39</v>
       </c>
       <c r="F186" t="s">
-        <v>369</v>
+        <v>145</v>
       </c>
       <c r="G186" t="s">
-        <v>371</v>
+        <v>147</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B187" t="str" cm="1">
         <f t="array" ref="B187">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Amériques</v>
+        <v>Europe</v>
       </c>
       <c r="C187">
-        <v>5207</v>
+        <v>5401</v>
       </c>
       <c r="D187" t="s">
-        <v>190</v>
+        <v>554</v>
       </c>
       <c r="E187">
-        <v>236</v>
+        <v>51</v>
       </c>
       <c r="F187" t="s">
-        <v>224</v>
+        <v>636</v>
       </c>
       <c r="G187" t="s">
-        <v>226</v>
+        <v>547</v>
+      </c>
+      <c r="H187" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B188" t="str" cm="1">
         <f t="array" ref="B188">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Europe</v>
       </c>
       <c r="C188">
-        <v>5304</v>
+        <v>5401</v>
       </c>
       <c r="D188" t="s">
-        <v>415</v>
+        <v>554</v>
       </c>
       <c r="E188">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="F188" t="s">
-        <v>408</v>
-      </c>
-      <c r="G188" t="s">
-        <v>410</v>
+        <v>545</v>
+      </c>
+      <c r="G188" s="21" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="B189" t="str" cm="1">
         <f t="array" ref="B189">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Asie</v>
       </c>
       <c r="C189">
-        <v>5101</v>
+        <v>5304</v>
       </c>
       <c r="D189" t="s">
-        <v>163</v>
+        <v>415</v>
       </c>
       <c r="E189">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="F189" t="s">
-        <v>53</v>
+        <v>396</v>
       </c>
       <c r="G189" t="s">
-        <v>55</v>
+        <v>398</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="B190" t="str" cm="1">
         <f t="array" ref="B190">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Océanie</v>
+        <v>Asie</v>
       </c>
       <c r="C190">
-        <v>5504</v>
+        <v>5304</v>
       </c>
       <c r="D190" t="s">
-        <v>589</v>
+        <v>415</v>
       </c>
       <c r="E190">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c r="F190" s="19" t="s">
-        <v>581</v>
+        <v>399</v>
       </c>
       <c r="G190" s="19" t="s">
-        <v>583</v>
+        <v>401</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="B191" t="str" cm="1">
         <f t="array" ref="B191">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Afrique</v>
       </c>
       <c r="C191">
-        <v>5403</v>
+        <v>5105</v>
       </c>
       <c r="D191" t="s">
-        <v>552</v>
+        <v>162</v>
       </c>
       <c r="E191">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="F191" t="s">
-        <v>519</v>
+        <v>148</v>
       </c>
       <c r="G191" t="s">
-        <v>503</v>
-      </c>
-      <c r="H191" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
-      </c>
-      <c r="B192" t="str" cm="1">
+        <v>5500</v>
+      </c>
+      <c r="B192" s="1" t="str" cm="1">
         <f t="array" ref="B192">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Océanie</v>
       </c>
       <c r="C192">
-        <v>5305</v>
+        <v>5504</v>
       </c>
       <c r="D192" t="s">
-        <v>417</v>
+        <v>589</v>
       </c>
       <c r="E192">
-        <v>249</v>
-      </c>
-      <c r="F192" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="G192" t="s">
-        <v>413</v>
+        <v>219</v>
+      </c>
+      <c r="F192" s="23" t="s">
+        <v>667</v>
+      </c>
+      <c r="G192" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="H192" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B193" t="str" cm="1">
         <f t="array" ref="B193">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C193">
-        <v>5102</v>
+        <v>5206</v>
       </c>
       <c r="D193" t="s">
-        <v>161</v>
+        <v>426</v>
       </c>
       <c r="E193">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="F193" t="s">
-        <v>121</v>
+        <v>274</v>
       </c>
       <c r="G193" t="s">
-        <v>123</v>
+        <v>276</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -37326,69 +37435,72 @@
         <v>Afrique</v>
       </c>
       <c r="C194">
-        <v>5101</v>
+        <v>5103</v>
       </c>
       <c r="D194" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E194">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="F194" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G194" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B195" t="str" cm="1">
         <f t="array" ref="B195">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C195">
-        <v>5404</v>
+        <v>5301</v>
       </c>
       <c r="D195" t="s">
-        <v>553</v>
+        <v>414</v>
       </c>
       <c r="E195">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="F195" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="G195" t="s">
-        <v>442</v>
+        <v>404</v>
+      </c>
+      <c r="H195" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B196" t="str" cm="1">
         <f t="array" ref="B196">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Europe</v>
+        <v>Asie</v>
       </c>
       <c r="C196">
-        <v>5404</v>
+        <v>5305</v>
       </c>
       <c r="D196" t="s">
-        <v>553</v>
+        <v>417</v>
       </c>
       <c r="E196">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="F196" t="s">
-        <v>492</v>
+        <v>405</v>
       </c>
       <c r="G196" s="19" t="s">
-        <v>494</v>
+        <v>407</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37401,22 +37513,22 @@
         <v>Europe</v>
       </c>
       <c r="C197">
-        <v>5403</v>
+        <v>5401</v>
       </c>
       <c r="D197" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E197">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="F197" t="s">
-        <v>526</v>
+        <v>548</v>
       </c>
       <c r="G197" t="s">
-        <v>528</v>
+        <v>550</v>
       </c>
       <c r="H197" t="s">
-        <v>642</v>
+        <v>680</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37429,106 +37541,97 @@
         <v>Europe</v>
       </c>
       <c r="C198">
-        <v>5403</v>
+        <v>5401</v>
       </c>
       <c r="D198" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E198">
-        <v>273</v>
-      </c>
-      <c r="F198" s="21" t="s">
-        <v>501</v>
+        <v>228</v>
+      </c>
+      <c r="F198" s="20" t="s">
+        <v>551</v>
       </c>
       <c r="G198" t="s">
-        <v>503</v>
+        <v>464</v>
       </c>
       <c r="H198" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B199" t="str" cm="1">
         <f t="array" ref="B199">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Amériques</v>
       </c>
       <c r="C199">
-        <v>5103</v>
+        <v>5207</v>
       </c>
       <c r="D199" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="E199">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="F199" t="s">
-        <v>645</v>
+        <v>221</v>
       </c>
       <c r="G199" t="s">
-        <v>144</v>
-      </c>
-      <c r="H199" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A200" s="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5100</v>
-      </c>
-      <c r="B200" s="1" t="str" cm="1">
+        <v>5500</v>
+      </c>
+      <c r="B200" t="str" cm="1">
         <f t="array" ref="B200">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Afrique</v>
+        <v>Océanie</v>
       </c>
       <c r="C200">
-        <v>5101</v>
+        <v>5502</v>
       </c>
       <c r="D200" t="s">
-        <v>163</v>
+        <v>566</v>
       </c>
       <c r="E200">
-        <v>277</v>
-      </c>
-      <c r="F200" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G200" s="16" t="s">
-        <v>670</v>
-      </c>
-      <c r="H200" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A201" s="1">
+        <v>155</v>
+      </c>
+      <c r="F200" t="s">
+        <v>563</v>
+      </c>
+      <c r="G200" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
-      </c>
-      <c r="B201" s="1" t="str" cm="1">
+        <v>5200</v>
+      </c>
+      <c r="B201" t="str" cm="1">
         <f t="array" ref="B201">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Amériques</v>
       </c>
       <c r="C201">
-        <v>5305</v>
+        <v>5207</v>
       </c>
       <c r="D201" t="s">
-        <v>417</v>
+        <v>190</v>
       </c>
       <c r="E201">
-        <v>299</v>
-      </c>
-      <c r="F201" s="20" t="s">
-        <v>671</v>
-      </c>
-      <c r="G201" s="16" t="s">
-        <v>672</v>
-      </c>
-      <c r="H201" t="s">
-        <v>673</v>
+        <v>236</v>
+      </c>
+      <c r="F201" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="G201" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -37541,22 +37644,22 @@
         <v>Asie</v>
       </c>
       <c r="C202">
-        <v>5302</v>
+        <v>5304</v>
       </c>
       <c r="D202" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E202">
-        <v>351</v>
+        <v>237</v>
       </c>
       <c r="F202" t="s">
-        <v>296</v>
+        <v>408</v>
       </c>
       <c r="G202" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
         <v>5300</v>
@@ -37566,50 +37669,72 @@
         <v>Asie</v>
       </c>
       <c r="C203">
-        <v>5302</v>
+        <v>5305</v>
       </c>
       <c r="D203" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E203">
-        <v>357</v>
-      </c>
-      <c r="F203" s="16" t="s">
-        <v>674</v>
+        <v>249</v>
+      </c>
+      <c r="F203" s="21" t="s">
+        <v>411</v>
       </c>
       <c r="G203" t="s">
-        <v>297</v>
+        <v>413</v>
       </c>
       <c r="H203" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A204" s="1">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204">
         <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
-        <v>5300</v>
-      </c>
-      <c r="B204" s="1" t="str" cm="1">
+        <v>5100</v>
+      </c>
+      <c r="B204" t="str" cm="1">
         <f t="array" ref="B204">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
-        <v>Asie</v>
+        <v>Afrique</v>
       </c>
       <c r="C204">
-        <v>5305</v>
+        <v>5101</v>
       </c>
       <c r="D204" t="s">
-        <v>417</v>
+        <v>163</v>
       </c>
       <c r="E204">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="F204" t="s">
-        <v>671</v>
-      </c>
-      <c r="G204" s="16" t="s">
-        <v>672</v>
-      </c>
-      <c r="H204" t="s">
-        <v>675</v>
+        <v>154</v>
+      </c>
+      <c r="G204" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <f>LEFT(Tableau62[[#This Row],[Code_ZoneContinent]],2)*100</f>
+        <v>5100</v>
+      </c>
+      <c r="B205" t="str" cm="1">
+        <f t="array" ref="B205">_xlfn.XLOOKUP(Tableau62[[#This Row],[CodeContinent]],Continent[[#All],[NumFAOContinent]],Continent[[#All],[Continent]])</f>
+        <v>Afrique</v>
+      </c>
+      <c r="C205">
+        <v>5101</v>
+      </c>
+      <c r="D205" t="s">
+        <v>163</v>
+      </c>
+      <c r="E205">
+        <v>181</v>
+      </c>
+      <c r="F205" t="s">
+        <v>157</v>
+      </c>
+      <c r="G205" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
